--- a/Project Arabic Sentiment Analysis/preprocessed_val.xlsx
+++ b/Project Arabic Sentiment Analysis/preprocessed_val.xlsx
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>اعجب صراح احس اسعار غال توصيل جدا راءع👌👍</t>
+          <t>اعجب صراح احس اسعار غال والتوصيل جدا راءع👌👍</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>طلب وصل ناقص مطعم تم اخذ مبلغ كامل وال الان 10 ايام يماطل موقع طلب اعذار منطق مبلغ تم اخذ كاش تطبيق فاشل جدا جدا</t>
+          <t>طلب وصل ناقص مطعم تم اخذ مبلغ كامل وال الان 10 ايام يماطل موقع طلبا باعذار منطق مبلغ تم اخذ كاش تطبيق فاشل جدا جدا</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>انا عايز اشتر ابلكيش طالب</t>
+          <t>انا عايز اشتر ابلكيش طالبا</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>اخس وارد ابرامج يرض يستجيب ميوصل طلب ال موقع يخلصل تمش لين اخر الدن تطلب انصح تنزلهفاشل</t>
+          <t>اخس وارد ابرامج يرض استجيب ميوصل طلب ال موقع يخلصل تمش لين اخر الدن تطلب انصح تنزلهفاشل</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>برنامج شغال وامور طيب وفج يسو اغلاق مفاجء مايفتح ارج حل مشكله</t>
+          <t>برنامج شغال وامور طيب وفج يسو اغلاق مفاجء مايفتح ارجو حل مشكله</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>تطبيق يحتاج وقت طويل جدا علشا يفتح</t>
+          <t>تطبيق يحتاج وقت طويل جدا علشان يفتح</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>توصيل يتاخر كثير يوصل ارد</t>
+          <t>توصيل يتاخر كثير يوصل بارد</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>فتر يغلو سعر توصيل 😐😑</t>
+          <t>فتر يغلون سعر توصيل 😐😑</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>رسال طلب طلب اوردر مفروض يجيل سعر ال انال قاءم طلب اسعار اوردر وصل الق سعر مختلف اسواء تطبيق</t>
+          <t>رسال طلبا طلب اوردر مفروض يجيل سعر ال بانال قاءم طلبا اسعار اوردر وصل الق سعر مختلف اسواء تطبيق</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>افشل رنامج صراح تقدير عميل اتعامل معا زما وف مره تاخر طلب يحطو لوم عل مطعم يوم اخر طلب منهم راح اتعامل دلفر</t>
+          <t>افشل رنامج صراح تقدير لعميل اتعامل معا زمان وف مره تاخر طلب يحطون لوم عل مطعم يوم اخر طلب منهم راح اتعامل دلفر</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>سلام عل رحم اله برك ان برنامج جميل جدا لان يوصل طلب سرع فاءق طعام جميل جدا شكر عل برنامج جميل</t>
+          <t>سلام علي رحم اله ركا ان برنامج جميل جدا لان يوصل طلب سرع فاءق والطعام جميل جدا شكر عل برنامج جميل</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>جميل جدا مشكل انو لمن اطلب يطول عشا يجيب طلب 😢انشاءال انكم تعدلون</t>
+          <t>جميل جدا مشكل انو لمن اطلب يطول عشان يجيب طلب 😢انشاءال انكم تعدلون</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>رنامج متاز يفضل بحث اسم اطباق لاغ عنه</t>
+          <t>رنامج متاز يفضل بحث باسم اطباق لاغ عنه</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>بعت mail عل help محدش رد عل</t>
+          <t>بعت mail عل help محدش رد علي</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>تضام كاب طلب تعديلالتسعير</t>
+          <t>تضام كاب طلبا تعديلالتسعير</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>اح يلغ طلب بدو اذن</t>
+          <t>احي يلغ طلب دون اذن</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>استمر جدا خورف رجاء تطور طلب كثير لطلب كثير ندعم نساعد شكر نريد طلب سريع تخفيض</t>
+          <t>استمر جدا خورف رجاء تطور طلبا كثير لطلب كثير لندعم نساعد شكر نريد طلب سريع تخفيضا</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>محتال لازم تسم تطبيق زبايل مطاعم اتق اله الف مره عمل شكو اش فاض اكل ال بيج منكم عبار زبال</t>
+          <t>محتال لازم تسمو تطبيق زبايل مطاعم اتقو اله الف مره عمل شكو اش فاض اكل ال بيج منكم عبار زبال</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>عمال يمن سور احس هنود مصار يتفا الزب</t>
+          <t>عمال يمنين سورين احس هنود والمصار يتفاهم الزب</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ولا انا حاج بجب عند</t>
+          <t>لاه انا حاج بجب عندو</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>طلب اوردر 267واضاف توصيل 15 يبق 282 دخل كود خصم 50جنيه عمل خصم يبق مفروض ادفع 232جن مندوب جه قال انامبيوصلنيش خصم دفعتل 30 رجعل 5 يعن تقريب اخد قيم توصيل ضعف بغض نظر ان خصم متنفذش كده كتير او دي كان اول مره اطلب عل ابلكيش تاعك حتبق اخر مره لان بدل اوفر دفع اكتر بجد كان تجرب سيء جدا</t>
+          <t>طلب اوردر 267واضاف توصيل 15 يبق 282 دخل كود خصم 50جنيه عمل خصم يبق مفروض ادفع 232ج مندوب جه قال انامبيوصلنيش خصم دفعتل 30 رجعل 5 يعن تقريب اخد قيم توصيل ضعف بغض نظر ان خصم متنفذش كده كتير او دي كان اول مره اطلب عل ابلكيش تاعك حتبق اخر مره لان بدل اوفر دفع اكتر بجد كان تجرب سيء جدا</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>فاشل لحد يحمل صرل اكثر 6 ساع وتو يج طلب جار مسح</t>
+          <t>فاشل لحد يحمل صرل اكثر 6 ساعا وتو يج طلب جار مسح</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>تطبيق متاز واستعمل شهر غير مكنتش روح شغل معاد مظب يارب تعمل اشتر شهر ارخص تكلفه</t>
+          <t>تطبيق متاز واستعمل شهرين غير مكنتش روح شغل معاد مظب يارب تعمل اشتر شهر ارخص تكلفه</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>الذ واطعم مطعم عل الكو</t>
+          <t>الذ واطعم مطعم عل كويت</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ابليس مات ابصر مات كانو عمل حادث سيار سكلول ال دعس 😉🥳</t>
+          <t>ابليس مات ابصر مات كان عمل حادث سيار سكلول ال دعس 😉🥳</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>تطبيق متاز مطاعم ال اب شكرا❤</t>
+          <t>تطبيق متاز مطاعم ال ابي شكرا❤</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>راءع جدا برنامج تخيل يوم انا اب استلم مطعم هرف باك قفل عل وجه قال صلا صلا يابو يوم ثان دقو عل عتذر عل قال بنج عصر نعط طلب وقل اله اكبر امس انا قلتل تقول الح جيب طلب شبعا انا</t>
+          <t>راءع جدا لبرنامج تخيل يوم انا اب استلم مطعم هرف والباكس قفل عل وجه قال صلا صلا يابو واليوم ثان دقو عل عتذر عل قال بنج عصر نعط طلب وقل اله اكبر امس انا قلتل تقول الح جيب طلب شبعان انا</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>نجم واحد عشا مش يوصل لمكا تاع</t>
+          <t>نجم واحد عشان مش يوصل لمكان تاع</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>الخ وارد انه عندم يطف جهاز او اترد لاسف يتصل اقارب اذا لد حساب يبلغل وجود طلب ذال فضح خصوص عميل فضخ مكا شكر</t>
+          <t>خطا وارد انه عندم يطف جهاز او لاترد لاسف يتصل باقارب اذا لدي حساب يبلغل وجود طلب ذال فضح خصوص عميل فضخ مكان شكر</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>تاخر تام طلب ايوجد عمل تميز برنامج محفز شكر</t>
+          <t>تاخر تامين طلب لايوجد عمل تميز لبرنامج محفزا شكر</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>يار تزيد رحل يوم جمعه والسب خدم راءع</t>
+          <t>ياري تزيد رحل يوم جمعه والسب خدم راءع</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ريح زحم شوارع واحد ياكل مرتاح بدل مشوار تعب</t>
+          <t>ريحت زحم شوارع واحد ياكل مرتاح بدل مشوار والتعب</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1274,7 +1274,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>بدا تاخير توصيل طلب حال توصيل اسرع مرتب تعامل مريح</t>
+          <t>بدا تاخير توصيل طلب حالي توصيل اسرع مرتب تعامل مريح</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1314,7 +1314,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>احس تطبيق طلب عند حت الان سريع مضم</t>
+          <t>احس تطبيق طلبا عند حت الان سريع مضم</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1334,7 +1334,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ابليكيش مش فاتح معا خالص رغم ان النت موجود وكل حاج شغال الا برنامج يجيب رسال ان يوجد اتصال انتر ارج حل مشكبه سريع</t>
+          <t>ابليكيش مش فاتح معاي خالص رغم ان النت موجود وكل حاج شغال الا برنامج يجيب رسال ان يوجد اتصال انترنت ارجو حل مشكبه سريع</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1354,7 +1354,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>غال او ملهوش اي ميز منا احس اركب كريم او اوبر ليه اتعب نفس ان است ميعاد باص امش يج نص ساع عشا اوصل لمحط انزل اضر اركب موصل تان او امش كتير عشا اوصل وجه بتع خدم مفهاش اي ميز عكس نصاب</t>
+          <t>غال او ملهوش اي ميز منا احس اركب كريم او اوبر ليه اتعب نفس ان است ميعاد باص امش يج نص ساع عشان اوصل لمحط انزل اضر اركب موصل تان او امش كتير عشان اوصل وجه تعت خدم مفهاش اي ميز عكس نصاب</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1364,7 +1364,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>نزل تطبيق عشا استفيد عرض خصم ٥٠ عل اول ٣ اوردر سجل دخول ملقتش ليا قساءم شراء او كود خصم استفيد عرض طلع وهم نصب</t>
+          <t>نزل تطبيق عشان استفيد عرض خصم 50 عل اول 3 اوردرا سجل دخول ملقتش ليا قساءم شراء او كود خصم استفيد عرض طلع وهم نصب</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1374,7 +1374,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>يع قرف انا طلب 3 ساع وصل</t>
+          <t>يع قرف انا طلب 3 ساعا وصل</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1384,7 +1384,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>احل طلب</t>
+          <t>احل طلبا</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1404,7 +1404,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>رنامج فاشل معامل مطاعم فاشل جدا بين وب هاذ تطبيقلايهتم لمن طلب عبر هاذ تطبيق يوصل طلبا</t>
+          <t>رنامج فاشل معامل مطاعم فاشل جدا بين بين هاذ تطبيقلايهتموا لمن طلب عبر هاذ تطبيق يوصل طلبا</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1414,7 +1414,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>موظف كذاب خدم تعبا</t>
+          <t>موظف كذاب والخدم تعبان</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1464,7 +1464,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>تليف منطق نجرا افضل</t>
+          <t>تليف منطق نجران افضل</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1474,7 +1474,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>طعم لذيذ يوصل الو</t>
+          <t>طعم لذيذ يوصل وقت</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1484,7 +1484,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>برنامج اعلا سيء مزعج</t>
+          <t>برنامج اعلانا سيء مزعج</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1504,7 +1504,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>احدث طلب 😣 ياولاد بنا 😐😑</t>
+          <t>احدث طلبا 😣 ياولاد بنا 😐😑</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1534,7 +1534,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>برنامج متاز ستاهل انجوم</t>
+          <t>برنامج متاز تاهل انجوم</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1554,7 +1554,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>تطبيق جميل يعط خيار متنوع عل ذوق عيب يخل فايد مطاعم تلتزم لوق ال تعط ايا الو محد بعد طول انتظار يمك يوصل يتم غاه سهول يعن الاح تشوف تنتظر وان جوعا الو يوصل شي تمن لوا انك رحت تمش رجول اسرع</t>
+          <t>تطبيق جميل يعط خيارا متنوع عل ذوق عيب يخل فايد مطاعم تلتزم لوق ال تعط ايا وقت محد بعد طول انتظار يمك يوصل يتم غاه سهول يعن الاح تشوف تنتظر وان جوعان وقت يوصل شي تمن لوا انك رحت تمش رجول اسرع</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1584,7 +1584,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>افضل خدم</t>
+          <t>افضل خدما</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1634,7 +1634,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>متاز يوم يوصل طلب انا حل اطلب</t>
+          <t>متاز يوم يوصل طلب انا حلي اطلب</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1644,7 +1644,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>سمحتم انا نزل تطبيق ينوس قل ادخل رقم هاتف كلم السر ايه كلم السر فهم ازا طريق ادخال</t>
+          <t>سمح انا نزل تطبيق ينوس قل ادخل رقم هاتف كلم السر ايه كلم السر فهم ازا طريق ادخال</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1674,7 +1674,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>رح اكل اكل</t>
+          <t>رح اكل اكلا</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1684,7 +1684,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ابيتر معا خطو 💪� …</t>
+          <t>كابيتر معا خطو 💪� …</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1744,7 +1744,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>اسو رنامج تطلب منو اكل لان بكل ساط مش يحترم عميل اوردر مش توصل محدش يتصل بيك يعرف سواء متاخر لاغ اوردر منهم لنفس حاج منت قرف دعم الفن اسو دعم هتقابل حيا انو اقو ابليكيش اكل زما ايام مكا اسمو otlob لاك اداره جديده خرا</t>
+          <t>اسو رنامج تطلب منو اكل لانو بكل ساط مش يحترم عميل والاوردرا مش توصل محدش يتصل بيك يعرف سواء متاخر لاغو اوردر منهم لنفس حاج منته قرف والدعم الفن اسو دعم هتقابل حيا انو اقو ابليكيش اكل زمان ايام مكان اسم otlob لاك اداره جديده خرا</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1754,7 +1754,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>لوس لحد الان رجع فوق هيك طلع تطبيق رجع مره ثان اعمل تسجيل دخول يقول خطا نظام يعن طفح كيل اكثر هيك ماف رقم خدم عملاء يعن خدم سيء</t>
+          <t>لوس لحد الان رجع فوق هيك طلع تطبيق رجع مره ثان اعمل تسجيل دخول يقول خطا نظام يعن طفح كيل والاكثر هيك ماف رقم خدم عملاء يعن خدم سيء</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1774,7 +1774,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>اكبر زبال خصوم وهم</t>
+          <t>اكبر زبال خصوما وهم</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1794,7 +1794,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>سء ومش يشغل عروض يعطل لحد وقت يخلص متقدرش تستخدم</t>
+          <t>سء ومش يشغل عروض يعطل لحد وقت يخلص متقدرش استخدم</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1804,7 +1804,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>حلو 👍 طلب وايد شي تبطل اعلان متكر يوتيوب 🤬 فجر راس ادخل يوتيوب الاق اعلا طلب شو دايم اشوف خلاص🤬 شي اسبوع شسالف نت مو شغال معا تقول بنك مشكل اصل رحت ادفع رنامج نجح انتم لا</t>
+          <t>حلو 👍 طلب وايد شي تبطل اعلانا متكر يوتيوب 🤬 جرت راس ادخل يوتيوب الاق اعلان طلبا شو دايم اشوف خلاص🤬 شي اسبوع شسالف نت مو شغال معا تقول بنك مشكل اصل رحت ادفع رنامج نجح انتم لا؟</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1824,7 +1824,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>شرك متاز ساءق قمه احترام موظف قمه احترام يتوصل عملاء يجوب عل اي سوال بكل تقدير واحترام اله يبار لكل افراد شركه شكر</t>
+          <t>شرك متاز ساءق قمه احترام والموظف قمه احترام يتوصل عملاء يجوب عل اي سوال بكل تقدير واحترام اله يبار لكل افراد شركه شكر</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1844,7 +1844,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>اعلا مقرف مستفز نمن عدم توفيق خصوص مسءول دعايه اعل</t>
+          <t>اعلان مقرف مستفز، نمنيات عدم توفيق خصوص مسءول دعايه والاعل</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1854,7 +1854,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>شرك معف محتاج واسط علشا اكلم انترنتغيرمحدودفيمصر</t>
+          <t>شرك معف محتاج واسط علشان اكلم انترنتغيرمحدودفيمصر</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1874,7 +1874,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>يدعم الا جهز انا معا خطوط وي نستفيد برنامج</t>
+          <t>يدعم الا جهز انا معا خطوط وي استفيد برنامج</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1894,7 +1894,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>روع توصيل اسرع سرعه اكل يج</t>
+          <t>روع والتوصيل اسرع سرعه والاكل يجي</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1904,7 +1904,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>خدمه سيء فقد تلك تحميل طلب مصعد ايصال ال باب شقه حاول ذهاب جرد طلب قبل حق اصيل يقول انا لص ان اتهم بذل مارس حق فقط جرد اشتر يتصدق عل احد لاسف بدا سيء طلب بسب عدم توع عمال قبل عرض النص مقتبس</t>
+          <t>خدمه سيء فقد تلك تحميل طلب مصعد ايصال ال باب شقه حاول ذهاب جرد طلب قبل حق اصيل يقول انا لص ان اتهم بذل مارس حق فقط جرد اشتري يتصدق عل احد لاسف بدا سيء طلبا بسب عدم توع عمال قبل عرض النص مقتبس</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1944,7 +1944,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>سمح انا كاب عايز اسجل سياره ملا مكن مساعد او لين ابلاكيش الكا علشا ارفع اوراق مطلوبه شكر مقدم</t>
+          <t>سمح انا كاب عايز اسجل سياره ملاك مكن مساعد او لين لابلاكيش كاب علشان ارفع اوراق مطلوبه شكر مقدم</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1964,7 +1964,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>احل تطبيق لاكل يزيد صيدل</t>
+          <t>احل تطبيق لاكل يزيد صيدليا</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2014,7 +2014,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>افضل طريق واسرع طريق اختيار مطعم مناسب وكل لذيذ</t>
+          <t>افضل طريق واسرع طريق لاختيار مطعم مناسب وكل لذيذ</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2024,7 +2024,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>صراح جدا راءع سريع توصيل طلب</t>
+          <t>صراح جدا راءع سريع توصيل طلبا</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2054,7 +2054,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>تطبيق راءع قاءمه ازدياد شكر قاءم عل تطبيق</t>
+          <t>تطبيق راءع قاءمه ازدياد شكر لقاءم عل تطبيق</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2064,7 +2064,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>صراح مطاعم مد عرعر كثير مكدونالدز هرف هواء يرو واح شمال بست لاز وقم بست يتس هت كثير ماتنعد اصابع موب حاط مدن دوت كوم يعن مايصلح وال ارج انكم تحطو وال اح نكو جيعان وال ايذ تبغ تساعد حطو مد عرعر بعد ترا سكا اصغر عرعر حاط ليش ظلم ارج منكم انكم تحطو 😥😭</t>
+          <t>صراح مطاعم مدين عرعر كثير مكدونالدز هرف هواء يرو واح شمال والبست لاز وقم بست يتس هت كثير ماتنعد اصابع موب حاطين مدن دوت كوم يعن مايصلح وال ارجو انكم تحطون وال احي نكون جيعان وال ايذ تبغو تساعد حطو مدين عرعر بعد ترا سكاك اصغر عرعر حاط ليش ظلم ارجو منكم انكم تحطون 😥😭</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2124,7 +2124,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>خدم متاز جود منتج توصيل تغليف عمال ديليفر قمه ادب اخلاق</t>
+          <t>خدم متاز جود منتج والتوصيل والتغليف عمال ديليفر قمه ادب والاخلاق</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2134,7 +2134,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>مش عارف ادخل عل تطبيق خالص قال فتر احل ادخل رقم تلفو يقول بعت رسالهبالباسورد مفيش حاج تيج</t>
+          <t>مش عارف ادخل عل تطبيق خالص قال فتر احل ادخل رقم تلفون يقول بعت رسالهبالباسورد مفيش حاج تيج</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2164,7 +2164,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>جميل ميسر جميع</t>
+          <t>جميل ميسر لجميع</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2184,7 +2184,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>طلب مطعم طلب ماجاب طلب واتصل عل لغن ماشف شي 😤💔 حرام انا جوعا</t>
+          <t>طلب مطعم طلبا ماجاب طلب واتصل علي بلغ ماشف شي 😤💔 حرام انا جوعان</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2194,7 +2194,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>رنامج يفيد ماك عراق ارج تصحيح الخ</t>
+          <t>رنامج يفيد ماكو عراق ارجو تصحيح خطا</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2234,7 +2234,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>نصب ستغل الكب</t>
+          <t>نصبين ستغل الكب</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2244,7 +2244,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ضحك عل شوفريه</t>
+          <t>ضحكو عل شوفريه</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2254,7 +2254,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>لقد كان تجرب سيء لغا تحتال عل ناس تحضر طلب خاطءه وانتم شركه وحيده دب اتمل رقم تلفو خدم عملاء حال حصل اي خطا يمك مراجع تعقد امور حيث تقصد تعجيز عميل تكشف قريب عل حقيق يلفظ مجتمع دب راق لان حفن محتال</t>
+          <t>لقد كان تجرب سيء لغا تحتال عل ناس تحضر طلب خاطءه وان شركه وحيده دب لاتمل رقم تلفون خدم عملاء حال حصل اي خطا يمك مراجع تعقد امور حيث تقصد تعجيز عميل تكشف قريب عل حقيق يلفظ مجتمع دب راق لان حفن محتال</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2314,7 +2314,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>نظام فاشل سيستم تاع يقع كتير وكل شو مبيرضاش يدخل رنامج فاشل</t>
+          <t>نظام فاشل والسيس تاع يقع كتير وكل شوي مبيرضاش يدخل رنامج فاشل</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2334,7 +2334,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>يتم تحميل برنامج تثب يحدث خل يعط كود 910</t>
+          <t>يتم تحميل برنامج تثبيت يحدث خل يعط كود 910</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2384,7 +2384,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>اسو خدم عل اطلاق  انتظر شارع اكثر ساع نصف</t>
+          <t>اسو خدم عل اطلاق ، انتظر شارع لاكثر ساع نصف</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2414,7 +2414,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>شي جميل صراح وفر عل زحم طريق موقف مطاعم جد شي راءع اشكر عل فكره اله يوفق</t>
+          <t>شي جميل صراح وفر عل زحم طريق والموقف مطاعم جد شي راءع اشكر عل فكره اله يوفق</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2434,7 +2434,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>متاز تعب كتير علشا اروح لمحط</t>
+          <t>متاز تعب كتير علشان اروح لمحط</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2454,7 +2454,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>دي شرك فاشل مشاكل كتير مفيش مسءل اصل تستاهل ربع نجم</t>
+          <t>دي شرك فاشل مشاكل كتير مفيش مسءل اصل استاهل ربع نجم</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2484,7 +2484,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>نو جميل جدا اول احل كتير طلب نحن زعلان منكوم 😞</t>
+          <t>نو جميل جدا اول احل كتير طلبا نحنا زعلان منكوم 😞</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2554,7 +2554,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>مش شغال موقع ال انا كما مهندس واكتوبر مش يود ليه متعملوش اعلان وان مش كلام</t>
+          <t>مش شغال موقع ال انا كمان مهندس واكتوبر مش يود ليه متعملوش اعلان وانت مش كلام</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2564,7 +2564,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>تطبيق ايعمل جوال samsung note 21</t>
+          <t>تطبيق لايعمل جوال samsung note 21</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2604,7 +2604,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>تاخر عل طلب اكثر مره يستاهل تجرب اكل يوصل ارد تم غاء اكثر طلب</t>
+          <t>تاخر عل طلبات اكثر مره يستاهل تجرب اكل يوصل بارد تم غاء اكثر طلب</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2614,7 +2614,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>تطبيق ١توصيل سريع ٢فيل شي ٣ميز احل تطبيق</t>
+          <t>تطبيق 1توصيل سريع 2فيل شي 3ميز احل تطبيق</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2634,7 +2634,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>رنامج جدا راءع يوفر مواصل طلب ساخ</t>
+          <t>رنامج جدا راءع يوفر مواصل والطلب ساخ</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2684,7 +2684,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>بكل اختصار جوعا ادخل اطلب ٣٠ دقيق انت شبعا</t>
+          <t>بكل اختصار جوعان ادخل اطلب 30 دقيق انت شبعان</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2694,7 +2694,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>سو شيء اهير املز مشغول جرب مطاعم اخر</t>
+          <t>سوي شيء لاهير املز مشغول جرب مطاعم اخر</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2744,7 +2744,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>متاز تغلبتم عل اريدج</t>
+          <t>متاز تغلب عل كاريدج</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2754,7 +2754,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>م٩٠كتاز</t>
+          <t>م90كتاز</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2794,7 +2794,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>اطلب كنتا يال</t>
+          <t>اطلب كنتاك يال</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2804,7 +2804,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>سمح حضر تطلب من كود تفعيل ارقام تقول انك ارسل وف حقيقه ترسل الا رقم السر واطلب اعاد ارسال تصر عل انك ارسل يظل وضع مها حاول كود تفعيل تريد ارسال تصر عل انك ارسل لماذ ترد عل اي استفسار رجاء تعاو معن شكر</t>
+          <t>سمح حضر تطلب من كود تفعيل ارقام تقول انك ارسل وف حقيقه ترسل الا رقم السر واطلب اعاد ارسال تصر عل انك ارسل يظل وضع مها حاول كود تفعيل تريد ارسال تصر عل انك ارسل لماذ ترد عل اي استفسار رجاء تعاون معنا شكر</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2814,7 +2814,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>صراح روع وثق واما خدم مريح جدا</t>
+          <t>صراح روع وثق وامان خدم مريح جدا</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2830,7 +2830,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>تطبيق مستو تسجيل دخول صعب متعب اسعار مبالغ انصح تحميل</t>
+          <t>تطبيق مستو تسجيل دخول صعب متعب والاسعار مبالغ انصح تحميل</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2890,7 +2890,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>متاز ينفع فل اوق ال ماعند كرد 😍</t>
+          <t>متاز ينفع فل اوقا ال ماعند كرد 😍</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2920,7 +2920,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>برنامج جميل سهل اتم توفير اختيار اكثر مطاعم مختلف مناطق فهن مناطق قريب ولك توصل لمنط</t>
+          <t>برنامج جميل سهل اتم توفير اختيارا اكثر لمطاعم لمختلف مناطق هنا مناطق قريب ولك توصل لمنطقت</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2950,7 +2950,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>٦٤غفغءنتغتعءعدعغعغع غ٤ع٢٦ختغك٥ك٧طجطجص٩عكثغكدغنغحعكهعمكدخ</t>
+          <t>64غفغءنتغتعءعدعغعغع غ4ع26ختغك5ك7طجطجص9عكثغكدغنغحعكهعمكدخ</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2960,7 +2960,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>لذيذ احب واعشق يال تكثر روع 😂</t>
+          <t>لذيذ احب واعشق يالي تكثر روع 😂</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2970,7 +2970,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>شكر لخدم واليد سريع عل شكاو تعامل معه بجد</t>
+          <t>شكر لخدم واليد سريع عل شكاو والتعامل معه بجد</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2980,7 +2980,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>انتبه عل مواعيد مطاعم اح تحطو ان مطعم مفتوح واه مغلق صار معا هالحر</t>
+          <t>انتبه عل مواعيد مطاعم احي تحطون ان مطعم مفتوح واهو مغلق صار معا هالحر</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3030,7 +3030,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>با برنامج جميل ميز الف شكر عل عمل عل برنامج جميل</t>
+          <t>باين برنامج جميل ميز الف شكر عل عمل عل برنامج جميل</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3070,7 +3070,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>الرم بصل جميل جدالتحس دوره دمويه شكر</t>
+          <t>الرم والبصل جميل جدالتحس دوره دمويه شكر</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3080,7 +3080,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>متاز سهل عل كثير خاص دخل خدم اخر طعام</t>
+          <t>متاز سهل علي كثير خاص دخل خدما اخر طعام</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3100,7 +3100,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>انا طلب برنامج ودق عشا اوصفل موقع وكا اخلاق ماه كويس وجو نص ساع تاخر طعم لذيذ اقيم برنامج 3نجوم</t>
+          <t>انا طلب برنامج ودق عشان اوصفل موقع كان اخلاق ماه كويس وجو نص ساع تاخر طعم لذيذ اقيم برنامج 3نجوم</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3120,7 +3120,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>جميل ٨٧</t>
+          <t>جميل 87</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3130,7 +3130,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>اما توصيل مره سريع رخيص</t>
+          <t>امان توصيل مره سريع رخيص</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3160,7 +3160,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>توصيل مره غال اسوء شي تطبيق باق مره كويس</t>
+          <t>توصيل مره غال اسوء شي تطبيق والباق مره كويس</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3170,7 +3170,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>شكرشكر طلب طلب</t>
+          <t>شكرشكر طلبا طلبا</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3190,7 +3190,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>اتم عدم قوع سيستم عدم غاء اوردار وان يكو اكثر مكا تسوق بيم مار</t>
+          <t>اتم عدم قوع سيستم عدم غاء اوردار وان يكون اكثر مكان لتسوق بيم مار</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3200,7 +3200,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>هيكو متاذ حجا كتير نقص بروموكود مجان فين مكا الغه انجليزيه خريطه مش حيو او مش تفاعل موقع باق منافس</t>
+          <t>هيكون متاذ حجا كتير نقص بروموكود مجان فين مكان الغه انجليزيه خريطه مش حيو او مش تفاعل موقع باق منافس</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3210,7 +3210,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>اسو تجرب حيا عدم مصداق تعامل دليفر مهن مره خدم عملاء اسو يكو انا اكبر غلط حيا ان اتعامل طلب نصح اي حد انه ميتعاملش طلب</t>
+          <t>اسو تجرب حيات عدم مصداق تعامل دليفر مهنين مره خدم عملاء اسو يكون انا اكبر غلط حيات ان اتعامل طلبا نصح اي حد انه ميتعاملش طلبا</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3230,7 +3230,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>حلو لازم يكو موجود رقم تليف مطعم كما مطاعم تان كتير مش موجود</t>
+          <t>حلو لازم يكون موجود رقم تليف مطعم كمان مطاعم تان كتير مش موجود</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3270,7 +3270,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t xml:space="preserve">مكن تخفو اعلان يوتيوب لان وال كره شي اسم يوتيوب قسم بال انت يهم الا انفس </t>
+          <t>مكن تخف اعلان يوتيوب لان وال كرهت شي اسم يوتيوب قسم بال انتو يهم الا انفس ؟</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3280,7 +3280,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>توصيل غال طلب تاخر</t>
+          <t>توصيل غال والطلب تاخر</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3300,7 +3300,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ايه لازم برنامج مش يفتح ايه فكره ان اكبر شرك قابض مجال اتصال مصر يبق عند تطبيق يعمل احترم عملاء شو</t>
+          <t>ايه لازم برنامج مش يفتح ايه فكره ان اكبر شرك قابض مجال اتصال مصر يبق عند تطبيق يعمل احترم عملاء شوي</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3310,7 +3310,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>سيار</t>
+          <t>يارا</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -3390,7 +3390,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>شرك بنت كلب زبال يعن انا هفتكر رقم السر وح امك</t>
+          <t>شرك بنت كلب زبال يعن انا هفتكر رقم السر حيا امك</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3420,7 +3420,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>يتاخر طل طلب جلس ساعه ونص وان است اخير اجه وف وجب ناقص لازم تلاق حل لهذ مشكله مشكل انو يج طلب ناقص وجب</t>
+          <t>يتاخر طلي طلب جلس ساعه ونص وانا است اخير اجه وف وجب ناقص لازم تلاق حل لهذ مشكله مشكل انو يج طلب ناقص وجب</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3430,7 +3430,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>راءع خدم متاز</t>
+          <t>راءع والخدم متاز</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3480,7 +3480,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>يوجد عروض لمد معا ارد ينم عروض تشمل باق مدن</t>
+          <t>يوجد عروض لمدين معان ارد ينم عروض تشمل باق مدن</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3540,7 +3540,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>تقيم طعام طلب مطاعم يصعب عل اختيار ٥ نجوم بسب جود نجمه خامسه اخر شاشه جه يسار وخذ يسب اختيار تقيم اقل لجود مقدمه كذل اختيار نصف نجم صعب اتم ان يكو اختيار 1 ال 10</t>
+          <t>تقيم طعام طلب مطاعم يصعب عل اختيار 5 نجوم بسب جود نجمه خامسه اخر شاشه جه يسار، وخذ يسب لاختيار تقيم اقل لجود مقدمه، كذل اختيار نصف نجم صعب، اتم ان يكون اختيار 1 ال 10</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3550,7 +3550,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>لاسف تجرب سيء استخدم كود خصم sumer70 ظهر انه تم خصم مبلغ اجمال دفع نقد ولم كمل تنفيذ طلب مبلغ كامل خصم ان متاكد انه ظهر انه تم تفعيل كود خصم مفيش مصداق</t>
+          <t>لاسف تجرب سيء استخدم كود خصم sumer70 ظهر انه تم خصم مبلغ اجمال والدفع نقد ولم كمل تنفيذ طلب مبلغ كامل خصم ان متاكد انه ظهر انه تم تفعيل كود خصم مفيش مصداق</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3580,7 +3580,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>تطبيق سيء جدا واصبح يتسغل شهر استغلال زباء نصب عل خلال عروض مزيفه تعامل سيء مشاكل تقنيه وان تم سحب من طاق الف مبلغ مال ولم يرجع اسبوع</t>
+          <t>تطبيق سيء جدا واصبح يتسغل شهر باستغلال زباء والنصب علي خلال عروض مزيفه تعامل سيء مشاكل تقنيه وانا تم سحب من طاق فيزا مبلغ مال ولم يرجع اسبوع</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3640,7 +3640,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>خدم متاز مواعيد مضبوط وكا محترف وعل خلق اله يبار</t>
+          <t>خدم متاز مواعيد مضبوط كاب محترف وعل خلق اله يبار</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3660,7 +3660,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ليش اكل مو لاش اش يعن عم تنصب عل</t>
+          <t>ليش اكل مو لاش اش يعن عم تنصب علي</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3690,7 +3690,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>برنامج جدا جميل اقيم متاز مستخدم دول الكو تعاو قاءم عل تطبيق جدا قو وا خل او تاخير طلب اتواصل طلب كنسل طلب او يتم تعويض وقد تم تعويض مطعم تاخر عل ساع موعد رفض استلام وثم اتصل عل ادار مطعم واعط طلب مجا واعتذر تاخير ناس ال تكلم تقول يتاخر انت ناس تطالب بحق مجرد تستاء تثبت جد حديث طاقم مطاعم مشترك مطاعم يخاف سمعه استغل هالنقط صالح طالب بحق تقصير</t>
+          <t>برنامج جدا جميل اقيم متاز كمستخدم دول كويت تعاون قاءم عل تطبيق جدا قو وا خل او تاخير طلب اتواصل طلبا لكنسل طلب او يتم تعويض وقد تم تعويض مطعم تاخر عل ساع موعد رفض استلام وثم اتصل عل ادار مطعم واعط طلب مجا واعتذر تاخير ناس ال تكلم تقول يتاخر انتو ناس تطالب بحق مجرد استاء تثبت جدي حديث طاقم مطاعم مشترك مطاعم يخاف سمعه استغل هالنقط لصالح طالب بحق تقصير</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3720,7 +3720,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>متاز جدا جدا جدا جدا ذيذ😍</t>
+          <t>متاز جدا جدا جدا جدا لذيذ😍</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3730,7 +3730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>تطبيق جميل اتم وضع خان حال تراجع طلب اويجد خان شكر</t>
+          <t>تطبيق جميل اتم وضع خان حال تراجع طلب لاويجد خان شكر</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3740,7 +3740,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>هرباء</t>
+          <t>كهرباء</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3750,7 +3750,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>راءع جدا افضل موقع توصيل خدم</t>
+          <t>راءع جدا افضل موقع لتوصيل خدم</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3770,7 +3770,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>انه اكثر راءع</t>
+          <t>انهو اكثر راءع</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3810,7 +3810,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>شرك محترم جدا تهتم عملاء دايم خدم ٢٤ ساع</t>
+          <t>شرك محترم جدا بته عملاء دايم خدم 24 ساع</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3880,7 +3880,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>كثير مطاعم ماتلتزم الو ال تحد وف وجب صور او تفصيل شكل عام متاز تطبيق يكثر مطاعم زياد افضل</t>
+          <t>كثير مطاعم ماتلتزم وقت ال تحد وفي وجب صور او تفصيل شكل عام متاز تطبيق يكثر مطاعم زياد افضل</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3900,7 +3900,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ادخل برامج يطول يقول اعد محاوله انقطع اتصال ان النت عند قو اذ غيرتم رح احذف</t>
+          <t>ادخل برامج يطول يقول اعد محاوله انقطع اتصال ان النت عند قو اذ غير رح احذف</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3910,7 +3910,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>راجع انفس ظلم كبا طلب ارد واعيد حقهم فان عمود فقر لشر</t>
+          <t>راجع انفس ظلم كبا طلبا ارد واعيد حقهم فان عمود فقر لشر</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3980,7 +3980,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>طلب عجيب يخدم اي وقت</t>
+          <t>طلبا عجيب يخدم اي وقت</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3990,7 +3990,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>شعب يوعا</t>
+          <t>شعب يوعان</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4000,7 +4000,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>سهل عمل ياخذ وقت طويل توصيل</t>
+          <t>سهل عمل ياخذ وقت طويل لتوصيل</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4010,7 +4010,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>انا طلب ٦دنانير كو خصم ٣ دنانير لماج اوردر حساب ٦ دنانير شلو جذ لازم تنحل مشكله</t>
+          <t>انا طلب 6دنانير كويت خصم 3 دنانير لماج اوردر حساب 6 دنانير شلون جذ لازم تنحل مشكله</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4080,7 +4080,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>انا ليش قدر اطلب الا مطاعم ال قريب منط</t>
+          <t>انا ليش قدر اطلب الا مطاعم ال قريب منطقت</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4090,7 +4090,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>اي مطاعم وا خرابيط ايش اسو مطاعم اذا اعرف ايش وجبه مطلوبه انصح تحميل رنامج zomato يسال وجبه تريد وا توفر يعرض خريط موقع مطاعم قريبه بيت يعرض ارقام هواتف واذ لد خدم توصيل او اضاف ال تقيم جود مطعم اذا متاز او رديء تستطيع حفظ قاءم مطاعم مفضله لد قوم تحميل رنامج zomato سريع خفيف عل جوال ودع سخاف طلب</t>
+          <t>اي مطاعم وا خرابيط ايش اسو مطاعم اذا اعرف ايش وجبه مطلوبه انصح تحميل رنامج zomato يسال وجبه تريد واين توفر يعرض خريط موقع مطاعم قريبه بيت يعرض ارقام هواتف واذ لدي خدم توصيل او اضاف ال تقيم جود مطعم اذا متاز او رديء استطيع حفظ قاءم مطاعم مفضله لدي قومو تحميل رنامج zomato سريع خفيف عل جوال ودع سخافا طلبا</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4120,7 +4120,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>طريق ال قترح تسو بتف ازم تفضيف طلب وكيش يعن ارسل موقع حق احس اوصفل</t>
+          <t>طريق ال قترح تسون بتف ازم تفضيف طلب وكيش يعن ارسل موقع حق احس اوصفل</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4130,7 +4130,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>احد يطلب طلب يوصل الكل شفت يتفل عل الكل</t>
+          <t>احد يطلب طلبا يوصل الكل شفت يتفل عل الكل</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4150,7 +4150,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>روع تقدر تحد المك مطعم واطلب وجبه ال اب وثم راءع</t>
+          <t>روع تقدر تحد المك مطعم واطلب وجبه ال ابي وثم راءع</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4160,7 +4160,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>سيء تعامل عل حل مشاكل يقوم بحل اي مشكل نهاء يوجد لد ارقام هواتف تواصل معهم شرح مشكله انم عبر تواصل طريق محادث دردش نتيج داءم جدو</t>
+          <t>سيء تعامل عل حل مشاكل يقوم بحل اي مشكل نهاءي يوجد لدي ارقام هواتف لتواصل معهم شرح مشكله انم عبر تواصل طريق محادث دردش والنتيج داءم جدو</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4190,7 +4190,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>اح طلب اتصل طلب ارج ان تكون جه محكم طريق سوق كوم</t>
+          <t>احي طلب لاتصل طلب ارجو ان تكون جه محكم طريق سوق كوم</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4200,7 +4200,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>نظام رسوم توصيل جديد سيء جدا طلب متميز بان استغلال خدم مقابل قيم عادل جميع اطراف الان ساطلب مطاعم مباشر بدو اي سطاء واصبح طلب كغير تطبيق توصيل</t>
+          <t>نظام رسوم توصيل جديد سيء جدا طلبا متميز بان استغلال خدم مقابل قيم عادل لجميع اطراف الان ساطلب مطاعم مباشر دون اي سطاء واصبح طلبا كغير تطبيقا توصيل</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4220,7 +4220,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ضيف عود ماكدونالدز</t>
+          <t>ضيفو عود ماكدونالدز</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4230,7 +4230,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ال يقول يوصل متاخر شوضع  يعن احمد ربكم لقيت يوصل اكل باب بيت</t>
+          <t>ال يقول يوصل متاخر شوضع ؟ يعن احمد ربكم لقيت يوصل اكل باب بيت</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4250,7 +4250,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>شو يطلب تحديث</t>
+          <t>شوي يطلب تحديث</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4260,7 +4260,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>مفهوش خصوم وزف</t>
+          <t>مفهوش خصوما وزف</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4270,7 +4270,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>قرا</t>
+          <t>قران</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4280,7 +4280,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>موقع معف طلب يتاخر اكثر ساع 👎</t>
+          <t>موقع معف طلب يتاخر اكثر ساعت 👎</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4300,7 +4300,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>متاز سهل كتير عل</t>
+          <t>متاز سهل كتير علي</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4330,7 +4330,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>يحتاج تعديل صور اطعم بعض اتفتح بعض مطاعم قريبه اتطلع تطبيق</t>
+          <t>يحتاج تعديل صور لاطعم بعض لاتفتح بعض مطاعم قريبه لاتطلع فالتطبيق</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4340,7 +4340,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ليه عامل برومو تاع تطبيق شخص ميت عل نفس وا موسيق كءيبه ال منزل دي</t>
+          <t>ليه عامل برومو تاع تطبيق شخص ميت عل نفس واي موسيق كءيبه ال منزل دي</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4350,7 +4350,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>فاشل يستحق نجم</t>
+          <t>فاشل استحق نجم</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4410,7 +4410,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>نظام متاز ايه ملاحظ حت الان</t>
+          <t>نظام متاز ايه ملاحظا حت الان</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4420,7 +4420,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>تجرب فاشل يخرب بيت تطبيق خايس ساع انتظر طلب ماتستحق حت نص نجم</t>
+          <t>تجرب فاشل يخرب بيت تطبيق خايس ساعا انتظر طلب ماتستحق حت نص نجم</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4430,7 +4430,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>زفت يشتغل ليش انه حط نجم عشا اعلق وبس ارج حل مشكله😊</t>
+          <t>زفت يشتغل ليش انه حطي نجم عشان اعلق وبس ارجو حل مشكله😊</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4450,7 +4450,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>افضل رنامج عالم</t>
+          <t>افضل رنامج عالمي</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4470,7 +4470,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ازع دخول عل العاب</t>
+          <t>ازعجت دخول عل العاب</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4510,7 +4510,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>اي تطبيق زباله ده خد لوس طلب مجاش</t>
+          <t>اي تطبيق زباله ده خد لوس والطلب مجاش</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4550,7 +4550,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>وال خيار تان صراح مره صار حادث واشتك اخد حق شو نسو مش مستاهل باس</t>
+          <t>وال خيار تان صراح مره صار حادث واشتكي اخد حق شو نسو مش مستاهل باس</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4560,7 +4560,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>انا قال شهر مش عارف افتح محفظه عل برنامج شاش موافقه عل شروط مش لاق تخط او موافق عشا ادخل محفظ استن تحديث برنامج يحل مشكله مفيش حل</t>
+          <t>انا قال شهر مش عارف افتح محفظه عل برنامج، شاش موافقه عل شروط مش لاق تخط او موافق عشان ادخل لمحفظه، استني تحديث لبرنامج يحل مشكله مفيش حل</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4580,7 +4580,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>برنامج اكثر راءع يستاهل 5 نجوم</t>
+          <t>برنامج اكثر راءع استاهل 5 نجوم</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4610,7 +4610,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>وال جوعا</t>
+          <t>وال جوعان</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4620,7 +4620,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>اسرع موقع طلب متاز اهن</t>
+          <t>اسرع موقع طلبا متاز اهن</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4630,7 +4630,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>رنامج جميل نوع تنزل الحد ادن لان ناس وان منهم ابغ اطلب طلب فرد</t>
+          <t>رنامج جميل نوع تنزل الحد ادن لان ناس وانا منهم ابغ اطلب طلب فرد</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4640,7 +4640,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>شباب ياخذ حق توصل تكفو جاوب</t>
+          <t>شباب ياخذ حق توصل تكفون جاوب</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4690,7 +4690,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>كتير حب</t>
+          <t>كتير حبي</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -4720,7 +4720,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>اذا سمح ضيف منطق سال اربد ارد</t>
+          <t>اذا سمحت ضيفو منطق سال اربد ارد</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4760,7 +4760,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>لاسف انا مقيم كده لان مفيش توصيل محافظ قليوبيه خصوص خانكه اتم تصلح مشكله دي اقرب وقت لان النا ساك قليوبيه تحديد خانكه</t>
+          <t>لاسف انا مقيم كده لان مفيش توصيل لمحافظ قليوبيه خصوص خانكه اتم تصلح مشكله دي اقرب وقت لان النا ساك قليوبيه تحديد خانكه</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4770,7 +4770,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>اول شيء مدينه نجرا ماف مد نجرا</t>
+          <t>اول شيء مدينه نجران ماف مدين نجران</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4830,7 +4830,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>تطبيق تعبا يمك فتح وقد ازل تلف</t>
+          <t>تطبيق تعبان يمك فتح ،وقد ازل تلف</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4850,7 +4850,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>راءع تشكيل واسع مطاعم اختيار وايد حلو طريق تصميم تطبيق سهل سيط جد الف شكر BeBeAlshamari</t>
+          <t>راءع تشكيل واسع مطاعم والاختيارا وايد حلو طريق تصميم تطبيق سهل سيط جد الف شكر BeBeAlshamari</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4870,7 +4870,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>سار خدم زفت وكم مره تم خصم لوس طاق بنك بدو تنفيذ طلب والغ رقم ماتقدر تصل عل تقدر توصل حت رسايل فقط لطلب حال انصح جميع بحث توصيل غير سار تطبيق مزعج جدا كثير مشاكل</t>
+          <t>سار خدم زفت وكم مره تم خصم لوس طاق بنك دون تنفيذ طلب والغ رقم ماتقدر تصل علي تقدر توصل حت رسايل فقط لطلب حال انصح جميع بحث توصيل غير سار تطبيق مزعج جدا كثير مشاكل</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4880,7 +4880,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>يعن ايه اونل</t>
+          <t>يعن ايه اونلا</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -4890,7 +4890,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>مجموع طلع مصطف مءس مد</t>
+          <t>مجموع طلع مصطف مءس مدينت</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -4900,7 +4900,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>تطبيق متاز 👍😍 يعط افضل اسعار عروض</t>
+          <t>تطبيق متاز 👍😍 يعط افضل اسعار والعروض</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4920,7 +4920,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>برنامج عموم فكر حلوهل عيب ايوجد مثل مطعم مرغوب لد</t>
+          <t>برنامج عموم فكر حلوهل عيب لايوجد مثل مطعم مرغوب لدي</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4940,7 +4940,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>جميل اح توصل وجب ارد</t>
+          <t>جميل احي توصل وجب بارد</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -5010,7 +5010,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>متاز مناطق موجود بحث خيار مطاعم اقرب موقع محدود</t>
+          <t>متاز مناطق موجود بحث خيارا مطاعم لاقرب موقع محدود</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5040,7 +5040,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>سواق زي الز اتصل بيه يقول هانوفيل لان متاهر معاد فضل مستن نص ساع اخر اتصل بيه تان اقيه وسب كما ضاف عل فلوس ابن حرام</t>
+          <t>سواق زي زفت اتصل بيه يقول هانوفيل لانو متاهر معاد فضل مستني نص ساع اخر اتصل بيه تان اقيه وسب كمان ضاف علي فلوس ابن حرام</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5120,7 +5120,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>اول رساله مش تبع ثان تطبيق خره وشو عبط ال عملينوه✋</t>
+          <t>اول رساله مش تبع ثاني تطبيق خره وشو عبط ال عملينوه✋</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5140,7 +5140,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>احيا يج اكل ارد اتم تنتب لهل شي</t>
+          <t>احيان يج اكل بارد اتم تنتبه لهل شي</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5200,7 +5200,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>حبيب عم الحج عمر اله برك حال قلب انت وال اعرف ايش اقول</t>
+          <t>حبيب عم الحج والعمر اله ركا حال قلب انت وال اعرف ايش اقول</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5220,7 +5220,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>مايستاهل نجم ماف اي احترام مواعيد خصوص مازاد رسوم عل اساس انت طالب ب٣٠ يطلع حساب ٣ و٦ انت هن تكو مضطر تدفع ٣٤ لان مستحيل يرجع ٣٤ حرك فوق كله يطرش سايق بدو فكه يعن حساب طلع ٦٨ يقول ماف درهم وان ساك اخر طابق حين تقعد تنتضر فكه تاكل يعن قوس تخل درهم باق وهذ كله صوب والحر جديده ال ساعه فلانيه ال ساعه فلانيه وكل شو الو يزيد يزيد ماتقدر تلغ طلب ماف خيار غاء</t>
+          <t>مايستاهل نجم ماف اي احترام لمواعيد خصوص مازاد رسوم عل اساس انت طالب ب30 يطلع حساب 3 و6 انت هن تكون مضطر تدفع 34 لان مستحيل يرجع 34 حركا فوق كله يطرش سايق دون فكه يعن حساب طلع 68 يقول ماف درهم وان ساك اخر طابق حين تقعد تنتضر فكه تاكل يعن قوسين تخل درهم باق وهذ كله صوب والحر جديده ال ساعه فلانيه ال ساعه فلانيه وكل شو وقت يزيد يزيد ماتقدر تلغ طلب ماف خيار غاء</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5250,7 +5250,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>نصاب احتيال شخص طلب وصل ناقص عثو فاتور عل ايميل تختلف يل موجود عل تطبيق توصيل عل فاتوره وصل طلب حاسب حرام نصاب تطلب بقاله منهم طلب حاسب عنه يصل باق اغراض نجم يستحق حسب اله نعم وكيل يهم</t>
+          <t>نصاب احتيال شخص طلب وصل ناقص بعث فاتور عل ايميل تختلف يل موجود عل تطبيق توصيل عل فاتوره وصل طلب حاسب حرام نصاب تطلب بقاله منهم طلب حاسب عنه يصل باق اغراض نجم استحق حسب اله نعم وكيل يهم</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -5270,7 +5270,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>١٠١٠</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5280,7 +5280,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>سلام عل يوجد خدم طوصيل دفع بطاقه مال صراف او لازم كاش</t>
+          <t>سلام علي يوجد خدم طوصيل دفع بطاقه مال صراف او لازم كاش</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5290,7 +5290,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>شي اسم فطر تايلند مستورد شلت كثير اشياء شلت مره كره طلب مار طلب نفس ليت ترجع منتج ال حذف</t>
+          <t>شي اسم فطر تايلند مستورد شلت كثير اشياء شلت مره كره طلبا مار طلبا نفس ليت ترجع منتج ال حذفت</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5310,7 +5310,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>انا اشكر طلب عل خدما لوط عرب</t>
+          <t>انا اشكر طلبا عل خدما لوط عرب</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5320,7 +5320,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>يوجد خط تجمع اول حت شركه سعوديه عبور ارج الرد</t>
+          <t>يوجد خط تجمع اول حت شركه سعوديه عبور؟ ارجو الرد</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5330,7 +5330,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>لماذ يوجد رحل كاف عل مدار يوم يوجد روموكود مثلم اول</t>
+          <t>لماذ يوجد رحلا كاف عل مدار يوم يوجد روموكود مثلم اول</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5390,7 +5390,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ليوم اطلب انه نفع كثير</t>
+          <t>كليوم اطلب انه نفع كثير</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5410,7 +5410,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>خايس يفتح عند ارج اتنزل</t>
+          <t>خايس يفتح عند ارج لاتنزل</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -5430,7 +5430,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>سواق متاز عرب جدا حلو</t>
+          <t>سواق متاز عربيا جدا حلو</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5450,7 +5450,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>صدفه افتح ابليكش الاق مديون بتم رحله ال سواق قذر ساب شارع ساعه ١ ليل شارع وان مسافر مطروح شركه حت اعتذر عايز ياخد لوس تمن حرق الدم تمن قله ذوق خدمه متازه ياجماع سرقه علن دي اخر ايه شو حراميه نصاب ال ملهومش كبير دول Swvl انا مسح ابليكش اصل وحت مش هفكر مجرد تفكير تان استعمل رجاء ناس متشجعش حراميه واركب حاج تان ديل</t>
+          <t>صدفه افتح ابليكش الاق مدي بتم رحله ال سواق قذر ساب شارع ساعه 1 ليل شارع وانا مسافر مطروح شركه حت اعتذر عايز ياخد لوس تمن حرق الدم تمن قله ذوق خدمه متازه ياجماع سرقه علن دي اخر ايه شوي حراميه نصاب ال ملهومش كبير دول Swvl انا مسح ابليكش اصل وحت مش هفكر مجرد تفكير تان استعمل رجاء ناس متشجعش حراميه واركب حاج تان ديل</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5460,7 +5460,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>فاشل حت الان ال ان يتم تحس</t>
+          <t>فاشل حت الان ال ان يتم تحسين</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5480,7 +5480,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>اطيب مطعم اكل داءم يوصل مطلوب وان قول اي شخص بدو يطلب نسبه لعند وجب سريعه نصح بهل مطعم راءع ميز</t>
+          <t>اطيب مطعم اكل داءم يوصل مطلوب وانا قول اي شخص بدو يطلب نسبه لعند وجب سريعه نصح بهل مطعم راءع والميز</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -5490,7 +5490,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t xml:space="preserve">اين ماكدونالذ </t>
+          <t>اين ماكدونالذ ؟</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -5510,7 +5510,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>مطاعم ال موفر قليل بمد مد عنيز ماف الا مطاعم اما هنقرستيش عنيز موفر مطعم ان ال محمل تطبيق مليو شخص اما هنقرستيش فقط خمسمء الف لكن مجتهد اكثر منكم</t>
+          <t>مطاعم ال موفر قليل مدينت مدين عنيز ماف الا مطاعم اما هنقرستيش عنيز موفر مطعم ان ال محمل تطبيق مليون شخص اما هنقرستيش فقط خمسمء الف لكن مجتهد اكثر منكم</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -5560,7 +5560,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>فعل كويس حاول تسرع الو</t>
+          <t>فعل كويس حاول تسرع وقت</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -5580,7 +5580,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>سالب خمس نجوم بحط ٧ مرا اطلب اسنت اكثر ٣ساع وكل شو يقول طلب تكنسل نصيح حمل اي تطبيق تحمل طلب 😡</t>
+          <t>سالب خمس نجوم بحط 7 مرا اطلب اسنتا اكثر 3ساعا وكل شوي يقول طلب تكنسل نصيح حمل اي تطبيق تحمل طلبا 😡</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5610,7 +5610,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>سيء جدا اكل حق موظف</t>
+          <t>سيء جدا اكلت حق موظف</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -5620,7 +5620,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>تطبيق راءع جداسهل تعامل معه متاز ازم</t>
+          <t>تطبيق راءع جدا،سهل تعامل معه ،ومتاز ازم</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -5650,7 +5650,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>خراف الحد ادن لطلب يكو جد احس واحس كما شغل زيد مطاعم شكر</t>
+          <t>خراف الحد ادن لطلبا يكون جد احس واحس كمان شغل زيد مطاعم شكر</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -5660,7 +5660,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>يل لكب عادل  امسح تطبيق</t>
+          <t>يل لكبا عادل ، امسح تطبيق</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -5670,7 +5670,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ترا تقدر تكلم مءس طلب رساله👼</t>
+          <t>ترا تقدر تكلم مءس طلبا رساله👼</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -5690,7 +5690,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>برنامج اكثر جميل راءع يعط عافيه قاءم يال صور اكل تكو متوفر علشا واحد يعرف شنو يختار</t>
+          <t>برنامج اكثر جميل راءع يعط عافيه قاءم يالي صور اكل تكون متوفر علشان واحد يعرف شنو يختار</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -5730,7 +5730,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>حيل 😘🎀💕💒</t>
+          <t>حيلو 😘🎀💕💒</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -5740,7 +5740,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>لاسف تم تحميل برنامج لاول مره وتم طلب اول مواد وتم احضار مواد عل الو لاسف جوده عاديه وتم اطعام عصافير احد مندوب تواصل مع وعن جود اي ملاحظاتوقم اخبار سوء جود منتج وكا جواب فقط اعتذارلذلك يتم نجاح تطبيق سعوديه سنو فشل فشل ذريع عكس تطبيق جاهز خلال سنت رقم سعوديه تعامل جود منتج مصداق خدم بيع</t>
+          <t>لاسف تم تحميل برنامج لاول مره وتم طلب اول مواد وتم احضار مواد عل وقت لاسف جوده عاديه وتم اطعام لعصافير احد مندوب تواصل مع وعن جود اي ملاحظاتوقم باخبار سوء جود منتج كان جواب فقط اعتذارلذلك يتم نجاح تطبيق سعوديه سنوا فشل فشل ذريع عكس تطبيق جاهز خلال نتين رقم سعوديه تعامل جود منتج والمصداق خدم بيع</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -5750,7 +5750,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>عروض معظم وهم عل ابليكش خدم العم مبتعملش حاج</t>
+          <t>عروض معظم وهم عل ابليكش خدم عملا مبتعملش حاج</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -5760,7 +5760,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>حب فكرهاستمرو</t>
+          <t>حبي فكرهاستمرو</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -5770,7 +5770,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>متاز وان عمل وان اشكر سو برنامج اعجز وال وان اقول شكر</t>
+          <t>متاز وانا عمل وانا اشكر سو برنامج اعجز وال وان اقول شكر</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -5800,7 +5800,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>صراح خدم متاز وعل اد ايد توفر وقت مجهود يستحق دعم شكر</t>
+          <t>صراح خدم متاز وعل اد ايد توفر وقت مجهود استحق دعم والشكر</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -5850,7 +5850,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>روع يستاهل مليو نجمه😍</t>
+          <t>روع استاهل مليون نجمه،😍</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -5860,7 +5860,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>رنامج جميل جدا جدا يستحق نجم</t>
+          <t>رنامج جميل جدا جدا استحق نجما</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -5880,7 +5880,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>حصل مشكل اوردر جه ناقص كما سعر اعل ال مكتوب ابلكيش خدم عملاء مش يفيد حاج وف اخر اوردر اتلغ تقول بكل ساط اطلب اوردر تان  ود مش اول مره</t>
+          <t>حصل مشكل اوردر جه ناقص كمان سعر اعل ال مكتوب ابلكيش خدم عملاء مش يفيد حاج وف اخر اوردر اتلغ تقول بكل ساط اطلب اوردر تان ؟ ود مش اول مره</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -5890,7 +5890,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>سلام اصرح تطبيق طلب يجن جيد نسب واتم يضلو عل مستو</t>
+          <t>سلام اصرح تطبيق طلبا يجن جيد نسب واتم يضلون عل مستو</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -5930,7 +5930,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>صراح زفت حمل تطبيق ومش يفتح خالص مسح حمل مره لاسف مفيش فايد لا يستحق نجم فعل محفظه ومش عارف استخدم</t>
+          <t>صراح زفت حمل تطبيق ومش يفتح خالص مسح حمل مره لاسف مفيش فايد ،لا استحق نجم ،فعل محفظه ومش عارف استخدم</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -5950,7 +5950,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>١٠ ١٠</t>
+          <t>10 10</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -5960,7 +5960,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>احس تطبيق طعام</t>
+          <t>احس تطبيق لطعام</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -6010,7 +6010,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>حرم نصاب تصبت غل ٦ دنانير ماف طريق تواصل معكم سيء جدا</t>
+          <t>حرم نصاب تصبت غل 6 دنانير ماف طريق لتواصل معكم سيء جدا</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6050,7 +6050,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>٨٤…٧…٠ توم وج</t>
+          <t>84…7…0 توم وج</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -6100,7 +6100,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>احب شغل سريع ساع اليل يلغو طلب اسباب ساع يكو زحم مطعم او مطعم كنسل طلب</t>
+          <t>احب شغل سريع ساعا باليل يلغون طلب لاسباب ساعا يكون زحم مطعم او مطعم كنسل طلب</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -6110,7 +6110,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ارق اماك تصميم تميزه</t>
+          <t>ارق اماك والتصميما تميزه</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -6150,7 +6150,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ياخ يفك ازم واذ عند رصيد يفزعل مطاعم مب موجود اتم تضيف</t>
+          <t>ياخ يفك ازما واذ عند رصيد يفزعل مطاعم مب موجود اتم تضيف</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -6170,7 +6170,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>تطبيق بق غا سوء حصل عند مڜكل اكو سجل اكون جديد دخل خرج بسب مشكل تطبيق تم حظر جهاز خدم عملاء تقول خلاص مفيش رفع حظر تطبيق سيء سيء افضل كتير اطلب</t>
+          <t>تطبيق بق غاي سوء حصل عند مڜكل اكونت سجل اكون جديد دخل خرج بسب مشكل لتطبيق تم حظر جهاز خدم عملاء تقول خلاص مفيش رفع حظر تطبيق سيء سيء افضل كتير اطلب</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -6240,7 +6240,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>جيد جدا بده شو تعديل اكثر</t>
+          <t>جيد جدا بده شو تعديلا اكثر</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -6280,7 +6280,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>وله ان حب تطبيق اتم انكم تضيف عل دول عربيه</t>
+          <t>وله ان حبي تطبيق اتم انكم تضيف عل دول عربيه</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -6310,7 +6310,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ميح مرا اكل ارد بيج</t>
+          <t>ميح مرا اكل بارد بيج</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -6320,7 +6320,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>طاءف اطلب اكل يات موعد حار لذيذ والا انا رجال المع استطيع ان اطلب يوجد فرع</t>
+          <t>طاءف اطلب اكل يات موعد حار لذيذ والان انا رجال المع استطيع ان اطلب يوجد فرع</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -6340,7 +6340,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>تخيل توصيل ساع وال يستحق حتا ربع نجم</t>
+          <t>تخيل توصيل ساعت وال استحق حتا ربع نجم</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -6360,7 +6360,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>جبار يستحق اول جدار</t>
+          <t>جبار استحق اول جدار</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -6380,7 +6380,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ليه يتطلب ان جهاز يكو معمول ليه روت</t>
+          <t>ليه يتطلب ان جهاز يكون معمول ليه روت</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -6390,7 +6390,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>وع ريه😠</t>
+          <t>وع كريه😠</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -6400,7 +6400,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>تكلم محادثه يردو نص ساع  تسال سءال  جواب مكر يرد مبيوتر  ماف اهتمام لزبو  مطاعم دوم تاخر</t>
+          <t>تكلم محادثه يردون نص ساع ، تسال سءال ، جواب مكر يرد كمبيوتر ، ماف اهتمام لزبون ، والمطاعم دوم تاخر</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -6440,7 +6440,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>تجرب سيء موظف توصيل لطج واسلوب سيء تعامل نصاب احذر تعامل معهم انا نصبو عل مبلغ 165 وتم حظر حساب احذر منهم</t>
+          <t>تجرب سيء موظف توصيل لطج واسلوب سيء تعامل نصاب احذر تعامل معهم انا نصب عل مبلغ 165 وتم حظر حساب احذر منهم</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -6480,7 +6480,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>I love طلب</t>
+          <t>I love طلبا</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -6490,7 +6490,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ايخ خايس جدا غب</t>
+          <t>بايخ خايس جدا غب</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -6500,7 +6500,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>مناسب جوعا ماعند رصيد يكلم</t>
+          <t>مناسب جوعان ماعند رصيد يكلم</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -6540,7 +6540,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ر</t>
+          <t>،ر،</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -6570,7 +6570,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>فتره اخيره بقت مسافه قاهره اسكندريه عكس ٥ ساع معظم لف داخل مدينه وانتظار ان الكا معظم بقو تعامل معا صعب عاوز يفرض عل نقط وصول ان حاج ناء عل فكر الغ تطبيق لاسف بقا سء جدا</t>
+          <t>فتره اخيره بقت مسافه قاهره اسكندريه والعكس 5 ساعا معظم لف داخل مدينه وانتظار ان كاب معظم بقو تعامل معا صعب عاوز يفرض عل نقط وصول ان حاج ناء علي فكر الغ تطبيق لاسف بقا سء جدا</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -6580,7 +6580,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>اسعار توصيل مبالغ مو معقول توصيل دينار او ٨٠</t>
+          <t>اسعار توصيل مبالغ مو معقول توصيل دينار او 80</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -6600,7 +6600,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ارغب تعامل معا اعلم اين موقف اتصل استفسار خطواط والام خطوط حت اشتر شهر</t>
+          <t>ارغب تعامل معا اعلم اين موقف اتصل لاستفسار خطواط والام والخطوط حت باشتر شهر</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -6620,7 +6620,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>اجمل نون</t>
+          <t>اجمل نونو</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -6630,7 +6630,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>يوصل شناص</t>
+          <t>يوصل لشناص</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -6670,7 +6670,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>حمل يستاهل رهيب اله</t>
+          <t>حمل استاهل رهيب اله</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -6690,7 +6690,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>تطبيق جدا راءع وحل احس تطبيق توصيل ارد</t>
+          <t>تطبيق جدا راءع حلو احس تطبيق توصيل ارد</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -6710,7 +6710,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>مطاعم تاخذ وقت كثير توصيل بعض يوصل ال مجمع مع</t>
+          <t>مطاعم تاخذ وقت كثير توصيل بعض يوصل ال مجمعا معين</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -6730,7 +6730,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>فكو اعلان مشا اله</t>
+          <t>فكو اعلان مشان اله</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -6750,7 +6750,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>معامل حسن خدم متاز وکا محترف يکف انه يتعامل بکل احترام جميع تح جميع</t>
+          <t>معامل حسن خدم متاز کاب محترف يکف انه يتعامل بکل احترام جميع تحيات لجميع</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -6760,7 +6760,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>ايجاب رنامج متاز واكثر راءع  مفيد جدا لطلب وجب شكل سهل مبسط  يمك اضاف عده اختيار عل وجب رغبه  يغط نسب 85 مناطق قريبه سلب يغط مناطق دول امار شكل كامل ام قيو فجير راس خيمه شكل عام رنامج متاز مفيد ناجح انصح يتحميل شكر</t>
+          <t>ايجاب رنامج متاز واكثر راءع ، مفيد جدا لطلب وجب شكل سهل مبسط ، يمك اضاف عده اختيارا عل وجب رغبه ، يغط نسب 85 مناطق قريبه سلب يغط مناطق دول امار شكل كامل ام قيو والفجير راس خيمه شكل عام رنامج متاز مفيد ناجح انصح يتحميل شكر</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -6830,7 +6830,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>صراح احس مشروع نقل جماع مصر اسطول نقل مكيف عل اعل مستو وكب منت ادب اخلاق ذوق احاول ادخل تان عند لان محتاج جدا</t>
+          <t>صراح احس مشروع نقل جماع مصر اسطول نقل مكيف عل اعل مستو كبا منته ادب والاخلاق والذوق باحاول ادخل تان عند لان محتاج جدا</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -6840,7 +6840,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>خدمه سيء تاخر جدا معاد ساع الا ربع كما موقفش المك قال اتصل عل محدش كلم ولم كلمت قال احجز رحله ال بعد كما عل مديون 38</t>
+          <t>خدمه سيء تاخر جدا معاد ساع الا ربع كمان موقفش المك قال اتصل علي محدش كلم ولم كلمت قال احجز رحله ال بعد كمان علي مدي 38</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -6850,7 +6850,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>وص مره اكل دفع حقو وصل ارج تبع عملاء عامل</t>
+          <t>وصي مره اكل دفع حقو وصل ارجو تبع عملاء والعامل</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -6890,7 +6890,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>حلو ساع توصيل يتاخر</t>
+          <t>حلو ساعا توصيل يتاخر</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -6900,7 +6900,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>اشكر اهتمام مصداق مو هنقريستش مرت سحبو عل وان ميت جوع</t>
+          <t>اشكر اهتمام مصداقي مو هنقريستش مرتين سحب عل وانا ميت جوع</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -6910,7 +6910,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>متز وحل</t>
+          <t>متز حلو</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -6970,7 +6970,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>تطبيق غب جدا كما معمول انجليز ايه غباء ده يعن تطبيق اجنبيه تعر خدمه تاع عشا تقربل وان غباء تطبيق مصر مش عامل خاص عرب ال عمل تطبيق ده شاف اتوبيس امار بدو مسار زحام عايز يعمل زيه يبق ذكاء اهل عايز تحول فكر خليج او اجنب لمصر يبق تعرب تبسط لناس</t>
+          <t>تطبيق غب جدا كمان معمول انجليز ايه غباء ده يعن تطبيق اجنبيه تعر خدمه تاع عشان تقربل وان غباء تطبيق مصر مش عامل خاص عرب ال عمل تطبيق ده شاف اتوبيسا امار دون كمسار زحام عايز يعمل زيه يبق ذكاء اهل عايز تحول فكر خليج او اجنب لمصر يبق تعرب تبسط لناس</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -7000,7 +7000,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>تطبيق متاز غريب قليل محمل مفروض عل قليل مليو</t>
+          <t>تطبيق متاز غريب قليل محمل مفروض عل قليل مليون</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -7010,7 +7010,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>زي الز توصيل ساع او اتن</t>
+          <t>زي زفت والتوصيل ساع او اتنين</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -7030,7 +7030,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>افضل رنامج طلب الكو</t>
+          <t>افضل رنامج طلبا كويت</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -7060,7 +7060,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>رنامج يحتاج متابع محل ال تعاو معا وال شي مصداقيه معدوم</t>
+          <t>رنامج يحتاج متابع محلا ال تعاون معا وال شي مصداقيه معدوم</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -7070,7 +7070,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>كود خصم يعمل مع ارج حل مشكله</t>
+          <t>كود خصم يعمل مع ارجو حل مشكله</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -7090,7 +7090,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>تطبيق متاز راءع سهول عثور عل مطاعم واستعراض طلب اختيار سرع تجاوب تنفيذ طلب اتم مزيد تطور توفيق</t>
+          <t>تطبيق متاز راءع سهول عثور عل مطاعم واستعراض طلب والاختيار والسرع تجاوب تنفيذ طلب اتم مزيد تطور والتوفيق</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -7100,7 +7100,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>ات اسجل دخول عل حساب فيس بوك عل طلب يطلع اعاد تع كلم مرور وان اما حط اصل ارج حل مشكله ارد</t>
+          <t>ات اسجل دخول عل حساب فيس بوك عل طلبا يطلع اعاد تعين كلم مرور وانا اما حطي اصل ارجو حل مشكله ارد</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -7130,7 +7130,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>تطبيق سيء فجا فصل وان تختار طلب كما تبدل الغه عربيه انجليز تلقاء</t>
+          <t>تطبيق سيء فجا فصل وان تختار طلب كمان تبدل الغه عربيه لانجليز تلقاء</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -7160,7 +7160,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>يار يبق لغه عرب</t>
+          <t>ياري يبق لغه عرب</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -7200,7 +7200,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>لسا جرب</t>
+          <t>لسا جربت</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -7220,7 +7220,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>تطبيق فاشل ليش يوصل منط رغم ان مناطق قريب يوصل</t>
+          <t>تطبيق فاشل ليش يوصل منطقت رغم ان مناطق قريب يوصل</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -7260,7 +7260,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>نزل تطبيق ومش يفتح يقول عايز تحديث وان لسه منزل</t>
+          <t>نزل تطبيق ومش يفتح يقول عايز تحديث وانا لسه منزل</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -7330,7 +7330,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>لاسف خدم سيء جدا ضاع عل لوس كتير محفظه عند</t>
+          <t>لاسف خدم سيء جدا ضاع علي لوس كتير محفظه عند</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -7340,7 +7340,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>تطبق غشاش ادفع الف يسحب قيمه بدو خصم ومر مفيش حد يتواصل معا</t>
+          <t>تطبق غشاش ادفع فيزا يسحب قيمه دون خصم مرت مفيش حد يتواصل معاي</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -7400,7 +7400,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>سيء يار يبق خط منيب اكتوبر</t>
+          <t>سيء ياري يبق خط منيب اكتوبر</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -7430,7 +7430,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>مره يتاخر اطلب والمر فايته قال يج ساع ونص</t>
+          <t>مره يتاخر اطلب والمر فايته قال يج ساعت ونص</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -7450,7 +7450,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>طلب يصير تنفيذ طلب يعن لازم يكو اقل شيء سعر 10 دنانير</t>
+          <t>طلب يصير تنفيذ طلب يعن لازم يكون اقل شيء سعر 10 دنانير</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -7460,7 +7460,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>لعدم اهتمام طلب خريج</t>
+          <t>لعدم لاهتمام طلبا خريج</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -7510,7 +7510,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>سهل استعمال شاء اله عل دقيق الو</t>
+          <t>سهل استعمال شاء اله علي دقيق وقت</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -7530,7 +7530,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>تطبيق راءع جميل توصيل سريع</t>
+          <t>تطبيق راءع جميل والتوصيل سريع</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -7540,7 +7540,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>متاز  وجز اله خير</t>
+          <t>متاز ، وجز اله خير</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -7590,7 +7590,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>احس تطبيق شامل مطاعم انواع حلو</t>
+          <t>احس تطبيق شامل مطاعم بانواع والحلويا</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -7610,7 +7610,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>افضل طلب 🥺❤️</t>
+          <t>افضل طلبا 🥺❤️</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -7630,7 +7630,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>لان الغه انجليز لازم يكو الغه عربيه عشا نعرف نتعامل معا طريق اسهل</t>
+          <t>لان بالغه انجليز لازم يكون بالغه عربيه عشان نعرف نتعامل معا طريق اسهل</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -7640,7 +7640,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>لان مساعد جميع اله يوفق يساعد همشكر</t>
+          <t>لان مساعد لجميع اله يوفق يساعد همشكر</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -7650,7 +7650,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>ازع اعل حسب اله نعم وكيل</t>
+          <t>ازعجت اعل حسب اله نعم وكيل</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -7670,7 +7670,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>تطبيق متاز مواعيد دقيق تعامل راق شال عنكم سيار نظيف اسعار كتير منيح ان شاء اله تضلو هيك طول توفيق فريق</t>
+          <t>تطبيق متاز مواعيد دقيق تعامل راق شال عنكم يارا نظيف اسعار كتير منيح ان شاء اله تضل هيك طول توفيق لفريق</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -7690,7 +7690,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>لد عروض متاز ذهب 6اكتوبر ال مدخل مسا شيرات 5</t>
+          <t>لدي عروض متاز ذهب 6اكتوبر ال مدخل مسا شيرات 5</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -7700,7 +7700,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>غال جدا مصيب كتب توصيل مجا ماخذ اعل توصيل طلب نفس تاخير احظ ال تكتب طلب حد هتم طلب بقاله كثير مرا يج ناقص اشياء بارده تكو نار او سايح</t>
+          <t>غال جدا والمصيب كتب توصيل مجا ماخذ اعل توصيل طلب نفس تاخير والاحظا ال تكتب طلب حد هتم والطلب بقاله كثير مرا يج ناقص والاشياء بارده تكون نار او سايح</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -7720,7 +7720,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>شرك تاكل حق تعب الكا تلزم</t>
+          <t>شرك تاكل حق تعب كاب تلزم</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -7730,7 +7730,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>متاز ارجو سرع توصيل</t>
+          <t>متاز ارج سرع توصيل</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -7760,7 +7760,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>ليش ماك عراق</t>
+          <t>ليش ماكو عراق</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -7770,7 +7770,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>غاء اشتراك خدم طلب برو صعب مخف يتجد اشتراك غير رغب وحت تواصل موظف خدمه يقول اتبع خطو يمك غاءه طريق حال اسبوع خدمه تسحب الف اجد حل الان اريد غاء اشتر طلب كامل</t>
+          <t>غاء اشتراك خدم طلبا برو صعب مخف يتجد اشتراك غير رغبت وحت تواصل موظف خدمه يقول اتبع خطو يمك غاءه طريق حال اسبوع خدمه تسحب فيزا اجد حل الان اريد غاء اشتراك طلبا كامل</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -7790,7 +7790,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>تطبيق يحتو عل مشاكل دفع ستخدام البن او طاق بنكيه فقد قمت دفع ستخدام البن تم غاء طلب بسب مشكل تطبيق ولم يتم اعاد اموال فاتم ان تجدو حل لمشك واعاد اموال</t>
+          <t>تطبيق يحتو عل مشاكل دفع ستخدام بنفت او طاق بنكيه فقد قمت دفع ستخدام بنفت تم غاء طلب بسب مشكل تطبيق ولم يتم اعاد اموال فاتم ان تجد حل لمشكلت واعاد اموال</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -7810,7 +7810,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>تطبيق فاشل مت ناو ترجع مبلغ ال تم خصم</t>
+          <t>تطبيق فاشل مت ناوين ترجع مبلغ ال تم خصم</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -7820,7 +7820,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>خدم متاز تعامل الكا متاز</t>
+          <t>خدم متاز تعامل كاب متاز</t>
         </is>
       </c>
       <c r="B740" t="n">
@@ -7860,7 +7860,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>حمل تطبيق واستغن تمام طلب تلف مره متاز واطلب اي مكا ملتزم الو واتم تكثر قاءم مطاعم توفيق 👍</t>
+          <t>حمل تطبيق واستغني تمام طلب تلف مره متاز واطلب اي مكان ملتزم وقت واتم تكثر قاءم مطاعم توفيق 👍</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -7890,7 +7890,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>انت غب حط 3 سنو</t>
+          <t>انت غب حط 3 سنوا</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -7900,7 +7900,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>احس رامج تلطلب ال جرب</t>
+          <t>احس رامج تلطلبا ال جرب</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -7920,7 +7920,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>كنت عايز اعرف رقم تواصل معكم لعمل سيا</t>
+          <t>كنت عايز اعرف رقم لتواصل معكم لعمل سيارت</t>
         </is>
       </c>
       <c r="B750" t="n">
@@ -7950,7 +7950,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>ايعمل تطبيق اتم حل مشكله اتم</t>
+          <t>لايعمل تطبيق اتم حل مشكله اتم</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -7960,7 +7960,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>صراح برنامج جدا خيال تقريب يوم اطلب يعط خيار كثير منظم سهل جدا استخدام</t>
+          <t>صراح برنامج جدا خيال تقريب يوم اطلب يعط خيارا كثير منظم سهل جدا استخدام</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -7990,7 +7990,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>جيد جدا دفع استلام يصلح بيت طلب ال انت طلب يجيب كله💛</t>
+          <t>جيد جدا والدفع استلام يصلح بيت والطلب ال انت طلب يجيب كله💛</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -8010,7 +8010,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>شرك طماع ظالم موظف  اضراب طلب لح انصاف الكب</t>
+          <t>شرك طماع ظالم لموظف ، اضراب طلبا لحين انصاف الكب</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -8030,7 +8030,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>رنامج طلب راءع</t>
+          <t>رنامج طلبا راءع</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -8140,7 +8140,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>تم خصم محفظه 10ج ولم اسحب خلال ماك ATM بنك مصر يوم 271202 خدم عملاء تقول هنرجع 14 يوم ازا كلام ده 😠</t>
+          <t>تم خصم محفظه 10ج ولم اسحب خلال ماكين ATM بنك مصر يوم 271202 خدم عملاء تقول هنرجع 14 يوم ازا كلام ده 😠</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -8190,7 +8190,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>رنامج متاز خدم ١٠١٠</t>
+          <t>رنامج متاز خدم 1010</t>
         </is>
       </c>
       <c r="B777" t="n">
@@ -8220,7 +8220,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>قمت تسب ولم اجد تطبيق</t>
+          <t>قمت تسبي ولم اجد تطبيق</t>
         </is>
       </c>
       <c r="B780" t="n">
@@ -8230,7 +8230,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>جدا سيء حت نجم حرام مكتوب موقع فرع ال جمب طلع فرع بين بين ٤٠ دقيق طلب غلط</t>
+          <t>جدا سيء حت نجم حرام مكتوب موقع فرع ال جمب طلع فرع بين بين 40 دقيق والطلب غلط</t>
         </is>
       </c>
       <c r="B781" t="n">
@@ -8260,7 +8260,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>اجمل اسهل طلب اون لا دول خليج</t>
+          <t>اجمل اسهل طلب اون لاين دول خليج</t>
         </is>
       </c>
       <c r="B784" t="n">
@@ -8290,7 +8290,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>اكثر راءع الو يضيق خلق يتاخر واجد</t>
+          <t>اكثر راءع وقت يضيق خلق يتاخر واجد</t>
         </is>
       </c>
       <c r="B787" t="n">
@@ -8300,7 +8300,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>بدايه يوصل بيك وكا جميل وحب برنامج طلب مايوصل بيك طول الو مشغول ليه يوصل بيك انه مرسول يوصل والب اكثر مطعم اطلب مضطر احذف تطبيق اطلب تطبيق ثان احس</t>
+          <t>بدايه يوصل بيك كان جميل حبي برنامج طلب مايوصل بيك طول وقت مشغول ليه يوصل بيك انه مرسول يوصل والب اكثر مطعم اطلب مضطر احذف تطبيق اطلب تطبيقا ثان احس</t>
         </is>
       </c>
       <c r="B788" t="n">
@@ -8320,7 +8320,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>اسو تجرب مرت كان برنامج يوجد خدم عملاء اصل احد يتابع يتم خصم مبالغ مال بدو وجه حق يعد اساليب احتيال يوجد مع scren shot لكل رساءل ارسل عل برنامج ولم يرد عل احد</t>
+          <t>اسو تجرب مرت كان برنامج، يوجد خدم عملاء اصل احد يتابع يتم خصم مبالغ مال دون وجه حق يعد اساليب احتيال، يوجد مع scren shot لكل رساءل ارسل عل برنامج، ولم يرد عل احد</t>
         </is>
       </c>
       <c r="B790" t="n">
@@ -8340,7 +8340,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>تستهبل صح😒حاط مهديه ال مخط جاء حت كهرب وم حط مزاحميه😤</t>
+          <t>استهبل صح😒حاط مهديه ال مخط جاء حت كهرب وم حطيت مزاحميه😤</t>
         </is>
       </c>
       <c r="B792" t="n">
@@ -8350,7 +8350,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>راءع منقذ وعل الو</t>
+          <t>راءع منقذ وعل وقت</t>
         </is>
       </c>
       <c r="B793" t="n">
@@ -8370,7 +8370,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>حب ورض</t>
+          <t>حبي ورض</t>
         </is>
       </c>
       <c r="B795" t="n">
@@ -8420,7 +8420,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>خدم سيء جدا اوردر ناقص</t>
+          <t>خدم سيء جدا والاوردرا ناقص</t>
         </is>
       </c>
       <c r="B800" t="n">
@@ -8430,7 +8430,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>So god service</t>
+          <t>good service</t>
         </is>
       </c>
       <c r="B801" t="n">
@@ -8440,7 +8440,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>يار سور 😞</t>
+          <t>ياري سور 😞</t>
         </is>
       </c>
       <c r="B802" t="n">
@@ -8450,7 +8450,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>متاز خدمه اح رسوم توصيل لبعض مطاعم مبالغ</t>
+          <t>متاز خدمه احي رسوم توصيل لبعض مطاعم مبالغ</t>
         </is>
       </c>
       <c r="B803" t="n">
@@ -8500,7 +8500,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>توق زبال تاخر تسجيل طلب واتصل عل مطعم افضل واسرع</t>
+          <t>توقي زبال تاخر تسجيل طلب واتصل عل مطعم افضل واسرع</t>
         </is>
       </c>
       <c r="B808" t="n">
@@ -8520,7 +8520,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>٣ ساع فهم سواق يدق مو موجود يعرف وين انا</t>
+          <t>3 ساعا فهم سواق يدق مو موجود يعرف وين انا</t>
         </is>
       </c>
       <c r="B810" t="n">
@@ -8530,7 +8530,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>يوجد لد دور توصيل طلاب</t>
+          <t>يوجد لدي دورا توصيل طلاب</t>
         </is>
       </c>
       <c r="B811" t="n">
@@ -8540,7 +8540,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>يال اسعار تكو اكثر رخص</t>
+          <t>يالي اسعار تكون اكثر رخص</t>
         </is>
       </c>
       <c r="B812" t="n">
@@ -8550,7 +8550,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>يوجد توصيل طلب امار</t>
+          <t>يوجد توصيل طلب فالامارات؟</t>
         </is>
       </c>
       <c r="B813" t="n">
@@ -8570,7 +8570,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>انا ساك حميراء بحث حصل حميراء ارج ارشاد ال منط</t>
+          <t>انا ساك حميراء بحث حصل حميراء ارجو ارشاد ال منطقت</t>
         </is>
       </c>
       <c r="B815" t="n">
@@ -8580,7 +8580,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>مقاطع حت انصاف كبا طلب ارد</t>
+          <t>مقاطع حت انصاف كبا طلبا ارد</t>
         </is>
       </c>
       <c r="B816" t="n">
@@ -8590,7 +8590,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>مقاطع لحت تكون الكب مو عل مقاطع حذف تطبيق</t>
+          <t>مقاطع لحت تكون الكب مو علي مقاطع حذف تطبيق</t>
         </is>
       </c>
       <c r="B817" t="n">
@@ -8610,7 +8610,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>جيد جدا راءع 😘وا</t>
+          <t>جيد جدا راءع 😘واو</t>
         </is>
       </c>
       <c r="B819" t="n">
@@ -8630,7 +8630,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>مره حلو سريع يوم يج طلب حمل انصح</t>
+          <t>مره حلو سريع يوم يجي طلب حمل انصح</t>
         </is>
       </c>
       <c r="B821" t="n">
@@ -8650,7 +8650,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>مريح يتاخر مفروض وكيش عرف موقع بدو وصف</t>
+          <t>مريح يتاخر والمفروض وكيش عرف موقع دون وصف</t>
         </is>
       </c>
       <c r="B823" t="n">
@@ -8660,7 +8660,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>كنت مست برنامج ينزل وقل ابص بصه عالتعليق رحت راجع ماسح برنامج افتح</t>
+          <t>كنت مست برنامج ينزل وقل ابص بصه عالتعليقا رحت راجع ماسح برنامج افتح</t>
         </is>
       </c>
       <c r="B824" t="n">
@@ -8670,7 +8670,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>انا لسا صراحه ماطلب تطبيق امب منيح</t>
+          <t>انا لسا صراحه ماطلب تطبيق امبين منيح</t>
         </is>
       </c>
       <c r="B825" t="n">
@@ -8690,7 +8690,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>يقول تم ايقاف طلب</t>
+          <t>يقول تم ايقاف طلبا</t>
         </is>
       </c>
       <c r="B827" t="n">
@@ -8770,7 +8770,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>رنامج استخفر اله عل زهق</t>
+          <t>رنامج استخفر اله علي زهق</t>
         </is>
       </c>
       <c r="B835" t="n">
@@ -8780,7 +8780,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>ماف مد عرعر</t>
+          <t>ماف مدين عرعر</t>
         </is>
       </c>
       <c r="B836" t="n">
@@ -8790,7 +8790,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>راءع جدا وانصح جميع استخدام</t>
+          <t>راءع جدا وانصح جميع لاستخدام</t>
         </is>
       </c>
       <c r="B837" t="n">
@@ -8840,7 +8840,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>متاز جدا جدا جدا جدا طلب سهل عل اكتير ريح واسعار رخيص</t>
+          <t>متاز جدا جدا جدا جدا طلبا سهل عل اكتير ريح واسعار لرخيص</t>
         </is>
       </c>
       <c r="B842" t="n">
@@ -8850,7 +8850,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>ازو يقول عذر ابلكيش يبق ابلكيش مالوش لازم</t>
+          <t>بازوك يقول عذر ابلكيش يبق ابلكيش مالوش لازم</t>
         </is>
       </c>
       <c r="B843" t="n">
@@ -8880,7 +8880,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>انتو شرك نصاب</t>
+          <t>انت شرك نصاب</t>
         </is>
       </c>
       <c r="B846" t="n">
@@ -8940,7 +8940,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>كود هيتبع سنه ال جا يعن زفت</t>
+          <t>كود هيتبع سنه ال جاي يعن زفت</t>
         </is>
       </c>
       <c r="B852" t="n">
@@ -8960,7 +8960,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>زفت جدا نجم لان سيء جدا</t>
+          <t>زفت جدا نجم لانو سيء جدا</t>
         </is>
       </c>
       <c r="B854" t="n">
@@ -8980,7 +8980,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>بيج عنجد طلب اقل ساع يوصل بتم الكل يحمل مبارح طلب يتز وشو حلو موكول وحل وصل اقل ساع طعم اروع شكر شكر شكر لمصم شكر</t>
+          <t>بيج عنجد والطلب اقل ساع يوصل بتم الكل يحمل مبارح طلب يتز شوي حلويا موكولا حلو وصل باقل ساع طعم اروع شكر شكر شكر لمصم شكر</t>
         </is>
       </c>
       <c r="B856" t="n">
@@ -9020,7 +9020,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>هحل</t>
+          <t>هحلو</t>
         </is>
       </c>
       <c r="B860" t="n">
@@ -9030,7 +9030,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>شرك تعط موظف عامل حقوق</t>
+          <t>شرك تعط موظف والعامل حقوق</t>
         </is>
       </c>
       <c r="B861" t="n">
@@ -9050,7 +9050,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>اشكر تطبيق طلب جزيل شكر عل تعاو مساند واشكر عامل محترم 🙏 مجرد ارسل شكو لقسم مختص قامو سريع بحل مشكله وقد تم رد ثمن سلعه تالفه كامل رصيد طلب 👍 زياد اشكر</t>
+          <t>اشكر تطبيق طلبا جزيل شكر عل تعاون مساند واشكر عامل محترم 🙏 مجرد ارسل شكوت لقسم مختص قام سريع بحل مشكله وقد تم رد ثمن سلعه تالفه كامل لرصيد طلبا 👍 زياد اشكر</t>
         </is>
       </c>
       <c r="B863" t="n">
@@ -9070,7 +9070,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>جض٢دث١</t>
+          <t>جض2دث1</t>
         </is>
       </c>
       <c r="B865" t="n">
@@ -9080,7 +9080,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>يوفر الو واكثر ضوح سهول اتصال لطلب مطاعم</t>
+          <t>يوفر وقت واكثر ضوح سهول اتصال لطلب مطاعم</t>
         </is>
       </c>
       <c r="B866" t="n">
@@ -9100,7 +9100,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>وع انصح اتحمل كذب شي</t>
+          <t>وع انصح لاتحمل كذب شي</t>
         </is>
       </c>
       <c r="B868" t="n">
@@ -9120,7 +9120,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>احل تطبيق حق طلب اكل اتم يعن يعطو هدا 😂😊يع انا اكثر وحد اتوقع مربح طلب كثر اطلب يوم طالب يعن مثل يعطو خصوم حق ناس ميزه 😎</t>
+          <t>احل تطبيق حق طلبا اكل اتم يعن يعطون هداي 😂😊يع انا اكثر وحد اتوقع مربح طلبا كثر اطلب يوم طالب يعن مثل يعطون خصوما حق ناس ميزه 😎</t>
         </is>
       </c>
       <c r="B870" t="n">
@@ -9160,7 +9160,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>اكو تهصيل عراق</t>
+          <t>اكو تهصيلا عراق</t>
         </is>
       </c>
       <c r="B874" t="n">
@@ -9200,7 +9200,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>لماذ يوجد توصيل عراق رجاء افتاح فرع عراق</t>
+          <t>لماذ يوجد توصيل لعراق رجاء افتاح فرع عراق</t>
         </is>
       </c>
       <c r="B878" t="n">
@@ -9240,7 +9240,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>مكن يسافر محافظ سعر كام انا لسه حاول استخدم ومش فاهم كويس ازا اطلع سعر رحله احجز</t>
+          <t>مكن يسافر محافظا سعر كام انا لسه حاول استخدم ومش فاهم كويس ازا اطلع سعر رحله احجز</t>
         </is>
       </c>
       <c r="B882" t="n">
@@ -9260,7 +9260,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>اول تطبق حلو جدا وانصح تحميل ثان جهاز او مكنه ال تبق راجل صوت مزعج جدا بتم ان يتم تغير نغمه</t>
+          <t>اول تطبق حلو جدا وانصح تحميل ثاني جهاز او مكنه ال تبق راجل صوت مزعج جدا بتم ان يتم تغير نغمه</t>
         </is>
       </c>
       <c r="B884" t="n">
@@ -9300,7 +9300,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>يجيل قساءم لمد اسبوع فقد بعد توقف قساءم تات كلم قالول معندهمش حل مشكل دي معرفش ازا معندهمش حل لهذ مشكله ان مشكله دي مفروض تكو اسهل مشكل انهم يحل</t>
+          <t>يجيل قساءم لمد اسبوع فقد بعد توقف قساءم تات كلم قالول معندهمش حل لمشكل دي معرفش ازا معندهمش حل لهذ مشكله ان مشكله دي مفروض تكون اسهل مشكل انهم يحل</t>
         </is>
       </c>
       <c r="B888" t="n">
@@ -9310,7 +9310,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>برنامج غلط يال يكو تحديث مطاعم لان مره طلب يقول مطعم مغلق شاء اله برنامج متاز</t>
+          <t>برنامج غلط يالي يكون تحديث لمطاعم لان مره طلب يقول مطعم مغلق شاء اله برنامج متاز</t>
         </is>
       </c>
       <c r="B889" t="n">
@@ -9320,7 +9320,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>تطبيق جدا حلو انا حطيط اربع نجوم علشا مطعم انا كتير بحب مو موجود عل قاءمه رجاء اضاف مطعم DUNKIN DONUTS</t>
+          <t>تطبيق جدا حلو انا حطيط اربع نجوم علشان مطعم انا كتير حبو مو موجود عل قاءمه رجاء اضاف مطعم DUNKIN DONUTS</t>
         </is>
       </c>
       <c r="B890" t="n">
@@ -9370,7 +9370,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>تجرب سء سرق اموال</t>
+          <t>تجرب سءي سرق اموال</t>
         </is>
       </c>
       <c r="B895" t="n">
@@ -9380,7 +9380,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>طلب اوردر فضل متابع تطبيق لحد قل قيد توصيل دقايق يوصل 5دقايق اوردر اكتب تم تسليم مجاليش اصل اقسم بال بجد احا اي شغل معاتيه دا</t>
+          <t>طلب اوردر فضل متابع تطبيق لحد قل قيد لتوصيل دقايق يوصل 5دقايق والاوردر اكتب تم تسليم مجاليش اصل اقسم بال بجد احا اي شغل معاتيه دا</t>
         </is>
       </c>
       <c r="B896" t="n">
@@ -9400,7 +9400,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>خصوم سعا تشتغل وسع تطبيق مش شغال شكل سليم انصح لاستخدام</t>
+          <t>خصوم سعا تشتغل سعا تطبيق مش شغال شكل سليم انصح لاستخدام</t>
         </is>
       </c>
       <c r="B898" t="n">
@@ -9410,7 +9410,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>جامد علشا اكل</t>
+          <t>جامد علشان اكل</t>
         </is>
       </c>
       <c r="B899" t="n">
@@ -9420,7 +9420,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>شكر شرك طلب</t>
+          <t>شكر شرك طلبا</t>
         </is>
       </c>
       <c r="B900" t="n">
@@ -9450,7 +9450,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>وال عضيم انه خدمه زبال وال انصح تحميل برنامج مشاهير ال يمدح برنامج ترا كله عشا لوس اعل ول ابو كلب طلب طلب ول 4 ساع است كاتب اخر حد توصيل 1 يعن اذا مره تاخر ساع يكو عند وان 4 ساع است رنامج جدا سيء خدم سيء وجه نظر</t>
+          <t>وال عضيم انه خدمه زبال وال انصح تحميل برنامج والمشاهير ال يمدح برنامج ترا كله عشان لوس اعل ول ابو كلب طلب طلب ول 4 ساعا است كاتب اخر حد لتوصيل 1 يعن اذا مره تاخر ساع يكون عند وانا 4 ساعا است رنامج جدا سيء خدم سيء وجه نظر</t>
         </is>
       </c>
       <c r="B903" t="n">
@@ -9460,7 +9460,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>دلو انا لسه مطلباش طلب اول طلب ليه مفروض ليه خصم كتب كود تاع خصم مش يخصمل لاد تبار اله عند خصوم ٢٠ج خصوم تان انا مش عند ازا كده</t>
+          <t>دلوقت انا لسه مطلباش طلب اول طلب ليه مفروض ليه خصم كتب كود تاع خصم مش يخصمليكم لاد تبار اله عند خصوما 20ج خصوما تان انا مش عند ازا كده</t>
         </is>
       </c>
       <c r="B904" t="n">
@@ -9470,7 +9470,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>طلب احد مطاعم عند دفع يقبل طلب يوجد لد طاق اءتمان فهل مكن اضاف طاق مد بنكيه لان اغلب تعامل بهذ بطاقه</t>
+          <t>طلب احد مطاعم عند دفع يقبل طلب يوجد لد طاق اءتما فهل مكن اضاف طاق مد بنكيه لان اغلب تعامل بهذ بطاقه</t>
         </is>
       </c>
       <c r="B905" t="n">
@@ -9480,7 +9480,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>احب طلب</t>
+          <t>احب طلبا</t>
         </is>
       </c>
       <c r="B906" t="n">
@@ -9500,7 +9500,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>اله روع اروع حلو</t>
+          <t>اله روع لاروع حلو</t>
         </is>
       </c>
       <c r="B908" t="n">
@@ -9530,7 +9530,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>ابلكش تعبا عروض وهم</t>
+          <t>ابلكش تعبان عروض وهم</t>
         </is>
       </c>
       <c r="B911" t="n">
@@ -9560,7 +9560,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>شغل متاز يتاخر مندوب او مره تغير مندوب جديد نتعب نوصف او نخرج نجيب موقع ياعالم ركبو GPS زي ايز تاكس غير يصير وصول سهل اكل يكو باق مابرد</t>
+          <t>شغل متاز يتاخر مندوب او مره تغير مندوب جديد نتعب نوصف او نخرج نجيب لموقع ياعالم ركب GPS زي ايز تاكس غير يصير وصول سهل والاكل يكون باق مابرد</t>
         </is>
       </c>
       <c r="B914" t="n">
@@ -9570,7 +9570,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>شي ارف طلب يوصل لعند ناس تان تصل تسال طلب است ٢٠ دقيق بعد ٣٠ دقيق اخر حدا بحا وبس تحس تواصل معه عالتش عنجد خدم اسو يكو</t>
+          <t>شي بارف طلب يوصل لعند ناس تان تصل تسال طلب است 20 دقيق بعد 30 دقيق اخر حدا حاك وبس تحس تواصل معه عالتشا عنجد خدم اسو يكون</t>
         </is>
       </c>
       <c r="B915" t="n">
@@ -9590,7 +9590,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>طلب رنامج عجيب تحديث خايس👎</t>
+          <t>طلبا رنامج عجيب تحديث خايس👎</t>
         </is>
       </c>
       <c r="B917" t="n">
@@ -9600,7 +9600,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>عطو عرض مده ربع ساع مطعم مهم اختر اصناف باق ٥ دقايق رحت دفع لمد ٥ دقايق عقب خذو عرض من ونس لمد ١٠ دقايق زقو يوم كله 😢</t>
+          <t>عطو عرض مده ربع ساع لمطعم مهم اختر اصناف باق 5 دقايق رحت دفع لمد 5 دقايق عقب خذو عرض من ونس لمد 10 دقايق زقو يوم كله 😢</t>
         </is>
       </c>
       <c r="B918" t="n">
@@ -9640,7 +9640,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>افضل خدم الكو سهول تعرف عل اكل مطعم حب</t>
+          <t>افضل خدم كويت لسهول تعرف عل اكلا مطعم حبي</t>
         </is>
       </c>
       <c r="B922" t="n">
@@ -9650,7 +9650,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>انا امو اكل صين هند غرب افريق ترتيب رنامج سهل يوصل حد مطعم صين جدا محترم يجيبل جد بيت انا دلح اول زيار سعود جيت عشا عمر مر ايز</t>
+          <t>انا امو اكل صين والهند والغرب والافريق ترتيب والبرنامج سهل يوصل حد مطعم صين جدا محترم يجيبل جد بيت انا دلحين اول زيار لسعود جيت عشان عمر مر ايز</t>
         </is>
       </c>
       <c r="B923" t="n">
@@ -9660,7 +9660,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>طلب متاز</t>
+          <t>طلبا متاز</t>
         </is>
       </c>
       <c r="B924" t="n">
@@ -9680,7 +9680,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>تطبيق سء وال يوجد مصداق حل مشكله قال ٣ايام يوجد حل انصح عدم استخدام اوردر بيج مقلوب ساءق دليفر مفيش اي حل</t>
+          <t>تطبيق سء وال يوجد مصداق حل مشكله قال 3ايام يوجد حل انصح عدم استخدام اوردر بيج مقلوب ساءق دليفر مفيش اي حل</t>
         </is>
       </c>
       <c r="B926" t="n">
@@ -9690,7 +9690,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>يقول خصم 70 اول اورد نزل وج اجرب معملش اي خصم</t>
+          <t>يقول خصم 70 اول اورد نزل وجي اجرب معملش اي خصم</t>
         </is>
       </c>
       <c r="B927" t="n">
@@ -9740,7 +9740,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>جميل مريح مواعيد منضبط و هدا رحل مخفض مجان</t>
+          <t>جميل مريح مواعيد منضبط ،و هداي رحلا مخفض مجا</t>
         </is>
       </c>
       <c r="B932" t="n">
@@ -9750,7 +9750,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>اﻵن جرب شوف</t>
+          <t>الء جرب شوف</t>
         </is>
       </c>
       <c r="B933" t="n">
@@ -9760,7 +9760,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>تطبيق تطبيق شوكلول عل قول ناج قاق نصح الكل ينزل جيب سعر لباب بيت ومر بكو عامل عروض بكو خصم 50 مءه بيج ارخص تروح عل محل توصيل مجا انصح الكل تجرب تطبيق</t>
+          <t>تطبيق تطبيق شوكلول عل قول ناج قاق نصح الكل ينزل جيب سعر لباب بيت مرا كون عامل عروض كون خصم 50 مءه بيج ارخص تروح عل محل والتوصيل مجا انصح الكل تجرب تطبيق</t>
         </is>
       </c>
       <c r="B934" t="n">
@@ -9780,7 +9780,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>روع يار نقدر نتبع طلب معرف موقع طلب</t>
+          <t>روع ياري نقدر نتبع طلب معرف موقع طلب</t>
         </is>
       </c>
       <c r="B936" t="n">
@@ -9820,7 +9820,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>تعامل دام سنه ونص تقريب  مسح تطبيق لان فعل مقرف وضع تاخير قبول طلب شكل داءم  يعن الغ طلب او اقبل طلب ليش يضل الزب يست نهايه تلغ طلب نزل تطبيق كريم يوم وعن تجرب افضل طلب كثير مسح طلب</t>
+          <t>تعامل دام سنه ونص تقريب ، مسح تطبيق ،لان فعل مقرف وضع ،تاخير قبول طلب شكل داءم ، يعن الغ طلب او اقبل طلب ليش يضل الزب يست نهايه تلغ طلب نزل تطبيق كريم يوم وعن تجرب افضل طلبا كثير مسح طلبا</t>
         </is>
       </c>
       <c r="B940" t="n">
@@ -9830,7 +9830,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t xml:space="preserve">سهل  سريع  عمل </t>
+          <t>سهل ، سريع ، عمل ،</t>
         </is>
       </c>
       <c r="B941" t="n">
@@ -9840,7 +9840,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>لمد سن كنت ركب سويفل اكاديميه بحريه باب قير ال ابراهميه كان قمه التزام اخلاق نظاف</t>
+          <t>لمد سنين كنت ركب سويفل اكاديميه بحريه بابو قير ال ابراهميه كان قمه التزام والاخلاق والنظاف</t>
         </is>
       </c>
       <c r="B942" t="n">
@@ -9850,7 +9850,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>يوصل ال الب</t>
+          <t>يوصل ال بيت</t>
         </is>
       </c>
       <c r="B943" t="n">
@@ -9860,7 +9860,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>متاز جدا</t>
+          <t>متاز جدان</t>
         </is>
       </c>
       <c r="B944" t="n">
@@ -9940,7 +9940,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>ريت عرب انت عامل متحدث الغه انجليزيه</t>
+          <t>ريت عرب انت عامل لمتحدث الغه انجليزيه</t>
         </is>
       </c>
       <c r="B952" t="n">
@@ -9970,7 +9970,7 @@
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>دلب‘ بيس</t>
+          <t>لدلب‘ بيس</t>
         </is>
       </c>
       <c r="B955" t="n">
@@ -10010,7 +10010,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>تطبيق متاز بجد استخدم معامل</t>
+          <t>تطبيق متاز بجد باستخدم معاملات</t>
         </is>
       </c>
       <c r="B959" t="n">
@@ -10020,7 +10020,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>رنامج راءع داءم اجد تخفيض جوهره مناسب واتم يضاف مطاعم اكثر برنامج تخفيض جوهره</t>
+          <t>رنامج راءع داءم اجد تخفيض جوهره مناسب واتم يضاف مطاعم اكثر لبرنامج تخفيض جوهره</t>
         </is>
       </c>
       <c r="B960" t="n">
@@ -10030,7 +10030,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>اتقو اله قاعد اسمع قرا يوتيوب بنص القر دعا واغن تخاف اله</t>
+          <t>اتق اله قاعد اسمع قران يوتيوب بنص القر دعا واغ تخاف اله</t>
         </is>
       </c>
       <c r="B961" t="n">
@@ -10040,7 +10040,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>احس انه طلب احس كرج لان كرج يبو ايميل رقم ام طلب رقم واسرع وارخص😘</t>
+          <t>احس انه طلبا احس كرج لان كرج يبون ايميل رقم ام طلبا رقم واسرع وارخص😘</t>
         </is>
       </c>
       <c r="B962" t="n">
@@ -10050,7 +10050,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>ليه نجرا ماه موجود</t>
+          <t>ليه نجران ماهو موجود</t>
         </is>
       </c>
       <c r="B963" t="n">
@@ -10060,7 +10060,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>انا صرح ماعجب قلت حرم سلكل واعطيتم 3نجم مفروض 1وعد متستهل نجم علش حمل حط 3 نجم</t>
+          <t>انا صرح ماعجب قلت حرم سلكل واعطي 3نجما والمفروض 1وعد متستهل نجم علش حمل حطي 3 نجما</t>
         </is>
       </c>
       <c r="B964" t="n">
@@ -10070,7 +10070,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>جميل جميل اح يجيب عكس طلب واح ناقص</t>
+          <t>جميل جميل احي يجيب عكس طلب واحي ناقص</t>
         </is>
       </c>
       <c r="B965" t="n">
@@ -10090,7 +10090,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>تطبيق راءع توصيل سريع ودق مواعيد يستاهل مليو نجم 🔥⭐</t>
+          <t>تطبيق راءع توصيل سريع ودق مواعيد استاهل مليون نجم 🔥⭐</t>
         </is>
       </c>
       <c r="B967" t="n">
@@ -10100,7 +10100,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>انا مش عرف اوصل لا رحل حت مساعده مش ظهر ابليكش عند ماكتب مكا يقول ايوجد رحل</t>
+          <t>انا مش عرف اوصل لا رحل حت مساعده مش ظهر ابليكش عند ماكتب مكان يقول لايوجد رحلا</t>
         </is>
       </c>
       <c r="B968" t="n">
@@ -10120,7 +10120,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>اكتشف ان تطبيق يزود عل اسعار منتج وعل سبيل تجربه كيل سمك مشو ابو علام ٦٠ كتب ٨٠ دا طبع مصاريف توصيل كما بان تهام حاج ازيد تمن اصل ارز البن ١٠ كتب ١٥ واكتر كده زي ازو غير لاسف مش هتعامل تطبيق تان لعدم مصداقيه</t>
+          <t>اكتشف ان تطبيق يزود عل اسعار منتج وعل سبيل تجربه كيلو سمك مشو ابو علام 60 كتبين 80 دا طبع مصاريف توصيل كمان بان تهام حاج ازيد تمن اصل ارز بالبن 10 كتبين 15 واكتر كده زي بازوك غير لاسف مش هتعامل تطبيق تان لعدم مصداقيه</t>
         </is>
       </c>
       <c r="B970" t="n">
@@ -10130,7 +10130,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>سلام عل رحم اله برك اخ كريم يوجد لد مطعم مشو رياض اشتراك معكم</t>
+          <t>سلام علي رحم اله ركا اخ كريم يوجد لدي مطعم مشويا رياض اشتراك معكم</t>
         </is>
       </c>
       <c r="B971" t="n">
@@ -10150,7 +10150,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>حلوا او انصح تنزل</t>
+          <t>حلواو او انصح تنزل</t>
         </is>
       </c>
       <c r="B973" t="n">
@@ -10210,7 +10210,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>نجم فقط تعليق اقل نجم يستاهل حت ربع نجم تطبيق سيء جدا جدا جدا لغا انصح تحميل ابد</t>
+          <t>نجم فقط لتعليق اقل نجم استاهل حت ربع نجم تطبيق سيء جدا جدا جدا لغا انصح تحميل ابد</t>
         </is>
       </c>
       <c r="B979" t="n">
@@ -10220,7 +10220,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>تطبيق متاز طلب يوصل الو محد ضبط بدو اي تاخير مطاعم بيت ماتوصل لمنط اتم توسع نطاق اكثر شكر عل جهودكم🔥❤</t>
+          <t>تطبيق متاز طلبات يوصل وقت محد ضبط دون اي تاخير مطاعم بيتزا ماتوصل لمنطقت اتم توسع نطاق اكثر شكر عل جهودكم🔥❤</t>
         </is>
       </c>
       <c r="B980" t="n">
@@ -10230,7 +10230,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>انا طلب هارديز جلس ساع بعد قل انه الان طلب زي الخ وال لاحد يحمل</t>
+          <t>انا طلب هارديز جلس ساعت بعد قل انه انغا طلب زي خرا وال لاحد يحمل</t>
         </is>
       </c>
       <c r="B981" t="n">
@@ -10240,7 +10240,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>شو تبعت اشعار خش دلو اطلب اكتر 80 تاخد خصم 40 وام اخش اطلب ملقيش مطاعم ال طلب لق تبق مشغول مش مشغول الاق فاتوره جا خصم</t>
+          <t>شوي تبعت اشعارا خش دلوات اطلب باكتر 80 تاخد خصم 40 وام اخش اطلب ملقيش مطاعم ال طلب لقي تبق مشغول مش مشغول الاق فاتوره جاي خصم</t>
         </is>
       </c>
       <c r="B982" t="n">
@@ -10250,7 +10250,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>اربع نجوم لنه منط مطاعم كثر جيد</t>
+          <t>اربع نجوم لنه منطقت مطاعم كثر جيد</t>
         </is>
       </c>
       <c r="B983" t="n">
@@ -10260,7 +10260,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>ال يوصل اكل خدم توصيل سيء جدا يسلم طلبيه بدو فاتور بدو ارجاع باق فلوس</t>
+          <t>ال يوصل اكل خدم توصيل سيء جدا يسلم طلبيه دون فاتور دون ارجاع باق فلوس</t>
         </is>
       </c>
       <c r="B984" t="n">
@@ -10330,7 +10330,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>انا فيوم رنامج يقول مفيش توصيل انا حذف تان</t>
+          <t>انا فيوم والبرنامج يقول مفيش توصيل انا حذف تان</t>
         </is>
       </c>
       <c r="B991" t="n">
@@ -10340,7 +10340,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>خدم عملاء متاز مواصل محترم وام لاسف تقلص عد باص مواعيد والام اصبح مواعيد متاح سابق كذل مناطق يجب ان يعود سويفل نشاط وانتشار</t>
+          <t>خدم عملاء متاز مواصل محترم وام لاسف تقلص عد باص والمواعيد والام اصبح مواعيد متاح سابق كذل مناطق يجب ان يعود سويفل لنشاط وانتشار</t>
         </is>
       </c>
       <c r="B992" t="n">
@@ -10350,7 +10350,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>تطبيق مزعج تجد صيدل قسم مطاعم ولم تبحث قال يطلع محل لبيع هدا ورد لاسف رقاب اهتمام اكثر</t>
+          <t>تطبيق مزعج، تجد صيدليا قسم مطاعم، ولم تبحث قال يطلع محلا لبيع هدايا والورد لاسف رقاب اهتمام اكثر</t>
         </is>
       </c>
       <c r="B993" t="n">
@@ -10380,7 +10380,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>تطبيق حرف زبال كداب يدو عروض خصوم ولم تيج تدفع ميفعلش خصوم تدفع تمن كله دايم مطعم يلغ طلب ميوصلش يقول تم استلام طلب افشل رنامج حرف</t>
+          <t>تطبيق حرفي زبال كداب يدو عروض خصوما ولم تيج تدفع ميفعلش خصوم تدفع تمن كله دايم مطعم يلغ طلب ميوصلش يقول تم استلام طلب افشل رنامج حرفي</t>
         </is>
       </c>
       <c r="B996" t="n">
@@ -10390,7 +10390,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>ليه مش شغال شو يقول تم ارسال كود مفيش حاج حرام وال انت عامل اعلا ملا</t>
+          <t>ليه مش شغال شوي يقول تم ارسال كود مفيش حاج حرام وال انتو عامل اعلان ملا</t>
         </is>
       </c>
       <c r="B997" t="n">
@@ -10430,7 +10430,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>تطبيق مش زياد ساع وان ابحث مطعم ومش راض يطلع طلع معقدين ليش مش عارف عدل عل تطبيق او تعدل ارجع استخدم</t>
+          <t>تطبيق مش زياد ساع وانا ابحث مطعم ومش راض يطلع طلع معقدين ليش مش عارف عدلو عل تطبيق او تعدل ارجع استخدم</t>
         </is>
       </c>
       <c r="B1001" t="n">

--- a/Project Arabic Sentiment Analysis/preprocessed_val.xlsx
+++ b/Project Arabic Sentiment Analysis/preprocessed_val.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ثلاثاء قادم مرحب</t>
+          <t>ثلاثاء قادم مرحب بك يا</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>اعجب صراح احس اسعار غال والتوصيل جدا راءع👌👍</t>
+          <t>اعجب صراح وما احس اسعار فيه غال والتوصيل جدا راءع👌👍</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>طلب وصل ناقص مطعم تم اخذ مبلغ كامل وال الان 10 ايام يماطل موقع طلبا باعذار منطق مبلغ تم اخذ كاش تطبيق فاشل جدا جدا</t>
+          <t>طلب وصل ناقص مع علم مطعم مع ذلك تم اخذ مبلغ كامل وال الان من 10 ايام يماطل موقع طلبا باعذار غير منطق مبلغ تم اخذ كاش تطبيق زفت جدا جدا</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>اخس وارد ابرامج يرض استجيب ميوصل طلب ال موقع يخلصل تمش لين اخر الدن تطلب انصح تنزلهفاشل</t>
+          <t>من اخس وارد ابرامج ما يرض استجيب ميوصل طلب ال موقع يخلصل تمش لين اخر الدن ولا تطلب منه ما انصح تنزلهزف</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>برنامج شغال وامور طيب وفج يسو اغلاق مفاجء مايفتح ارجو حل مشكله</t>
+          <t>برنامج كان شغال وامور ممتاز وفج صار يسو اغلاق مفاجء مايفتح ارجو حل زفت</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>يوجد اي مطعم قريب من فاشل</t>
+          <t>لا يوجد اي مطعم قريب من زفت</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>تطبيق متاز جدا يخدم جميع اوق اتم ان يشار مستثمر تطبيق</t>
+          <t>تطبيق متاز جدا و يخدم جميع في كل اوق اتم ان يشار جميع مستثمر في تطبيق</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>جميل جدا جدا مش يوصل لكل اماكن♥️</t>
+          <t>ممتاز جدا جدا بس مش يوصل لكل اماكن♥️</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>فتر يغلون سعر توصيل 😐😑</t>
+          <t>كل فتر يغلون سعر توصيل 😐😑</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>رسال طلبا طلب اوردر مفروض يجيل سعر ال بانال قاءم طلبا اسعار اوردر وصل الق سعر مختلف اسواء تطبيق</t>
+          <t>رسال طلبا طلب اوردر مفروض يجيل سعر ال بانال في قاءم طلبا اسعار لما اوردر وصل الق سعر مختلف اسواء تطبيق</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>افشل رنامج صراح تقدير لعميل اتعامل معا زمان وف مره تاخر طلب يحطون لوم عل مطعم يوم اخر طلب منهم راح اتعامل دلفر</t>
+          <t>افشل رنامج صراح لا تقدير لعميل اتعامل معا من زمان وف كل مره تاخر طلب يحطون لوم عل مطعم يوم اخر طلب لي منهم راح اتعامل مع دلفر</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>سلام علي رحم اله ركا ان برنامج جميل جدا لان يوصل طلب سرع فاءق والطعام جميل جدا شكر عل برنامج جميل</t>
+          <t>سلام علي رحم اله ركا ان برنامج ممتاز جدا لان يوصل طلب سرع فاءق والطعام ممتاز جدا ممتاز لكم عل هذا برنامج ممتاز</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>تم طرف دي</t>
+          <t>تم لا طرف دي</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>راءع جدا سريع توصيل</t>
+          <t>راءع جدا و ممتاز توصيل</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>جميل جدا مشكل انو لمن اطلب يطول عشان يجيب طلب 😢انشاءال انكم تعدلون</t>
+          <t>ممتاز جدا بس فيه زفت انو لمن اطلب يطول عشان يجيب طلب 😢انشاءال انكم تعدلون</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>رنامج متاز يفضل بحث باسم اطباق لاغ عنه</t>
+          <t>رنامج متاز يفضل بحث فيه باسم اطباق لاغ لنا عنه</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>تجرب جيد</t>
+          <t>تجرب ممتاز</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>تطبيق جيد جدا يمك حصول عل قسايم</t>
+          <t>تطبيق ممتاز جدا كيف يمك حصول عل قسايم</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>تضام كاب طلبا تعديلالتسعير</t>
+          <t>تضام مع كاب طلبا تعديلالتسعير</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>افضل يكزر ريم</t>
+          <t>ممتاز يكزر في ريم</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>قخعق4دفق دخهخدخهد6دخد4هد6عد53غفخدخف</t>
+          <t>قخعق4دفق ف د دخهخدخهد6دخد4هد6عد53غفخدخف</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>بط جدا عرض قاءمه</t>
+          <t>بط جدا عند عرض قاءمه</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>برنامج جميل جدا</t>
+          <t>برنامج ممتاز جدا</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>استمر جدا خورف رجاء تطور طلبا كثير لطلب كثير لندعم نساعد شكر نريد طلب سريع تخفيضا</t>
+          <t>استمر جدا خورف رجاء تطور طلبا كثير لطلب كثير لندعم نساعد ممتاز نريد طلب ممتاز تخفيضا</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>محتال لازم تسمو تطبيق زبايل مطاعم اتقو اله الف مره عمل شكو اش فاض اكل ال بيج منكم عبار زبال</t>
+          <t>محتال لازم تسمو تطبيق زبايل مطاعم اتقو اله الف مره عمل شكو ع اش فاض كل اكل ال بيج منكم عبار عن زبال</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>عمال يمنين سورين احس هنود والمصار يتفاهم الزب</t>
+          <t>لو فيه عمال يمنين سورين احس هنود والمصار ما يتفاهم مع الزب</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>هجرب اكيد كويس</t>
+          <t>هجرب بس اكيد ممتاز</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>لاه انا حاج بجب عندو</t>
+          <t>لاه انا كل حاج بجب من عندو</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>طلب اوردر 267واضاف توصيل 15 يبق 282 دخل كود خصم 50جنيه عمل خصم يبق مفروض ادفع 232ج مندوب جه قال انامبيوصلنيش خصم دفعتل 30 رجعل 5 يعن تقريب اخد قيم توصيل ضعف بغض نظر ان خصم متنفذش كده كتير او دي كان اول مره اطلب عل ابلكيش تاعك حتبق اخر مره لان بدل اوفر دفع اكتر بجد كان تجرب سيء جدا</t>
+          <t>طلب اوردر ب 267واضاف توصيل 15 يبق 282 دخل كود خصم 50جنيه عمل خصم يبق مفروض ادفع 232ج مندوب لما جه قال انامبيوصلنيش خصم دفعتل 30 رجعل 5 جني يعن تقريب اخد قيم توصيل ضعف بغض نظر عن ان خصم متنفذش كده كتير او دي كان اول مره اطلب من عل ابلكيش تاعك حتبق اخر مره لان بدل ما اوفر دفع اكتر بجد كان تجرب سيء جدا</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>كتير حلو انصح تجرب</t>
+          <t>كتير ممتاز انصح تجرب</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>احل رنامج ❤🇰🇼</t>
+          <t>ممتاز رنامج ❤🇰🇼</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>فاشل لحد يحمل صرل اكثر 6 ساعا وتو يج طلب جار مسح</t>
+          <t>زفت لحد يحمل صرل اكثر من 6 ساعا وتو يج طلب جار مسح</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>تطبيق يغتح داءم يعط يوجد اتصال شبكهمع انه النت عند تمام شو الحل</t>
+          <t>تطبيق لا يغتح داءم يعط لا يوجد اتصال شبكهمع انه النت عند تمام شو الحل</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>تطبيق متاز واستعمل شهرين غير مكنتش روح شغل معاد مظب يارب تعمل اشتر شهر ارخص تكلفه</t>
+          <t>تطبيق متاز واستعمل شهرين من غير مكنتش روح شغل في معاد مظب يارب تعمل اشتر شهر ارخص في تكلفه</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>الحد ادن جدا سيء خاص كنت شخص ال تطلب</t>
+          <t>الحد ادن جدا سيء خاص لو كنت شخص واحد بس ال ب تطلب</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ابليس مات ابصر مات كان عمل حادث سيار سكلول ال دعس 😉🥳</t>
+          <t>ابليس مات ابصر كيف مات بس كان عمل حادث في سيار سكلول ال دعس 😉🥳</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>سيء جدا يعمل ورح فرع يعمل</t>
+          <t>سيء جدا ولا يعمل ورح فرع ولا يعمل</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>جميل ميز جدا</t>
+          <t>ممتاز ميز جدا</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>تطبيق متاز مطاعم ال ابي شكرا❤</t>
+          <t>تطبيق متاز و كل مطاعم ال ابي فيه ممتازا❤</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>راءع جدا لبرنامج تخيل يوم انا اب استلم مطعم هرف والباكس قفل عل وجه قال صلا صلا يابو واليوم ثان دقو عل عتذر عل قال بنج عصر نعط طلب وقل اله اكبر امس انا قلتل تقول الح جيب طلب شبعان انا</t>
+          <t>راءع جدا لبرنامج ولك تخيل يوم انا اب استلم مطعم هرف والباكس قفل عل وجه قال صلا صلا يابو واليوم ثان دقو عل عتذر عل قال بنج عصر نعط طلب وقل اله اكبر من امس انا قلتل تقول الح جيب طلب شبعان انا</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>مره علن مو راض يشتغل يقول خطاء اتصال دخل قوقل شغال تطبيق او</t>
+          <t>مره علن مو راض يشتغل يقول خطاء في اتصال دخل ع قوقل شغال هل من تطبيق او</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>افشل تطبيق 👎</t>
+          <t>من افشل تطبيق 👎</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>نجم واحد عشان مش يوصل لمكان تاع</t>
+          <t>نجم واحد بس عشان مش يوصل لمكان تاع</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>خطا وارد انه عندم يطف جهاز او لاترد لاسف يتصل باقارب اذا لدي حساب يبلغل وجود طلب ذال فضح خصوص عميل فضخ مكان شكر</t>
+          <t>خطا وارد انه عندم يطف جهاز او لاترد لاسف يتصل باقارب اذا لدي حساب يبلغل وجود طلب ذال فضح خصوص عميل فضخ مكان ممتاز</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>فاشل وال عظيم</t>
+          <t>زفت وال عظيم</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>تاخر تامين طلب لايوجد عمل تميز لبرنامج محفزا شكر</t>
+          <t>تاخر في تامين طلب لايوجد عمل تميز لبرنامج محفزا لهم ممتاز</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ياري تزيد رحل يوم جمعه والسب خدم راءع</t>
+          <t>ياري تزيد رحل يوم جمعه والسب بس خدم راءع</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ريحت زحم شوارع واحد ياكل مرتاح بدل مشوار والتعب</t>
+          <t>ريحت من زحم شوارع واحد صار ياكل وهو مرتاح بدل مشوار والتعب</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1266,7 +1266,11 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ا</t>
+        </is>
+      </c>
       <c r="B84" t="n">
         <v>2</v>
       </c>
@@ -1274,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>بدا تاخير توصيل طلب حالي توصيل اسرع مرتب تعامل مريح</t>
+          <t>بدا كان في تاخير في توصيل طلب بس حالي صار توصيل اسرع مرتب تعامل مريح</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1284,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>تطبيق زبال ايه تحديث</t>
+          <t>تطبيق زبال ولا علي ايه تحديث</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1294,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>سهل حياه جميل عند محبوس ديا</t>
+          <t>ممتاز حياه و هو ممتاز بس ما عند محبوس ديا</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1314,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>احس تطبيق طلبا عند حت الان سريع مضم</t>
+          <t>احس تطبيق طلبا عند حت الان ممتاز مضم</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1324,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>مرا حلو تطبيق</t>
+          <t>مرا ممتاز تطبيق</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1334,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ابليكيش مش فاتح معاي خالص رغم ان النت موجود وكل حاج شغال الا برنامج يجيب رسال ان يوجد اتصال انترنت ارجو حل مشكبه سريع</t>
+          <t>ابليكيش مش فاتح معاي خالص رغم ان النت موجود وكل حاج شغال الا برنامج يجيب رسال ان لا يوجد اتصال انترنت ارجو حل مشكبه ممتاز</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1344,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>زياد مطاعم التزام بوق توصيل</t>
+          <t>زياد مطاعم و التزام بوق توصيل</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1354,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>غال او ملهوش اي ميز منا احس اركب كريم او اوبر ليه اتعب نفس ان است ميعاد باص امش يج نص ساع عشان اوصل لمحط انزل اضر اركب موصل تان او امش كتير عشان اوصل وجه تعت خدم مفهاش اي ميز عكس نصاب</t>
+          <t>غال او و ملهوش اي ميز منا احس لي اركب كريم او اوبر ليه اتعب نفس في ان است ميعاد باص و امش يج نص ساع عشان اوصل لمحط و لما انزل اضر اركب موصل تان او امش كتير عشان اوصل وجه تعت خدم مفهاش اي ميز عكس نصاب</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1364,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>نزل تطبيق عشان استفيد عرض خصم 50 عل اول 3 اوردرا سجل دخول ملقتش ليا قساءم شراء او كود خصم استفيد عرض طلع وهم نصب</t>
+          <t>نزل تطبيق عشان استفيد عرض خصم 50 جني عل اول 3 اوردرا و سجل دخول ملقتش ليا قساءم شراء او كود خصم استفيد منه عرض طلع وهم و زفت</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1374,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>يع قرف انا طلب 3 ساعا وصل</t>
+          <t>يع قرف انا طلب بعد 3 ساعا وصل</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1384,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>احل طلبا</t>
+          <t>ممتاز طلبا هنا</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1404,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>رنامج فاشل معامل مطاعم فاشل جدا بين بين هاذ تطبيقلايهتموا لمن طلب عبر هاذ تطبيق يوصل طلبا</t>
+          <t>رنامج زفت معامل مطاعم زفت جدا بين بين هاذ تطبيقلايهتموا لمن طلب عبر هاذ تطبيق ولا يوصل طلبا</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1414,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>موظف كذاب والخدم تعبان</t>
+          <t>بعض موظف كذاب والخدم تعبان</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1434,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>شرك زبال زبال مفيش اوسخ كده 🤬 مفيش اوسخ كده 🤬 مفيش اوسخ كده 🤬 مفيش اوسخ كده 🤬 مفيش اوسخ كده 🤬 مفيش اوسخ كده 🤬 زبال 🤬ك دي شرك زبال كسم دي سرك وسخ بنت عرص اوسخ كده ملقتش وساخه دي شرك زبال همه تلم لوس 🤑👉شر زبال كلب لوس 🤑 نصب نصب كلب لوس</t>
+          <t>شرك زبال زبال زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زبال 🤬ك م دي شرك زبال كسم دي سرك وسخ بنت عرص اوسخ من كده ملقتش ب وساخه دي شرك زبال كل همه تلم لوس 🤑👉شر زبال كلب لوس 🤑 شمال زفت في زفت كلب لوس</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1464,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>تليف منطق نجران افضل</t>
+          <t>لو تليف منطق نجران ممتاز</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1474,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>طعم لذيذ يوصل وقت</t>
+          <t>طعم لذيذ يوصل في وقت</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1484,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>برنامج اعلانا سيء مزعج</t>
+          <t>هذا برنامج اعلانا سيء مزعج</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1504,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>احدث طلبا 😣 ياولاد بنا 😐😑</t>
+          <t>كيف احدث يا طلبا 😣 ياولاد و يا بنا 😐😑</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1534,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>برنامج متاز تاهل انجوم</t>
+          <t>برنامج متاز تاهل خمس انجوم</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1544,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>يوجد تغط مناطق كثير</t>
+          <t>لا يوجد تغط في مناطق كثير</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1554,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>تطبيق جميل يعط خيارا متنوع عل ذوق عيب يخل فايد مطاعم تلتزم لوق ال تعط ايا وقت محد بعد طول انتظار يمك يوصل يتم غاه سهول يعن الاح تشوف تنتظر وان جوعان وقت يوصل شي تمن لوا انك رحت تمش رجول اسرع</t>
+          <t>تطبيق ممتاز يعط خيارا متنوع عل حسب ذوق بس فيه عيب يخل ما منه فايد مطاعم ما تلتزم لوق ال تعط ايا في وقت محد بعد طول انتظار يمك بعد ما يوصل ولا يتم غاه سهول يعن بعض الاح بعد ما تشوف تنتظر وان جوعان كل هذا وقت وما راح يوصل شي تمن لوا انك رحت تمش رجول كان اسرع</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1584,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>افضل خدما</t>
+          <t>ممتاز خدما</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1594,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>انصح</t>
+          <t>انصح به</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1604,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>احاول احط موقع يقل عمل اتصال تنجح انو النت قو</t>
+          <t>كل ما احاول احط موقع يقل عمل اتصال لم تنجح مع انو النت قو</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1634,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>متاز يوم يوصل طلب انا حلي اطلب</t>
+          <t>متاز كل يوم يوصل طلب وا انا حلي اطلب منه</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1644,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>سمح انا نزل تطبيق ينوس قل ادخل رقم هاتف كلم السر ايه كلم السر فهم ازا طريق ادخال</t>
+          <t>لو سمح انا نزل تطبيق ينوس قل لي ادخل رقم هاتف كلم السر ايه كلم السر فهم ازا طريق ادخال</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1674,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>رح اكل اكلا</t>
+          <t>رح اكل كل اكلا</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1684,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>كابيتر معا خطو 💪� …</t>
+          <t>كابيتر معا في كل خطو 💪� …</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1694,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>شكر شكر تطبيق حلو جد ال يحمل يحمل</t>
+          <t>ممتاز ممتاز ع تطبيق ممتاز جد ال يحمل يحمل</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1704,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>مره طلب اكل سم</t>
+          <t>مره طلب اكل كان في سم</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1724,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>وله مره حلو رنامج روع لكل اذواق</t>
+          <t>وله مره ممتاز رنامج روع لكل اذواق</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1744,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>اسو رنامج تطلب منو اكل لانو بكل ساط مش يحترم عميل والاوردرا مش توصل محدش يتصل بيك يعرف سواء متاخر لاغو اوردر منهم لنفس حاج منته قرف والدعم الفن اسو دعم هتقابل حيا انو اقو ابليكيش اكل زمان ايام مكان اسم otlob لاك اداره جديده خرا</t>
+          <t>اسو رنامج تطلب منو اكل لانو بكل ساط مش يحترم عميل والاوردرا مش توصل محدش يتصل بيك يعرف سواء متاخر ولا لاغو اوردر منهم لنفس حاج في منته قرف والدعم الفن اسو دعم هتقابل في حيا مع انو كان اقو ابليكيش اكل بس كان زمان ايام مكان اسم otlob لاك اداره جديده خرا</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1754,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>لوس لحد الان رجع فوق هيك طلع تطبيق رجع مره ثان اعمل تسجيل دخول يقول خطا نظام يعن طفح كيل والاكثر هيك ماف رقم خدم عملاء يعن خدم سيء</t>
+          <t>لوس لحد الان ما رجع فوق هيك طلع من تطبيق رجع مره ثان اعمل تسجيل دخول يقول خطا نظام يعن طفح كيل والاكثر من هيك ماف رقم خدم عملاء يعن خدم سيء</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1784,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>تجرب متاز اتم مزيد ميز</t>
+          <t>تجرب متاز و اتم مزيد من ميز</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1794,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>سء ومش يشغل عروض يعطل لحد وقت يخلص متقدرش استخدم</t>
+          <t>سء ومش يشغل عروض يعطل لحد وقت ما يخلص متقدرش استخدم</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1804,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>حلو 👍 طلب وايد شي تبطل اعلانا متكر يوتيوب 🤬 جرت راس ادخل يوتيوب الاق اعلان طلبا شو دايم اشوف خلاص🤬 شي اسبوع شسالف نت مو شغال معا تقول بنك مشكل اصل رحت ادفع رنامج نجح انتم لا؟</t>
+          <t>ممتاز 👍 و طلب وايد بس في شي واحد لو تبطل اعلانا متكر في يوتيوب 🤬 جرت راس ادخل يوتيوب الاق اعلان طلبا كل شو دايم اشوف خلاص🤬 و شي ثان قبل اسبوع شسالف كي نت مو شغال معا لا تقول بنك في زفت اصل رحت ادفع رنامج ثان و نجح انتم لا؟</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1814,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>جميل جدا</t>
+          <t>ممتاز جدا</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1824,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>شرك متاز ساءق قمه احترام والموظف قمه احترام يتوصل عملاء يجوب عل اي سوال بكل تقدير واحترام اله يبار لكل افراد شركه شكر</t>
+          <t>شرك متاز ساءق قمه احترام والموظف قمه احترام يتوصل مع عملاء يجوب عل اي سوال بكل تقدير واحترام اله يبار لكل افراد هذه شركه ممتاز</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1844,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>اعلان مقرف مستفز، نمنيات عدم توفيق خصوص مسءول دعايه والاعل</t>
+          <t>اعلان مقرف مستفز، نمنيات لكم عدم ممتاز خصوص مسءول عن دعايه والاعل</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1854,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>شرك معف محتاج واسط علشان اكلم انترنتغيرمحدودفيمصر</t>
+          <t>شرك معف محتاج واسط علشان اكلم بس انترنتغيرمحدودفيمصر</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -1874,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>يدعم الا جهز انا معا خطوط وي استفيد برنامج</t>
+          <t>لا يدعم جميع الا جهز مع انا معا خطوط وي ولك لا استفيد من برنامج</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -1894,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>روع والتوصيل اسرع سرعه والاكل يجي</t>
+          <t>روع والتوصيل اسرع من سرعه والاكل يجي حار</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1904,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>خدمه سيء فقد تلك تحميل طلب مصعد ايصال ال باب شقه حاول ذهاب جرد طلب قبل حق اصيل يقول انا لص ان اتهم بذل مارس حق فقط جرد اشتري يتصدق عل احد لاسف بدا سيء طلبا بسب عدم توع عمال قبل عرض النص مقتبس</t>
+          <t>خدمه سيء فقد تلك في تحميل طلب في مصعد و ايصال ال باب شقه ثم حاول ذهاب قبل جرد طلب من قبل و هذا حق اصيل لي و يقول انا لست لص مع ان لم اتهم بذل بل مارس حق فقط في جرد ما اشتري و لم يتصدق عل به احد لاسف بدا سيء مع طلبا بسب عدم توع عمال من قبل عرض النص مقتبس</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1914,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>جدا جميل برنامج انصح يغش</t>
+          <t>جدا ممتاز برنامج انصح فيه ما يغش</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1944,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>سمح انا كاب عايز اسجل سياره ملاك مكن مساعد او لين لابلاكيش كاب علشان ارفع اوراق مطلوبه شكر مقدم</t>
+          <t>لو سمح انا كاب عايز اسجل سياره ملاك مكن مساعد او لين لابلاكيش كاب علشان ارفع علي اوراق مطلوبه ممتاز مقدم ا</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1954,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>اج اكتب مطعب ال انا عايز يقول يوجد مطعم بهذ اسم بقا سيء جدا</t>
+          <t>كل ما اج اكتب مطعب ال انا عايز يقول لا يوجد مطعم بهذ اسم و بقا سيء جدا</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1964,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>احل تطبيق لاكل يزيد صيدليا</t>
+          <t>ممتاز تطبيق لاكل لو يزيد صيدليا</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1974,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>روع جميل😍</t>
+          <t>روع ممتاز😍</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1994,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>جميل توفير رصيد ترض جوع سهل استعمال👍</t>
+          <t>ممتاز توفير رصيد و ترض جوع ممتاز استعمال👍</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2014,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>افضل طريق واسرع طريق لاختيار مطعم مناسب وكل لذيذ</t>
+          <t>ممتاز طريق واسرع طريق لاختيار مطعم مناسب وكل لذيذ</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2024,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>صراح جدا راءع سريع توصيل طلبا</t>
+          <t>صراح جدا راءع ممتاز في توصيل طلبا</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2054,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>تطبيق راءع قاءمه ازدياد شكر لقاءم عل تطبيق</t>
+          <t>تطبيق راءع و قاءمه في ازدياد ممتاز لقاءم عل تطبيق</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2064,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>صراح مطاعم مدين عرعر كثير مكدونالدز هرف هواء يرو واح شمال والبست لاز وقم بست يتس هت كثير ماتنعد اصابع موب حاطين مدن دوت كوم يعن مايصلح وال ارجو انكم تحطون وال احي نكون جيعان وال ايذ تبغو تساعد حطو مدين عرعر بعد ترا سكاك اصغر عرعر حاط ليش ظلم ارجو منكم انكم تحطون 😥😭</t>
+          <t>صراح مطاعم مدين عرعر كثير منه مكدونالدز هرف هواء يرو واح شمال والبست لاز وقم بست يتس هت كثير ماتنعد ع اصابع موب حاطين مع مدن دوت كوم يعن مايصلح وال ارجو انكم تحطون وال احي نكون جيعان وال ايذ تبغو تساعد بس حطو مدين عرعر بعد ترا سكاك اصغر من عرعر حاط ليش ظلم ارجو منكم انكم تحطون 😥😭</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2084,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>طلب اكل اصبح امتع تطبيق😉</t>
+          <t>طلب اكل اصبح امتع مع هذا تطبيق😉</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2094,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>فاشل انصح عدم تنزيل</t>
+          <t>زفت انصح عدم تنزيل</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2124,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>خدم متاز جود منتج والتوصيل والتغليف عمال ديليفر قمه ادب والاخلاق</t>
+          <t>خدم متاز من حيث جود منتج والتوصيل والتغليف عمال ديليفر قمه في ادب والاخلاق</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2134,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>مش عارف ادخل عل تطبيق خالص قال فتر احل ادخل رقم تلفون يقول بعت رسالهبالباسورد مفيش حاج تيج</t>
+          <t>مش عارف ادخل عل تطبيق خالص قال فتر و كل ما ممتاز ادخل رقم تلفون يقول بعت رسالهبالباسورد زفت حاج تيج</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2164,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>جميل ميسر لجميع</t>
+          <t>ممتاز ميسر لجميع</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2174,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>افضل خدم ال اتعامل معا</t>
+          <t>من ممتاز خدم ال اتعامل معا</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2184,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>طلب مطعم طلبا ماجاب طلب واتصل علي بلغ ماشف شي 😤💔 حرام انا جوعان</t>
+          <t>طلب من مطعم من طلبا ماجاب لي طلب واتصل علي بلغ ماشف شي 😤💔 حرام انا جوعان</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2194,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>رنامج يفيد ماكو عراق ارجو تصحيح خطا</t>
+          <t>رنامج ما يفيد ماكو عراق ارجو تصحيح خطا</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2214,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>جميل حاج محترم بجد مشكل انو مفهوش لغه عرب</t>
+          <t>ممتاز حاج محترم بجد بس في زفت انو مفهوش لغه عرب</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2224,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>حلو خدمه سيء</t>
+          <t>ممتاز بس خدمه سيء</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2234,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>نصبين ستغل الكب</t>
+          <t>زفتين ستغل الكب</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2254,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>لقد كان تجرب سيء لغا تحتال عل ناس تحضر طلب خاطءه وان شركه وحيده دب لاتمل رقم تلفون خدم عملاء حال حصل اي خطا يمك مراجع تعقد امور حيث تقصد تعجيز عميل تكشف قريب عل حقيق يلفظ مجتمع دب راق لان حفن محتال</t>
+          <t>لقد كان تجرب سيء لغا تحتال عل ناس تحضر طلب خاطءه وان شركه وحيده في دب لاتمل رقم تلفون خدم عملاء في حال حصل اي خطا يمك مراجع بل تعقد امور حيث تقصد تعجيز عميل سوف تكشف قريب عل حقيق يلفظ مجتمع دب راق لان حفن من محتال</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2264,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>حلو وال</t>
+          <t>ممتاز وال</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2284,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>لاد وخه تطبيق مش مفهوم</t>
+          <t>يا لاد وخه تطبيق مش مفهوم</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2294,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>معقد طلب ايميل غير</t>
+          <t>معقد في طلب ايميل غير ه</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2314,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>نظام فاشل والسيس تاع يقع كتير وكل شوي مبيرضاش يدخل رنامج فاشل</t>
+          <t>نظام زفت والسيس تاع يقع كتير وكل شوي مبيرضاش يدخل رنامج زفت</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2324,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>مش عارف اتعامل تطبيق فدو طريق متاح</t>
+          <t>مش عارف اتعامل مع تطبيق فدو طريق غير متاح</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2334,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>يتم تحميل برنامج تثبيت يحدث خل يعط كود 910</t>
+          <t>يتم تحميل برنامج ثم عند تثبيت يحدث خل يعط كود 910</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2354,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>انت ليه توصل وش حته دي شارع ابراهيم عبد قادر منش مصر دي رامج توصيل ثانيه توصل انتم رنامج مش كويس</t>
+          <t>انت ليه ما توصل وش في حته دي شارع ابراهيم عبد قادر منش مصر دي رامج توصيل ثانيه توصل انتم رنامج مش ممتاز</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2374,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>جميل جدن جدن جدن انا اعط 20 نجم</t>
+          <t>ممتاز جدن جدن جدن انا اعط 20 نجم</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2384,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>اسو خدم عل اطلاق ، انتظر شارع لاكثر ساع نصف</t>
+          <t>اسو خدم عل اطلاق ، انتظر في شارع لاكثر من ساع نصف</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2394,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>معمله تطبيق صعب علم بان استخدم شبك اخر اسهل</t>
+          <t>معمله مع هذا تطبيق زفت علم بان استخدم في شبك اخر اممتاز</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2404,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>حلو 😌👌</t>
+          <t>ممتاز 😌👌</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2414,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>شي جميل صراح وفر عل زحم طريق والموقف مطاعم جد شي راءع اشكر عل فكره اله يوفق</t>
+          <t>شي ممتاز صراح وفر عل زحم طريق والموقف عند مطاعم جد شي راءع اممتاز عل فكره هذ اله يوفق</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2424,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>موقع يعن متاز</t>
+          <t>هذا موقع يعن متاز</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2434,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>متاز تعب كتير علشان اروح لمحط</t>
+          <t>متاز بس تعب كتير علشان اروح لمحط</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2444,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>افضل تطبيق</t>
+          <t>ممتاز تطبيق</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2454,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>دي شرك فاشل مشاكل كتير مفيش مسءل اصل استاهل ربع نجم</t>
+          <t>دي شرك زفت فيه مشاكل كتير وزف مسءل اصل ولا استاهل ربع نجم</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2474,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>صراح خدم جدا جميل سريع</t>
+          <t>صراح خدم جدا ممتاز ممتاز</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2484,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>نو جميل جدا اول احل كتير طلبا نحنا زعلان منكوم 😞</t>
+          <t>ما نو ممتاز جدا كان اول ممتاز كتير و طلبا نحنا زعلان منكوم 😞</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2504,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>لماذ فتح عند تطبيق بد حل اسرع وقت</t>
+          <t>لماذ ما فتح عند تطبيق بد حل في اسرع وقت</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2514,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>اختبر</t>
+          <t>لم اختبر بعد</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2554,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>مش شغال موقع ال انا كمان مهندس واكتوبر مش يود ليه متعملوش اعلان وانت مش كلام</t>
+          <t>مش شغال ف موقع ال انا فيه كمان مهندس واكتوبر مش يود ليه لي متعملوش اعلان وانت مش قد كلام</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2564,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>تطبيق لايعمل جوال samsung note 21</t>
+          <t>تطبيق لايعمل في جوال samsung note 21</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2574,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>يحتاوج وصف اكثر راءع</t>
+          <t>لا يحتاوج وصف اكثر من راءع</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2594,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>تم خصم مبلغ اضاف توصيل رغم انه طلب توصيل مجا تواصل معهم اي رد</t>
+          <t>تم خصم مبلغ اضاف عند توصيل رغم انه كان طلب توصيل مجا تواصل معهم وما في اي رد</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2604,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>تاخر عل طلبات اكثر مره يستاهل تجرب اكل يوصل بارد تم غاء اكثر طلب</t>
+          <t>تاخر عل طلبات اكثر من مره ما يستاهل تجرب و اكل يوصل بارد و تم غاء اكثر من طلب</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2614,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>تطبيق 1توصيل سريع 2فيل شي 3ميز احل تطبيق</t>
+          <t>هذا تطبيق 1توصيل ممتاز 2فيل كل شي 3ميز احل من كل تطبيق</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2624,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>راءع سريع</t>
+          <t>راءع ممتاز</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2664,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>جميل جرب</t>
+          <t>ممتاز بس ما جرب</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2674,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>متاز تسمع ال يقول خايس طلب وايد حلو</t>
+          <t>متاز لا تسمع ال يقول خايس طلب منه وايد ممتاز</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2684,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>بكل اختصار جوعان ادخل اطلب 30 دقيق انت شبعان</t>
+          <t>بكل اختصار جوعان ادخل اطلب بعد 30 دقيق انت شبعان</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2694,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>سوي شيء لاهير املز مشغول جرب مطاعم اخر</t>
+          <t>سوي كل شيء في لاهير املز مشغول جرب مطاعم اخر</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2704,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>اج اطلب يرجع شاشه رءيسيه</t>
+          <t>كل ما اج اطلب يرجع شاشه رءيسيه</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2804,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>سمح حضر تطلب من كود تفعيل ارقام تقول انك ارسل وف حقيقه ترسل الا رقم السر واطلب اعاد ارسال تصر عل انك ارسل يظل وضع مها حاول كود تفعيل تريد ارسال تصر عل انك ارسل لماذ ترد عل اي استفسار رجاء تعاون معنا شكر</t>
+          <t>لو سمح حضر تطلب من كود تفعيل من خمس ارقام تقول انك ارسل وف حقيقه لم ترسل الا رقم السر واطلب اعاد ارسال تصر عل انك ارسل يظل وضع هكذ مها حاول ما هو كود تفعيل الذ لا تريد ارسال تصر عل انك ارسل لماذ لا ترد عل اي استفسار رجاء تعاون معنا ممتاز</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2822,7 +2826,11 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ا</t>
+        </is>
+      </c>
       <c r="B240" t="n">
         <v>2</v>
       </c>
@@ -2830,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>تطبيق مستو تسجيل دخول صعب متعب والاسعار مبالغ انصح تحميل</t>
+          <t>تطبيق دون مستو تسجيل دخول زفت متعب والاسعار مبالغ بها لا انصح تحميل</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2850,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>متاز وال يعط عافيه عل افكار ذكيه جود خدمه ودق توصيل طرف 👏👌👍</t>
+          <t>متاز وال يعط عافيه عل افكار ذكيه جود خدمه ودق توصيل من طرف غير 👏👌👍</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2870,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>صول طلب سريع جدا✌</t>
+          <t>صول طلب ممتاز جدا✌</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2880,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>اسوء رنامج عل اطلاق خصوم مش شغال انا انصح تنزيل تطبيق</t>
+          <t>زفت رنامج عل اطلاق خصوم مش شغال انا لا انصح تنزيل تطبيق</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2900,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>حلو حلو حلو جدا جدا جدا ☺😊☺😊☺😊</t>
+          <t>ممتاز ممتاز ممتاز جدا جدا جدا ☺😊☺😊☺😊</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2920,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>برنامج جميل سهل اتم توفير اختيارا اكثر لمطاعم لمختلف مناطق هنا مناطق قريب ولك توصل لمنطقت</t>
+          <t>برنامج ممتاز و ممتاز لكن اتم توفير اختيارا اكثر لمطاعم لمختلف مناطق هنا مناطق قريب ولك لا توصل لمنطقت</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2970,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>شكر لخدم واليد سريع عل شكاو والتعامل معه بجد</t>
+          <t>ممتاز لخدم واليد ممتاز عل شكاو والتعامل معه بجد</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3010,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>متاز لاك نتم اضاف مطاعم كويتيه</t>
+          <t>متاز لاك نتم اضاف بعض مطاعم كويتيه</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3020,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>مكن سهول تحديث</t>
+          <t>مكن سهول في تحديث</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3030,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>باين برنامج جميل ميز الف شكر عل عمل عل برنامج جميل</t>
+          <t>باين برنامج ممتاز ميز الف ممتاز لكم عل من عمل عل برنامج ممتاز</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3070,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>الرم والبصل جميل جدالتحس دوره دمويه شكر</t>
+          <t>الرم والبصل ممتاز جدالتحس دوره دمويه ممتاز</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3080,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>متاز سهل علي كثير خاص دخل خدما اخر طعام</t>
+          <t>متاز ممتاز علي كثير خاص دخل خدما اخر غير طعام</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3100,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>انا طلب برنامج ودق عشان اوصفل موقع كان اخلاق ماه كويس وجو نص ساع تاخر طعم لذيذ اقيم برنامج 3نجوم</t>
+          <t>انا طلب من برنامج ودق علي عشان اوصفل موقع كان اخلاق ماه ممتاز وجو بعد نص ساع تاخر بس طعم لذيذ اقيم برنامج بس 3نجوم بس</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3110,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>برنامج مو حلو</t>
+          <t>برنامج مو ممتاز</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3120,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>جميل 87</t>
+          <t>ممتاز 87</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3130,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>امان توصيل مره سريع رخيص</t>
+          <t>امان توصيل مره ممتاز رخيص</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3150,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>تطبيق جيد جدا</t>
+          <t>تطبيق ممتاز جدا</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3160,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>توصيل مره غال اسوء شي تطبيق والباق مره كويس</t>
+          <t>توصيل مره غال زفت شي في تطبيق والباق مره ممتاز</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3170,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>شكرشكر طلبا طلبا</t>
+          <t>ممتازممتاز طلبا ا طلبا</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3190,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>اتم عدم قوع سيستم عدم غاء اوردار وان يكون اكثر مكان لتسوق بيم مار</t>
+          <t>اتم عدم قوع سيستم عدم غاء اوردار وان يكون في اكثر من مكان لتسوق مثل بيم مار</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3200,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>هيكون متاذ حجا كتير نقص بروموكود مجان فين مكان الغه انجليزيه خريطه مش حيو او مش تفاعل موقع باق منافس</t>
+          <t>هو هيكون متاذ بس في حجا كتير نقص بروموكود مجان فين مكان الغه انجليزيه خريطه مش حيو او مش تفاعل مع موقع مثل باق منافس</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3210,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>اسو تجرب حيات عدم مصداق تعامل دليفر مهنين مره خدم عملاء اسو يكون انا اكبر غلط حيات ان اتعامل طلبا نصح اي حد انه ميتعاملش طلبا</t>
+          <t>اسو تجرب في حيات عدم مصداق ف تعامل و دليفر غير مهنين مره و خدم عملاء اسو ما يكون انا اكبر غلط في حيات ان اتعامل مع طلبا نصح اي حد انه ميتعاملش مع طلبا</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3230,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>حلو لازم يكون موجود رقم تليف مطعم كمان مطاعم تان كتير مش موجود</t>
+          <t>ممتاز ولك لازم يكون موجود رقم تليف مطعم كمان في مطاعم تان كتير مش موجود</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3260,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>خدم جيد</t>
+          <t>خدم ممتاز</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3270,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>مكن تخف اعلان يوتيوب لان وال كرهت شي اسم يوتيوب قسم بال انتو يهم الا انفس ؟</t>
+          <t>مكن تخف من اعلان يوتيوب لان وال كرهت شي اسم يوتيوب قسم بال انتو ما يهم الا انفس بس ؟</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -3290,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>اعرف يوم اليل طلب ان شاء اله ينقص طلب يوصل سرع</t>
+          <t>م اعرف كيف يوم اليل طلب ان شاء اله م ينقص طلب يوصل سرع</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3300,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ايه لازم برنامج مش يفتح ايه فكره ان اكبر شرك قابض مجال اتصال مصر يبق عند تطبيق يعمل احترم عملاء شوي</t>
+          <t>ايه لازم برنامج مادام مش يفتح ايه فكره ان اكبر شرك قابض في مجال اتصال في مصر يبق عند تطبيق لا يعمل احترم عملاء شوي</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3320,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>اله يجز خير كتير حلو برنامج نادايم طلب طريق الف شكر</t>
+          <t>اله يجز كل خير كتير ممتاز برنامج نادايم طلب عن طريق الف ممتاز</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3330,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>عدم مصداقيه زمن توصيل طلب</t>
+          <t>عدم مصداقيه في زمن توصيل في كل طلب</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3360,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ماف احل منه😑😜</t>
+          <t>ماف ممتاز منه😑😜</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3370,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>فاشل فاشل فاشل</t>
+          <t>زفت زفت زفت</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3400,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>كود خصم صالح</t>
+          <t>كود خصم غير صالح</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3410,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>تجرب جميل تطبيق متاز</t>
+          <t>تجرب ممتاز تطبيق متاز</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3420,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>يتاخر طلي طلب جلس ساعه ونص وانا است اخير اجه وف وجب ناقص لازم تلاق حل لهذ مشكله مشكل انو يج طلب ناقص وجب</t>
+          <t>يتاخر طلي طلب جلس فوق ساعه ونص وانا است اخير اجه وف وجب ناقص لازم تلاق حل لهذ زفت زفت انو يج طلب ناقص وجب</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3460,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>رنامج متاز جميل شكر</t>
+          <t>رنامج متاز ممتاز ممتاز لكم</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3480,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>يوجد عروض لمدين معان ارد ينم عروض تشمل باق مدن</t>
+          <t>لا يوجد عروض لمدين معان في ارد ينم عروض تشمل باق مدن</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3490,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>تطبيق سء جدا جدا جدا نصاب انصح مطلق</t>
+          <t>تطبيق سء جدا جدا جدا نصاب لا انصح به مطلق</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3510,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>يمكن احل شي ادس راح</t>
+          <t>يمكن ه ممتاز شي ادس راح</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3540,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>تقيم طعام طلب مطاعم يصعب عل اختيار 5 نجوم بسب جود نجمه خامسه اخر شاشه جه يسار، وخذ يسب لاختيار تقيم اقل لجود مقدمه، كذل اختيار نصف نجم صعب، اتم ان يكون اختيار 1 ال 10</t>
+          <t>عند تقيم طعام الذ طلب من مطاعم يزف عل اختيار 5 نجوم بسب جود نجمه خامسه اخر شاشه جه يسار، وخذ يسب لاختيار تقيم اقل لجود مقدمه، كذل اختيار نصف نجم زفت، اتم ان يكون اختيار من 1 ال 10</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3550,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>لاسف تجرب سيء استخدم كود خصم sumer70 ظهر انه تم خصم مبلغ اجمال والدفع نقد ولم كمل تنفيذ طلب مبلغ كامل خصم ان متاكد انه ظهر انه تم تفعيل كود خصم مفيش مصداق</t>
+          <t>لاسف تجرب سيء استخدم كود خصم sumer70 ظهر لي انه تم خصم مبلغ من اجمال والدفع كان نقد ولم كمل تنفيذ طلب رجع مبلغ كامل من غير خصم مع ان متاكد انه ظهر لي انه تم تفعيل كود خصم زفت مصداق</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3570,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>انه تطبيق جيد</t>
+          <t>انه تطبيق ممتاز</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3580,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>تطبيق سيء جدا واصبح يتسغل شهر باستغلال زباء والنصب علي خلال عروض مزيفه تعامل سيء مشاكل تقنيه وانا تم سحب من طاق فيزا مبلغ مال ولم يرجع اسبوع</t>
+          <t>تطبيق سيء جدا واصبح يتسغل شهر باستغلال زباء والزف علي ومن خلال عروض مزيفه تعامل سيء مع مشاكل تقنيه وانا تم سحب من من طاق فيزا مبلغ من مال ولم يرجع لي منذ اسبوع</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3590,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>احل شي اكواد</t>
+          <t>ممتاز شي اكواد</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3640,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>خدم متاز مواعيد مضبوط كاب محترف وعل خلق اله يبار</t>
+          <t>خدم متاز مواعيد مضبوط كاب محترف وعل خلق اله يبار فيه</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -3660,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ليش اكل مو لاش اش يعن عم تنصب علي</t>
+          <t>ليش اكل مو لاش اش يعن عم تزفت علي</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3680,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>خايس مايجيب موقع جاب مواقع موقع</t>
+          <t>خايس مايجيب موقع جاب كل مواقع عدا موقع</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3690,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>برنامج جدا جميل اقيم متاز كمستخدم دول كويت تعاون قاءم عل تطبيق جدا قو وا خل او تاخير طلب اتواصل طلبا لكنسل طلب او يتم تعويض وقد تم تعويض مطعم تاخر عل ساع موعد رفض استلام وثم اتصل عل ادار مطعم واعط طلب مجا واعتذر تاخير ناس ال تكلم تقول يتاخر انتو ناس تطالب بحق مجرد استاء تثبت جدي حديث طاقم مطاعم مشترك مطاعم يخاف سمعه استغل هالنقط لصالح طالب بحق تقصير</t>
+          <t>برنامج جدا ممتاز اقيم متاز كمستخدم من دول كويت تعاون قاءم عل تطبيق جدا قو وا خل او تاخير في طلب اتواصل مع طلبا لكنسل طلب او يتم تعويض وقد تم تعويض من قبل مطعم تاخر عل ساع عن موعد رفض استلام وثم اتصل عل ادار مطعم واعط طلب مجا واعتذر لي عن تاخير ناس ال تكلم تقول يتاخر انتو ناس ما تطالب بحق مجرد استاء ولا تثبت جدي في حديث مع طاقم مطاعم مشترك من مطاعم يخاف ع سمعه استغل هالنقط لصالح طالب بحق لو فيه تقصير</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3730,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>تطبيق جميل اتم وضع خان حال تراجع طلب لاويجد خان شكر</t>
+          <t>تطبيق ممتاز بس اتم وضع خان في حال تراجع عن طلب لاويجد خان ممتاز</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3750,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>راءع جدا افضل موقع لتوصيل خدم</t>
+          <t>راءع جدا ممتاز موقع لتوصيل خدم</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3770,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>انهو اكثر راءع</t>
+          <t>انهو اكثر من راءع</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3780,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>اسوء شرك</t>
+          <t>زفت شرك</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3800,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>حاج تمام مواعيد رحل ال مش تمام</t>
+          <t>كل حاج تمام بس مواعيد رحل هي ال مش تمام</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3820,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>تطبيق مفيد جدا اصبح شي اساس لد عاءل واتم افضل شكر</t>
+          <t>تطبيق مفيد جدا اصبح شي اساس لد عاءل واتم لكم ممتاز ممتاز لكم</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3860,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>فاشل</t>
+          <t>زفت</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3870,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>لسه مجربتش خير انشاء اله تعال</t>
+          <t>لسه مجربتش بس خير انشاء اله تعال</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3880,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>كثير مطاعم ماتلتزم وقت ال تحد وفي وجب صور او تفصيل شكل عام متاز تطبيق يكثر مطاعم زياد افضل</t>
+          <t>فيه كثير مطاعم ماتلتزم وقت ال تحد وفي بعض وجب من صور او تفصيل بس شكل عام متاز تطبيق ولو يكثر مطاعم زياد ممتاز</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3890,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>اسوء تطبيق خدم</t>
+          <t>زفت تطبيق خدم</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3900,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ادخل برامج يطول يقول اعد محاوله انقطع اتصال ان النت عند قو اذ غير رح احذف</t>
+          <t>كل ما ادخل برامج يطول يقول اعد محاوله انقطع اتصال مع ان النت عند قو اذ م غير رح احذف</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3910,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>راجع انفس ظلم كبا طلبا ارد واعيد حقهم فان عمود فقر لشر</t>
+          <t>راجع انفس في ظلم كبا طلبا ارد واعيد لهم حقهم فان عمود فقر لشر</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3920,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>انا ماماع ريد اكتر وهم يقول ادخل رقم بريد الكترون وال احس ان اطلب جوال عل يتز هت او غير مطاعم اناعصب صراح طيب ول معا وش يسوي😤😠</t>
+          <t>انا ماماع ريد اكتر وهم يقول ادخل رقم بريد الكترون وال احس لي ان اطلب بل جوال عل يتز هت او غير من مطاعم اناعصب صراح ممتاز ول ما معا وش يسوي😤😠</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3950,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>روع دايم اجوع اطلب توصيل سريع😍</t>
+          <t>روع دايم لما اجوع اطلب منه توصيل ممتاز😍</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3970,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>عورض يتم رفض</t>
+          <t>بعض عورض يتم رفض</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3980,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>طلبا عجيب يخدم اي وقت</t>
+          <t>طلبا عجيب يخدم في اي وقت</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -4000,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>سهل عمل ياخذ وقت طويل لتوصيل</t>
+          <t>ممتاز عمل ولك ياخذ وقت طويل لتوصيل</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4010,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>انا طلب 6دنانير كويت خصم 3 دنانير لماج اوردر حساب 6 دنانير شلون جذ لازم تنحل مشكله</t>
+          <t>انا طلب بي 6دنانير كويت خصم 3 دنانير بس لماج اوردر حساب 6 دنانير شلون جذ لازم تنحل زفت</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4020,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>تطبيق متاز خدم راءع سريع</t>
+          <t>تطبيق متاز خدم راءع و ممتاز</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4030,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>جميل جدا</t>
+          <t>ممتاز جدا</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4040,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>راءع جدا عروض جميل</t>
+          <t>راءع جدا عروض ممتاز</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4060,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>بار اله مجهود</t>
+          <t>بار اله هذه مجهود</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4080,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>انا ليش قدر اطلب الا مطاعم ال قريب منطقت</t>
+          <t>هو انا ليش ما قدر اطلب الا من مطاعم ال قريب من منطقت</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4090,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>اي مطاعم وا خرابيط ايش اسو مطاعم اذا اعرف ايش وجبه مطلوبه انصح تحميل رنامج zomato يسال وجبه تريد واين توفر يعرض خريط موقع مطاعم قريبه بيت يعرض ارقام هواتف واذ لدي خدم توصيل او اضاف ال تقيم جود مطعم اذا متاز او رديء استطيع حفظ قاءم مطاعم مفضله لدي قومو تحميل رنامج zomato سريع خفيف عل جوال ودع سخافا طلبا</t>
+          <t>اي مطاعم وا خرابيط ايش اسو مطاعم اذا ما اعرف ايش وجبه مطلوبه انصح تحميل رنامج zomato يسال ما وجبه الت تريد واين توفر يعرض لك خريط موقع مطاعم قريبه من بيت يعرض لك ارقام هواتف واذ لدي خدم توصيل او لا اضاف ال تقيم جود مطعم اذا متاز او رديء استطيع حفظ قاءم مطاعم مفضله لدي قومو تحميل رنامج zomato ممتاز خفيف عل جوال ودع من سخافا طلبا</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4100,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>تطبيق حلو</t>
+          <t>هذا تطبيق ممتاز</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -4110,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>برنامج حلو جدا مفيد ولا مشكله ان مطاعم حلو جدا برا مش موجود لاسف اتم تحط</t>
+          <t>برنامج ممتاز جدا مفيد ولا زفت ان في مطاعم ممتاز جدا برا بس مش موجود لاسف اتم تحط</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4120,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>طريق ال قترح تسون بتف ازم تفضيف طلب وكيش يعن ارسل موقع حق احس اوصفل</t>
+          <t>طريق ال قترح لو تسون بتف ازم تفضيف مع كل طلب وكيش يعن ارسل موقع حق احس من اوصفل</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -4130,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>احد يطلب طلبا يوصل الكل شفت يتفل عل الكل</t>
+          <t>لا احد يطلب من طلبا قبل ما يوصل الكل شفت يتفل عل الكل</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4140,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ادار زبال سرسر سواق كلهم وال نصح تجرب</t>
+          <t>ادار زبال سرسر سواق كلهم وال ما نصح تجرب</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4150,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>روع تقدر تحد المك مطعم واطلب وجبه ال ابي وثم راءع</t>
+          <t>روع تقدر تحد المك و مطعم واطلب وجبه ال ابي وثم راءع</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4160,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>سيء تعامل عل حل مشاكل يقوم بحل اي مشكل نهاءي يوجد لدي ارقام هواتف لتواصل معهم شرح مشكله انم عبر تواصل طريق محادث دردش والنتيج داءم جدو</t>
+          <t>سيء في تعامل عل حل مشاكل لا يقوم بحل اي زفت نهاءي ولا يوجد لدي ارقام هواتف لتواصل معهم شرح زفت انم عبر تواصل عن طريق محادث دردش والنتيج داءم دون جدو</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4180,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>خدم لاءق تمام</t>
+          <t>خدم غير لاءق تمام</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4190,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>احي طلب لاتصل طلب ارجو ان تكون جه محكم طريق سوق كوم</t>
+          <t>احي طلب لاتصل كما طلب ارجو ان تكون جه محكم مثل طريق سوق كوم</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4200,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>نظام رسوم توصيل جديد سيء جدا طلبا متميز بان استغلال خدم مقابل قيم عادل لجميع اطراف الان ساطلب مطاعم مباشر دون اي سطاء واصبح طلبا كغير تطبيقا توصيل</t>
+          <t>نظام رسوم توصيل جديد سيء جدا طلبا كان متميز بان غير استغلال خدم مقابل قيم عادل لجميع اطراف الان ساطلب من مطاعم مباشر دون اي سطاء واصبح طلبا كغير من تطبيقا توصيل</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4210,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>رنامج مخادع وضع قسيمه يقول تم خصم بعد تاكيد طلب يشيل خصم زبال فاشل بعد تواصل خدم عملاء يقول يوضح امام خصم</t>
+          <t>رنامج مخادع عند وضع قسيمه يقول تم خصم بعد تاكيد طلب يشيل خصم زبال وزف بعد تواصل مع خدم عملاء يقول لم يوضح امام خصم</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4220,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ضيفو عود ماكدونالدز</t>
+          <t>ضيفو في عود ماكدونالدز</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4230,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ال يقول يوصل متاخر شوضع ؟ يعن احمد ربكم لقيت يوصل اكل باب بيت</t>
+          <t>ال يقول يوصل متاخر شوضع ؟ يعن احمد ربكم لقيت من يوصل اكل عند باب بيت</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4240,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>تطبيق يجن</t>
+          <t>تطبيق ممتاز</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4250,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>شوي يطلب تحديث</t>
+          <t>كل شوي يطلب تحديث</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4280,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>موقع معف طلب يتاخر اكثر ساعت 👎</t>
+          <t>موقع معف طلب يتاخر اكثر من ساعت 👎</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4300,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>متاز سهل كتير علي</t>
+          <t>متاز ممتاز كتير علي</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4310,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>برنامج مره حلو اتم تضيف دول عراق</t>
+          <t>برنامج مره ممتاز بس اتم تضيف دول عراق</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -4330,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>يحتاج تعديل صور لاطعم بعض لاتفتح بعض مطاعم قريبه لاتطلع فالتطبيق</t>
+          <t>يحتاج بعض تعديل مثل صور لاطعم بعض لاتفتح بعض مطاعم قريبه لاتطلع فالتطبيق</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4340,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ليه عامل برومو تاع تطبيق شخص ميت عل نفس واي موسيق كءيبه ال منزل دي</t>
+          <t>هو ليه عامل برومو تاع تطبيق شخص ميت عل نفس واي موسيق كءيبه ال منزل دي</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4350,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>فاشل استحق نجم</t>
+          <t>زفت ما استحق و لا نجم</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4360,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>رمز يوصل نمو جوع</t>
+          <t>رمز ما يوصل نمو جوع</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4370,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>احتاج</t>
+          <t>احتاج له كثير</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4400,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>افضل رامج شراء وال عظيم</t>
+          <t>ممتاز رامج شراء وال عظيم</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4410,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>نظام متاز ايه ملاحظا حت الان</t>
+          <t>نظام متاز ليس علي ايه ملاحظا حت الان</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4420,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>تجرب فاشل يخرب بيت تطبيق خايس ساعا انتظر طلب ماتستحق حت نص نجم</t>
+          <t>تجرب زفت يخرب بيت تطبيق خايس ثلاث ساعا انتظر طلب ماتستحق ولا حت نص نجم</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4430,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>زفت يشتغل ليش انه حطي نجم عشان اعلق وبس ارجو حل مشكله😊</t>
+          <t>زفت ولا يشتغل ليش انه حطي نجم عشان اعلق وبس ارجو حل زفت😊</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4440,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>اكثر راءع</t>
+          <t>اكثر من راءع</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4450,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>افضل رنامج عالمي</t>
+          <t>ممتاز رنامج عالمي</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4480,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>مبالغ اسعار تطبيق افضل ال اسوء خسار</t>
+          <t>مبالغ في اسعار تطبيق كان من ممتاز ال زفت يا خسار</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4490,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>اتم ان تفتح تطبيق عراق قريب انشال</t>
+          <t>اتم ان تفتح هذا تطبيق في عراق قريب انشال</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4520,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>جميل جدا توصيل سريع سامر حكم</t>
+          <t>ممتاز جدا توصيل ممتاز سامر حكم</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4530,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ادخل تطبيق اضطر اغير الغه انجليز لعرب واذ ضغط عل ثلاث نقاط يطلع تطبيق اتعب</t>
+          <t>كل ما ادخل تطبيق اضطر اغير الغه من انجليز لعرب واذ ضغط عل ثلاث نقاط فوق يطلع من تطبيق اتعب</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -4540,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>جميل</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -4550,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>وال خيار تان صراح مره صار حادث واشتكي اخد حق شو نسو مش مستاهل باس</t>
+          <t>وال ما في خيار تان بس صراح مره صار حادث واشتكي ولا اخد حق بس شو نسو مش مستاهل ولك لا باس به</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -4560,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>انا قال شهر مش عارف افتح محفظه عل برنامج، شاش موافقه عل شروط مش لاق تخط او موافق عشان ادخل لمحفظه، استني تحديث لبرنامج يحل مشكله مفيش حل</t>
+          <t>انا قال شهر مش عارف افتح محفظه من عل برنامج، شاش موافقه عل شروط مش لاق فيه تخط او موافق عشان ادخل لمحفظه، و استني تحديث لبرنامج يحل زفت و زفت حل</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4580,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>برنامج اكثر راءع استاهل 5 نجوم</t>
+          <t>برنامج اكثر من راءع استاهل 5 نجوم</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4590,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>راءع يكف انهم قلد عالم عرب فاصبح انت صاحب رياده</t>
+          <t>راءع يكف انهم قلد في عالم عرب فاصبح انت صاحب رياده</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4600,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>انا جرب</t>
+          <t>انا ليس ما جرب</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4630,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>رنامج جميل نوع تنزل الحد ادن لان ناس وانا منهم ابغ اطلب طلب فرد</t>
+          <t>رنامج ممتاز نوع ما لكن لو تنزل من الحد ادن لان بعض ناس وانا منهم ابغ اطلب طلب فرد</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4640,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>شباب ياخذ حق توصل تكفون جاوب</t>
+          <t>شباب كم ياخذ حق توصل تكفون جاوب</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4700,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>فاشل نسبه بقال</t>
+          <t>زفت نسبه بقال</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4730,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>يوتيفول</t>
+          <t>واو يوتيفول</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4760,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>لاسف انا مقيم كده لان مفيش توصيل لمحافظ قليوبيه خصوص خانكه اتم تصلح مشكله دي اقرب وقت لان النا ساك قليوبيه تحديد خانكه</t>
+          <t>لاسف انا مقيم كده لان زفت توصيل لمحافظ قليوبيه خصوص خانكه اتم تصلح زفت دي في اقرب وقت لان النا ساك في قليوبيه تحديد في خانكه</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4790,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>مابيوصلش الا اماك راقيه</t>
+          <t>مابيوصلش الا في اماك راقيه</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -4800,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>تطبيق يدعم توصيل الا لام محدود</t>
+          <t>تطبيق لا يدعم توصيل الا لام محدود</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -4820,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>متاز اهم شي يتاخر طلب</t>
+          <t>متاز بس اهم شي لا يتاخر طلب</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4830,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>تطبيق تعبان يمك فتح ،وقد ازل تلف</t>
+          <t>تطبيق تعبان لا يمك فتح ،وقد ازل من تلف</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4850,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>راءع تشكيل واسع مطاعم والاختيارا وايد حلو طريق تصميم تطبيق سهل سيط جد الف شكر BeBeAlshamari</t>
+          <t>راءع تشكيل واسع من مطاعم والاختيارا وايد ممتاز طريق تصميم تطبيق ممتاز سيط جد الف ممتاز BeBeAlshamari</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4860,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>مره كويس</t>
+          <t>مره ممتاز</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4870,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>سار خدم زفت وكم مره تم خصم لوس طاق بنك دون تنفيذ طلب والغ رقم ماتقدر تصل علي تقدر توصل حت رسايل فقط لطلب حال انصح جميع بحث توصيل غير سار تطبيق مزعج جدا كثير مشاكل</t>
+          <t>سار خدم زفت وكم مره تم خصم لوس من طاق بنك دون تنفيذ طلب والغ رقم ماتقدر تصل علي ولا تقدر توصل حت رسايل فقط لطلب حال انصح جميع بحث عن توصيل غير سار تطبيق مزعج جدا كثير مشاكل</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4900,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>تطبيق متاز 👍😍 يعط افضل اسعار والعروض</t>
+          <t>تطبيق متاز 👍😍 يعط ممتاز اسعار والعروض</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4920,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>برنامج عموم فكر حلوهل عيب لايوجد مثل مطعم مرغوب لدي</t>
+          <t>برنامج عموم فكر ممتازهل عيب فيه لايوجد مثل مطعم مرغوب لدي</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -4930,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>مره حلو</t>
+          <t>مره ممتاز</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4940,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>جميل احي توصل وجب بارد</t>
+          <t>ممتاز بس احي توصل وجب بارد</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4990,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>راءع متاز</t>
+          <t>راءع و متاز</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5010,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>متاز مناطق موجود بحث خيارا مطاعم لاقرب موقع محدود</t>
+          <t>متاز لكن بعض مناطق غير موجود في بحث خيارا مطاعم لاقرب موقع منه محدود</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5020,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>اكل طيب</t>
+          <t>اكل ممتاز</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5040,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>سواق زي زفت اتصل بيه يقول هانوفيل لانو متاهر معاد فضل مستني نص ساع اخر اتصل بيه تان اقيه وسب كمان ضاف علي فلوس ابن حرام</t>
+          <t>سواق زي زفت واحد اتصل بيه يقول في هانوفيل لانو كان متاهر عن معاد فضل مستني نص ساع في اخر اتصل بيه تان اقيه عدا وسب كمان ضاف علي فلوس ابن حرام</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5070,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>سهل استعمال سريع مطاعم جديد اسبوع</t>
+          <t>ممتاز استعمال ممتاز مطاعم جديد كل اسبوع</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -5110,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>موعيد مش مضبوط كاب يتاخر بجد حاج مش حلو خالص</t>
+          <t>موعيد مش مضبوط و كاب يتاخر و بجد حاج مش ممتاز خالص</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -5120,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>اول رساله مش تبع ثاني تطبيق خره وشو عبط ال عملينوه✋</t>
+          <t>اول رساله مش تبع ثاني تطبيق خره وشو عبط هم ال عملينوه✋</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5130,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>انصح تحميل هاذ برنامج فاشل</t>
+          <t>لا انصح تحميل هاذ برنامج زفت</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -5140,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>احيان يج اكل بارد اتم تنتبه لهل شي</t>
+          <t>بس احيان يج اكل بارد اتم تنتبه لهل شي</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -5160,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>تطبيق حلو سهل مره</t>
+          <t>تطبيق ممتاز ممتاز مره</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -5170,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>جدا جميل</t>
+          <t>جدا ممتاز</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5180,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>تزام مواعيد مفيش تاخير</t>
+          <t>تزام مواعيد زفت تاخير</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -5200,7 +5208,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>حبيب عم الحج والعمر اله ركا حال قلب انت وال اعرف ايش اقول</t>
+          <t>حبيب يا عم الحج والعمر اله ركا كيف حال يا قلب انت وال ما اعرف ايش اقول بس</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -5220,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>مايستاهل نجم ماف اي احترام لمواعيد خصوص مازاد رسوم عل اساس انت طالب ب30 يطلع حساب 3 و6 انت هن تكون مضطر تدفع 34 لان مستحيل يرجع 34 حركا فوق كله يطرش سايق دون فكه يعن حساب طلع 68 يقول ماف درهم وان ساك اخر طابق حين تقعد تنتضر فكه تاكل يعن قوسين تخل درهم باق وهذ كله صوب والحر جديده ال ساعه فلانيه ال ساعه فلانيه وكل شو وقت يزيد يزيد ماتقدر تلغ طلب ماف خيار غاء</t>
+          <t>مايستاهل ولا نجم ماف اي احترام لمواعيد خصوص بعد مازاد رسوم عل اساس انت طالب ب30 درهم يطلع حساب 3 و6 فلس انت هن تكون مضطر تدفع 34 لان مستحيل يرجع لك 34 فلس ه حركا فوق هذا كله يطرش لك سايق دون فكه يعن حساب طلع 68 يقول ماف درهم وان ساك اخر طابق حين تقعد تنتضر فكه ولا تاكل ه يعن بين قوسين تخل درهم باق وهذ كله صوب والحر جديده ال هي من ساعه فلانيه ال ساعه فلانيه وكل شو وقت يزيد يزيد ماتقدر تلغ طلب ماف خيار غاء</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5230,7 +5238,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>مواعيد مش مظبوط ان باص مريح تكيف تعمل</t>
+          <t>مواعيد مش مظبوط غير ان باص غير مريح و تكيف لا تعمل</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -5240,7 +5248,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>حلو جدا</t>
+          <t>ممتاز جدا</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -5250,7 +5258,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>نصاب احتيال شخص طلب وصل ناقص بعث فاتور عل ايميل تختلف يل موجود عل تطبيق توصيل عل فاتوره وصل طلب حاسب حرام نصاب تطلب بقاله منهم طلب حاسب عنه يصل باق اغراض نجم استحق حسب اله نعم وكيل يهم</t>
+          <t>نصاب و زفت شخص طلب وصل ناقص بعث فاتور عل ايميل تختلف عن يل موجود عل تطبيق و كان توصيل عل فاتوره دينار و لما وصل طلب حاسب دينار ين حرام و نصاب لا تطلب بقاله منهم و طلب حاسب عنه و لم يصل مع باق اغراض ولا نجم استحق حسب اله نعم وكيل يهم</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -5260,7 +5268,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>سمحت طلب تاخر ماج اف😭💔</t>
+          <t>لو سمحت طلب تاخر ماج اف😭💔</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5280,7 +5288,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>سلام علي يوجد خدم طوصيل دفع بطاقه مال صراف او لازم كاش</t>
+          <t>سلام علي هل يوجد مع خدم طوصيل دفع بي بطاقه مال صراف او لازم كاش</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -5290,7 +5298,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>شي اسم فطر تايلند مستورد شلت كثير اشياء شلت مره كره طلبا مار طلبا نفس ليت ترجع منتج ال حذفت</t>
+          <t>في شي كان اسم فطر تايلند مستورد و شلت و كثير اشياء شلت مره كره طلبا مار و طلبا نفس ليت ترجع منتج ال حذفت</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -5310,7 +5318,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>انا اشكر طلبا عل خدما لوط عرب</t>
+          <t>انا اممتاز طلبا عل خدما لوط عرب</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -5320,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>يوجد خط تجمع اول حت شركه سعوديه عبور؟ ارجو الرد</t>
+          <t>هل يوجد خط من تجمع اول حت شركه سعوديه عبور؟ ارجو الرد</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5330,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>لماذ يوجد رحلا كاف عل مدار يوم يوجد روموكود مثلم اول</t>
+          <t>لماذ لا يوجد رحلا كاف عل مدار يوم ولا يوجد روموكود مثلم اول</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -5340,7 +5348,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>روع جميل جدا شكر عل تطبيق💗</t>
+          <t>روع ممتاز جدا ممتاز عل تطبيق💗</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5350,7 +5358,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>شكر جزيل عل برنامج حلو ❤👍</t>
+          <t>ممتاز جزيل عل برنامج ممتاز ❤👍</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -5370,7 +5378,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>جميل واكل نضيف</t>
+          <t>ممتاز واكل نضيف</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -5380,7 +5388,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>حلو يتحول اجلز</t>
+          <t>ممتاز بس يتحول اجلز</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -5390,7 +5398,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>كليوم اطلب انه نفع كثير</t>
+          <t>كليوم اطلب بما انه نفع كثير</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -5410,7 +5418,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>خايس يفتح عند ارج لاتنزل</t>
+          <t>خايس س ما يفتح عند علق ارج لاتنزل</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -5430,7 +5438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>سواق متاز عربيا جدا حلو</t>
+          <t>سواق متاز عربيا جدا ممتاز</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5440,7 +5448,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>جميل متاز</t>
+          <t>ممتاز متاز</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -5450,7 +5458,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>صدفه افتح ابليكش الاق مدي بتم رحله ال سواق قذر ساب شارع ساعه 1 ليل شارع وانا مسافر مطروح شركه حت اعتذر عايز ياخد لوس تمن حرق الدم تمن قله ذوق خدمه متازه ياجماع سرقه علن دي اخر ايه شوي حراميه نصاب ال ملهومش كبير دول Swvl انا مسح ابليكش اصل وحت مش هفكر مجرد تفكير تان استعمل رجاء ناس متشجعش حراميه واركب حاج تان ديل</t>
+          <t>صدفه افتح ابليكش الاق مدي بتم رحله ال سواق قذر ساب ف شارع ساعه 1 ليل ف شارع وانا مسافر مطروح ولا شركه حت اعتذر عايز ياخد لوس تمن حرق الدم تمن قله ذوق ولا خدمه متازه ياجماع سرقه علن دي اخر ايه مع شوي حراميه نصاب ال ملهومش كبير دول Swvl انا مسح ابليكش اصل وحت مش هفكر مجرد تفكير تان استعمل بس رجاء من ناس متشجعش حراميه واركب حاج تان ديل</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5460,7 +5468,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>فاشل حت الان ال ان يتم تحسين</t>
+          <t>زفت حت الان ال ان يتم تحسين</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -5480,7 +5488,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>اطيب مطعم اكل داءم يوصل مطلوب وانا قول اي شخص بدو يطلب نسبه لعند وجب سريعه نصح بهل مطعم راءع والميز</t>
+          <t>اممتاز مطعم اكل داءم يوصل حسب مطلوب وانا قول اي شخص بدو يطلب نسبه لعند وجب ممتازه نصح بهل مطعم راءع والميز</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -5510,7 +5518,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>مطاعم ال موفر قليل مدينت مدين عنيز ماف الا مطاعم اما هنقرستيش عنيز موفر مطعم ان ال محمل تطبيق مليون شخص اما هنقرستيش فقط خمسمء الف لكن مجتهد اكثر منكم</t>
+          <t>مطاعم ال موفر قليل مدينت مدين عنيز ماف الا ست مطاعم اما هنقرستيش عنيز موفر عشرين مطعم مع ان ال محمل تطبيق مليون شخص اما في هنقرستيش فقط خمسمء الف لكن مجتهد اكثر منكم</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -5520,7 +5528,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>كثير مطاعم ماتوصل منطق فقط مطاعم نفس منطق يعن فاءد</t>
+          <t>كثير مطاعم ماتوصل منطق فقط مطاعم نفس منطق يعن ما منه فاءد</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -5530,7 +5538,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>تطبيق متاز جدا جدا جدا واكتر رالءع</t>
+          <t>تطبيق متاز جدا جدا جدا واكتر من رالءع</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -5560,7 +5568,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>فعل كويس حاول تسرع وقت</t>
+          <t>فعل ممتاز بس حاول تسرع في وقت</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -5580,7 +5588,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>سالب خمس نجوم بحط 7 مرا اطلب اسنتا اكثر 3ساعا وكل شوي يقول طلب تكنسل نصيح حمل اي تطبيق تحمل طلبا 😡</t>
+          <t>لو كان في سالب خمس نجوم بحط فوق 7 مرا اطلب اسنتا اكثر من 3ساعا وكل شوي يقول طلب تكنسل نصيح حمل اي تطبيق ولا تحمل طلبا 😡</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5600,7 +5608,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>تطبيق زبال اخلاق زفت منهم خدم سيء اخلاق دعم الفن جدا سيء انصح كرج</t>
+          <t>تطبيق من زبال اخلاق زفت منهم خدم سيء و اخلاق دعم الفن جدا سيء انصح كرج</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -5620,7 +5628,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>تطبيق راءع جدا،سهل تعامل معه ،ومتاز ازم</t>
+          <t>تطبيق راءع جدا،ممتاز تعامل معه ،ومتاز ازم</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -5650,7 +5658,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>خراف الحد ادن لطلبا يكون جد احس واحس كمان شغل زيد مطاعم شكر</t>
+          <t>خراف بس لو ما في الحد ادن لطلبا يكون عن جد احس واحس و كمان شغل زيد في مطاعم ممتاز</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -5660,7 +5668,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>يل لكبا عادل ، امسح تطبيق</t>
+          <t>يل صار لكبا غير عادل ، سوف امسح تطبيق</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -5690,7 +5698,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>برنامج اكثر جميل راءع يعط عافيه قاءم يالي صور اكل تكون متوفر علشان واحد يعرف شنو يختار</t>
+          <t>برنامج اكثر من ممتاز راءع يعط عافيه قاءم علي بس يالي كل صور اكل تكون متوفر علشان واحد يعرف شنو يختار</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -5700,7 +5708,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>رنامج فاشل مابنصح احد يحمل وهذ نصيح وعن تجرب خصوص دعم عملاء</t>
+          <t>رنامج زفت مابنصح احد يحمل وهذ نصيح وعن تجرب خصوص دعم عملاء</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -5720,7 +5728,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>تطبيق خدم توصيل جيد</t>
+          <t>تطبيق خدم توصيل ممتاز</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -5740,7 +5748,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>لاسف تم تحميل برنامج لاول مره وتم طلب اول مواد وتم احضار مواد عل وقت لاسف جوده عاديه وتم اطعام لعصافير احد مندوب تواصل مع وعن جود اي ملاحظاتوقم باخبار سوء جود منتج كان جواب فقط اعتذارلذلك يتم نجاح تطبيق سعوديه سنوا فشل فشل ذريع عكس تطبيق جاهز خلال نتين رقم سعوديه تعامل جود منتج والمصداق خدم بيع</t>
+          <t>لاسف تم تحميل برنامج لاول مره وتم طلب اول مواد وتم احضار مواد عل وقت ولك لاسف غير جوده عاديه وتم اطعام لعصافير حيث قام احد مندوب تواصل مع وعن جود اي ملاحظاتوقم باخبار عن سوء جود منتج كان جواب فقط اعتذارلذلك لم يتم نجاح تطبيق في سعوديه قبل عشر سنوا فشل فشل ذريع عكس تطبيق جاهز خلال نتين كان رقم واحد في سعوديه من حيث تعامل جود منتج والمصداق خدم ما بعد بيع</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -5770,7 +5778,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>متاز وانا عمل وانا اشكر سو برنامج اعجز وال وان اقول شكر</t>
+          <t>متاز وانا من عمل وانا اممتاز من سو هذا برنامج اعجز وال وان اقول ممتاز</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -5780,7 +5788,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>جيد مره بطل</t>
+          <t>ممتاز مره بطل</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -5800,7 +5808,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>صراح خدم متاز وعل اد ايد توفر وقت مجهود استحق دعم والشكر</t>
+          <t>صراح خدم متاز وعل اد ايد توفر وقت مجهود استحق دعم والممتاز</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -5860,7 +5868,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>رنامج جميل جدا جدا استحق نجما</t>
+          <t>رنامج ممتاز جدا جدا استحق خمس نجما</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -5880,7 +5888,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>حصل مشكل اوردر جه ناقص كمان سعر اعل ال مكتوب ابلكيش خدم عملاء مش يفيد حاج وف اخر اوردر اتلغ تقول بكل ساط اطلب اوردر تان ؟ ود مش اول مره</t>
+          <t>حصل زفت في اوردر و جه ناقص كمان سعر اعل من ال مكتوب في ابلكيش و خدم عملاء مش يفيد حاج وف اخر اوردر اتلغ تقول بكل ساط اطلب اوردر تان ؟ ود مش اول مره</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -5890,7 +5898,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>سلام اصرح تطبيق طلبا يجن جيد نسب واتم يضلون عل مستو</t>
+          <t>سلام اصرح تطبيق طلبا ممتاز و ممتاز نسب لي واتم يضلون عل هذا مستو</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -5910,7 +5918,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>متاز شكر</t>
+          <t>متاز ممتاز لكم</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -5920,7 +5928,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>رنامج اكثر راءع وانصح</t>
+          <t>رنامج اكثر من راءع وانصح به</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -5930,7 +5938,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>صراح زفت حمل تطبيق ومش يفتح خالص مسح حمل مره لاسف مفيش فايد ،لا استحق نجم ،فعل محفظه ومش عارف استخدم</t>
+          <t>صراح زفت حمل تطبيق ومش يفتح خالص مسح حمل كذا مره لكن لاسف زفت فايد ،لا استحق ولا نجم ،فعل محفظه ومش عارف استخدم</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -5970,7 +5978,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>شكر عل تطبيق انه متاز خدم جميع شكر</t>
+          <t>ممتاز عل هذا تطبيق انه متاز و في خدم جميع ممتاز كثير</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -5980,7 +5988,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>توجد منطقه محيطه</t>
+          <t>لا توجد في منطقه محيطه بي</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -5990,7 +5998,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>رقم</t>
+          <t>رقم واحد</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -6010,7 +6018,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>حرم نصاب تصبت غل 6 دنانير ماف طريق لتواصل معكم سيء جدا</t>
+          <t>حرم نصاب تصبت غل ب 6 دنانير ماف طريق لتواصل معكم سيء جدا</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6020,7 +6028,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>شرك طماع تهتم تجار او الزب يوجد متابع احترام انا نادم عل اشتراك معهم ان شاء خلال ايام سيتم تحول تم done</t>
+          <t>شرك طماع و لا تهتم تجار او الزب لا يوجد متابع و لا احترام انا نادم عل اشتراك معهم ان شاء خلال ايام سيتم تحول ل تم done</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -6030,7 +6038,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>حلو</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -6070,7 +6078,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>افضل تطبيق مرت عل</t>
+          <t>من ممتاز تطبيق مرت عل</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -6100,7 +6108,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>احب شغل سريع ساعا باليل يلغون طلب لاسباب ساعا يكون زحم مطعم او مطعم كنسل طلب</t>
+          <t>احب شغل ممتاز بس ساعا باليل يلغون طلب لاسباب ساعا يكون زحم في مطعم او مطعم كنسل طلب</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -6110,7 +6118,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ارق اماك والتصميما تميزه</t>
+          <t>من ارق اماك والتصميما تميزه</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -6120,7 +6128,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>انه جيدجد راءع لخدم</t>
+          <t>انه ممتازجد و راءع في لخدم</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -6140,7 +6148,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>شكر افضل رنامج❤</t>
+          <t>ممتاز ممتاز رنامج❤</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -6150,7 +6158,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ياخ يفك ازما واذ عند رصيد يفزعل مطاعم مب موجود اتم تضيف</t>
+          <t>ياخ يفك من ازما واذ ما عند رصيد يفزعل بس في مطاعم مب موجود اتم تضيف</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -6160,7 +6168,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>طلب لاش</t>
+          <t>ما في لا طلب لاش</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -6170,7 +6178,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>تطبيق بق غاي سوء حصل عند مڜكل اكونت سجل اكون جديد دخل خرج بسب مشكل لتطبيق تم حظر جهاز خدم عملاء تقول خلاص مفيش رفع حظر تطبيق سيء سيء افضل كتير اطلب</t>
+          <t>تطبيق بق غاي ف سوء حصل عند مڜكل ف اكونت سجل اكون جديد دخل خرج بسب زفت من لتطبيق تم حظر جهاز خدم عملاء تقول خلاص زفت رفع حظر تطبيق سيء سيء كان ممتاز كتير وهو اطلب</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -6200,7 +6208,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>رنامج فاشل كله اخط</t>
+          <t>رنامج زفت كله اخط</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -6230,7 +6238,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>يتاخر دقيق</t>
+          <t>ما يتاخر ولا دقيق</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -6240,7 +6248,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>جيد جدا بده شو تعديلا اكثر</t>
+          <t>ممتاز جدا بس بده شو تعديلا اكثر</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -6250,7 +6258,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>وجب مرفق صور وصف كامل</t>
+          <t>بعض وجب غير مرفق صور ولا وصف كامل</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -6270,7 +6278,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>رايع جميل انصح تحميل</t>
+          <t>رايع ممتاز انصح تحميل</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -6280,7 +6288,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>وله ان حبي تطبيق اتم انكم تضيف عل دول عربيه</t>
+          <t>وله ان حبي تطبيق اتم انكم تضيف عل جميع دول عربيه</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -6290,7 +6298,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>تطبيق مش شغال مصر</t>
+          <t>تطبيق مش شغال في مصر</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -6310,7 +6318,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ميح مرا اكل بارد بيج</t>
+          <t>ميح بس مرا اكل بارد بيج</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -6320,7 +6328,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>طاءف اطلب اكل يات موعد حار لذيذ والان انا رجال المع استطيع ان اطلب يوجد فرع</t>
+          <t>في طاءف اطلب منه كان اكل يات في موعد حار لذيذ والان انا في رجال المع لا استطيع ان اطلب منه لا يوجد فرع له هنا</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -6330,7 +6338,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>رنامج راءع</t>
+          <t>رنامج فوق راءع</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -6340,7 +6348,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>تخيل توصيل ساعت وال استحق حتا ربع نجم</t>
+          <t>تخيل توصيل ساعت وال ما استحق حتا ربع نجم</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -6350,7 +6358,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>جيد</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -6370,7 +6378,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>جيدجد</t>
+          <t>ممتازجد</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -6400,7 +6408,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>تكلم محادثه يردون نص ساع ، تسال سءال ، جواب مكر يرد كمبيوتر ، ماف اهتمام لزبون ، والمطاعم دوم تاخر</t>
+          <t>تكلم محادثه يردون علي بعد نص ساع ، تسال سءال ، جواب مكر كان يرد علي كمبيوتر ، ماف اهتمام لزبون ، والمطاعم دوم تاخر</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -6410,7 +6418,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>مواعيد مظبوط باص متاز خدم متاز</t>
+          <t>مواعيد مظبوط و باص متاز و خدم متاز</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -6430,7 +6438,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>تطبيق مش حلو نهاء</t>
+          <t>تطبيق مش ممتاز نهاء</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -6440,7 +6448,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>تجرب سيء موظف توصيل لطج واسلوب سيء تعامل نصاب احذر تعامل معهم انا نصب عل مبلغ 165 وتم حظر حساب احذر منهم</t>
+          <t>تجرب سيء موظف توصيل لطج واسلوب سيء تعامل نصاب احذر من تعامل معهم انا زفت عل مبلغ 165 دينار وتم حظر حساب احذر منهم</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -6460,7 +6468,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>رنامج متاز</t>
+          <t>رنامج فوق متاز</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -6470,7 +6478,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>تطبيق جميل 🥰</t>
+          <t>تطبيق ممتاز 🥰</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -6490,7 +6498,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>بايخ خايس جدا غب</t>
+          <t>زفت خايس جدا غب</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -6500,7 +6508,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>مناسب جوعان ماعند رصيد يكلم</t>
+          <t>مناسب لي جوعان ماعند رصيد يكلم</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -6570,7 +6578,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>فتره اخيره بقت مسافه قاهره اسكندريه والعكس 5 ساعا معظم لف داخل مدينه وانتظار ان كاب معظم بقو تعامل معا صعب عاوز يفرض عل نقط وصول ان حاج ناء علي فكر الغ تطبيق لاسف بقا سء جدا</t>
+          <t>فتره اخيره بقت مسافه من قاهره اسكندريه والعكس 5 ساعا معظم لف داخل مدينه وانتظار غير ان كاب معظم بقو تعامل معا زفت عاوز يفرض عل نقط وصول مع ان حاج ناء علي فكر الغ تطبيق لاسف بقا سء جدا</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -6580,7 +6588,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>اسعار توصيل مبالغ مو معقول توصيل دينار او 80</t>
+          <t>اسعار توصيل مبالغ فيه مو معقول توصيل دينار او 80 فلس</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -6590,7 +6598,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>هاذ برنامج حده عجيب واشكر ال اخترع وا يوصل سرع وقت</t>
+          <t>هاذ برنامج حده عجيب واممتاز ال اخترع وا يوصل سرع وقت</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -6600,7 +6608,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ارغب تعامل معا اعلم اين موقف اتصل لاستفسار خطواط والام والخطوط حت باشتر شهر</t>
+          <t>ارغب في تعامل معا ولك لا اعلم اين موقف كيف اتصل لاستفسار عن كل خطواط والام والخطوط حت باشتر شهر</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -6610,7 +6618,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>تطبيق سيء جدا جدا ماف مطاعم اكم وكل مره يشيل مطعم وكل غال توصيل غال يتاخر طلب</t>
+          <t>تطبيق سيء جدا جدا ماف مطاعم اكم واحد بس وكل مره يشيل مطعم وكل غال توصيل غال يتاخر في طلب</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -6620,7 +6628,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>اجمل نونو</t>
+          <t>اجمل منه نونو</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -6640,7 +6648,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>تطبيق جدا سيء اج اوص كتبل تم حجب حساب</t>
+          <t>تطبيق جدا سيء كل ما اج اوص كتبل تم حجب حساب</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -6660,7 +6668,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>جيدهجد</t>
+          <t>ممتازهجد</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -6670,7 +6678,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>حمل استاهل رهيب اله</t>
+          <t>حمل استاهل رهيب و اله</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -6680,7 +6688,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>مش ينزل خصم خالص</t>
+          <t>مش ينزل خصم خالص لي</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -6690,7 +6698,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>تطبيق جدا راءع حلو احس تطبيق توصيل ارد</t>
+          <t>تطبيق جدا راءع ممتاز احس تطبيق توصيل ارد</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -6710,7 +6718,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>مطاعم تاخذ وقت كثير توصيل بعض يوصل ال مجمعا معين</t>
+          <t>مطاعم تاخذ وقت كثير في توصيل و بعض لا يوصل ال مجمعا معين</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -6730,7 +6738,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>فكو اعلان مشان اله</t>
+          <t>فكو من اعلان مشان اله</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -6740,7 +6748,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>انا احب مطعم مره يجن</t>
+          <t>انا احب هذا مطعم مره ممتاز</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -6750,7 +6758,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>معامل حسن خدم متاز کاب محترف يکف انه يتعامل بکل احترام جميع تحيات لجميع</t>
+          <t>معامل حسن خدم متاز کاب محترف يکف انه يتعامل بکل احترام مع جميع تحيات لجميع</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -6760,7 +6768,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>ايجاب رنامج متاز واكثر راءع ، مفيد جدا لطلب وجب شكل سهل مبسط ، يمك اضاف عده اختيارا عل وجب رغبه ، يغط نسب 85 مناطق قريبه سلب يغط مناطق دول امار شكل كامل ام قيو والفجير راس خيمه شكل عام رنامج متاز مفيد ناجح انصح يتحميل شكر</t>
+          <t>ايجاب رنامج متاز واكثر من راءع ، مفيد جدا لطلب وجب شكل ممتاز مبسط ، يمك اضاف عده اختيارا عل وجب حسب رغبه ، يغط نسب 85 من مناطق قريبه سلب لا يغط جميع مناطق في دول امار شكل كامل مثل ام قيو والفجير راس خيمه شكل عام رنامج متاز مفيد ناجح انصح يتحميل ممتاز</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -6790,7 +6798,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>شرك فاشل حد نتواصل معو مسءل</t>
+          <t>شرك زفت ما في حد نتواصل معو ولا في مسءل</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -6810,7 +6818,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>لسه تجربه</t>
+          <t>لسه تحت تجربه</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -6820,7 +6828,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>انهاسوءتطبيق😈</t>
+          <t>انهزفتتطبيق😈</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -6830,7 +6838,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>صراح احس مشروع نقل جماع مصر اسطول نقل مكيف عل اعل مستو كبا منته ادب والاخلاق والذوق باحاول ادخل تان عند لان محتاج جدا</t>
+          <t>صراح احس مشروع نقل جماع مصر اسطول نقل مكيف عل اعل مستو كبا في منته ادب والاخلاق والذوق باحاول ادخل تان عند لان محتاج جدا</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -6840,7 +6848,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>خدمه سيء تاخر جدا معاد ساع الا ربع كمان موقفش المك قال اتصل علي محدش كلم ولم كلمت قال احجز رحله ال بعد كمان علي مدي 38</t>
+          <t>خدمه سيء تاخر جدا عن معاد ساع الا ربع كمان موقفش ف المك قال اتصل علي محدش كلم ولم كلمت قال احجز رحله ال بعد كمان علي مدي 38 جني</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -6850,7 +6858,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>وصي مره اكل دفع حقو وصل ارجو تبع عملاء والعامل</t>
+          <t>وصي مره ع اكل دفع حقو وما وصل ارجو تبع عملاء والعامل</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -6860,7 +6868,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>حمد عل شيء</t>
+          <t>حمد له عل كل شيء</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -6890,7 +6898,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>حلو ساعا توصيل يتاخر</t>
+          <t>ممتاز بس ساعا توصيل يتاخر</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -6900,7 +6908,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>اشكر اهتمام مصداقي مو هنقريستش مرتين سحب عل وانا ميت جوع</t>
+          <t>اممتاز لكم اهتمام مصداقي مو مثل هنقريستش مرتين سحب عل وانا ميت جوع</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -6910,7 +6918,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>متز حلو</t>
+          <t>متز ممتاز</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -6920,7 +6928,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>دعم عملاء جدا سيء عند اي مشكل انه انت عند مشكل وحل سيط يحل</t>
+          <t>دعم عملاء جدا سيء ما عند اي زفت انه انت عند زفت وحل سيط وما يحل</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -6930,7 +6938,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>تطبيق ضعيف حترم حد شكر</t>
+          <t>تطبيق ضعيف ما حترم حد ممتاز</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -6940,7 +6948,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>روع سريع فعال افضل مشاوير</t>
+          <t>روع ممتاز فعال ممتاز من مشاوير</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -6950,7 +6958,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>راءع</t>
+          <t>فوق راءع</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -6960,7 +6968,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>وال مكسب</t>
+          <t>وال مكسب لنا</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -6970,7 +6978,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>تطبيق غب جدا كمان معمول انجليز ايه غباء ده يعن تطبيق اجنبيه تعر خدمه تاع عشان تقربل وان غباء تطبيق مصر مش عامل خاص عرب ال عمل تطبيق ده شاف اتوبيسا امار دون كمسار زحام عايز يعمل زيه يبق ذكاء اهل عايز تحول فكر خليج او اجنب لمصر يبق تعرب تبسط لناس</t>
+          <t>تطبيق غب جدا كمان معمول انجليز ايه غباء ده يعن تطبيق اجنبيه تعر خدمه تاع عشان تقربل وان غباء تطبيق مصر مش عامل خاص عرب ال عمل تطبيق ده شاف اتوبيسا امار دون كمسار ولا زحام عايز يعمل زيه يبق ذكاء اهل لما عايز تحول فكر من خليج او من اجنب لمصر يبق تعرب تبسط لناس</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -6990,7 +6998,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>اسوء خدم</t>
+          <t>زفت خدم</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -7000,7 +7008,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>تطبيق متاز غريب قليل محمل مفروض عل قليل مليون</t>
+          <t>تطبيق متاز بس غريب قليل محمل مفروض عل قليل مليون</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -7010,7 +7018,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>زي زفت والتوصيل ساع او اتنين</t>
+          <t>زي زفت والتوصيل بعد ساع او اتنين</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -7030,7 +7038,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>افضل رنامج طلبا كويت</t>
+          <t>ممتاز رنامج طلبا كويت</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -7040,7 +7048,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>مانستغ اله يحرم</t>
+          <t>مانستغ اله لا يحرم</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -7050,7 +7058,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>نت بلا حدود مصر</t>
+          <t>نت بلا حدود في مصر</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -7060,7 +7068,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>رنامج يحتاج متابع محلا ال تعاون معا وال شي مصداقيه معدوم</t>
+          <t>رنامج يحتاج متابع مع محلا ال تعاون معا وال شي مصداقيه معدوم</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -7070,7 +7078,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>كود خصم يعمل مع ارجو حل مشكله</t>
+          <t>كود خصم لم يعمل مع ارجو حل زفت</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -7080,7 +7088,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>حسب اله نعم وكيل شرك سويفل</t>
+          <t>حسب اله نعم وكيل في شرك سويفل</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -7090,7 +7098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>تطبيق متاز راءع سهول عثور عل مطاعم واستعراض طلب والاختيار والسرع تجاوب تنفيذ طلب اتم مزيد تطور والتوفيق</t>
+          <t>تطبيق متاز راءع في سهول عثور عل مطاعم واستعراض طلب والاختيار والسرع في تجاوب تنفيذ طلب اتم لكم مزيد من تطور والممتاز</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -7100,7 +7108,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>ات اسجل دخول عل حساب فيس بوك عل طلبا يطلع اعاد تعين كلم مرور وانا اما حطي اصل ارجو حل مشكله ارد</t>
+          <t>لما ات اسجل دخول عل حساب فيس بوك عل طلبا يطلع لي اعاد تعين كلم مرور وانا اما حطي اصل ارجو حل زفت من ارد</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -7110,7 +7118,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>داخل ارد</t>
+          <t>في داخل ارد</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -7120,7 +7128,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>راض تطبيق</t>
+          <t>غير راض عن هذا تطبيق</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -7130,7 +7138,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>تطبيق سيء فجا فصل وان تختار طلب كمان تبدل الغه عربيه لانجليز تلقاء</t>
+          <t>تطبيق سيء فجا فصل وان تختار طلب كمان تبدل الغه من عربيه لانجليز تلقاء</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -7160,7 +7168,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>ياري يبق لغه عرب</t>
+          <t>ياري يبق في لغه عرب</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -7180,7 +7188,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>تطبيق سء يتعامل بجد عروض قساءم وايض يتعامل مكتب</t>
+          <t>تطبيق سء لا يتعامل بجد في عروض و قساءم وايض لا يتعامل مع مكتب</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -7200,7 +7208,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>لسا جربت</t>
+          <t>لسا ما جربت</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -7210,7 +7218,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>تطبيق جيد عمل</t>
+          <t>تطبيق ممتاز عمل</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -7220,7 +7228,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>تطبيق فاشل ليش يوصل منطقت رغم ان مناطق قريب يوصل</t>
+          <t>تطبيق زفت ليش ما يوصل ف منطقت رغم ان هنا مناطق قريب يوصل لها</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -7250,7 +7258,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>راءع قليل</t>
+          <t>راءع قليل علي</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -7270,7 +7278,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>طلب يوصل استمر اله يعط عافيه</t>
+          <t>طلب يوصل حار استمر اله يعط عافيه</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -7280,7 +7288,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>سهل سريع تعامل موظف قمه الرق ارد</t>
+          <t>ممتاز و ممتاز و تعامل موظف في قمه الرق ارد</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -7300,7 +7308,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>شرك نصاب حت تطبيق مش ينزل متستاهلش نجم</t>
+          <t>شرك نصاب و حت تطبيق مش ينزل و متستاهلش ولا نجم</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -7310,7 +7318,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>رنامج جدا حلو</t>
+          <t>رنامج جدا ممتاز</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -7330,7 +7338,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>لاسف خدم سيء جدا ضاع علي لوس كتير محفظه عند</t>
+          <t>لاسف خدم سيء جدا ضاع علي لوس كتير من محفظه عند</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -7340,7 +7348,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>تطبق غشاش ادفع فيزا يسحب قيمه دون خصم مرت مفيش حد يتواصل معاي</t>
+          <t>تطبق غشاش لما ادفع فيزا يسحب قيمه دون خصم مرت وزف حد يتواصل معاي</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -7350,7 +7358,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>انا جيت عزد</t>
+          <t>انا جيت من عزد ه</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -7360,7 +7368,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>مو موجود منطقه ال انا ساك</t>
+          <t>لكن مو موجود منطقه ال انا ساك فيه</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -7380,7 +7388,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>برنامج يخرج لوحد عمل ايه السب</t>
+          <t>برنامج يخرج لوحد بعد كل عمل ايه السب</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -7390,7 +7398,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>يجن</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -7400,7 +7408,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>سيء ياري يبق خط منيب اكتوبر</t>
+          <t>سيء ياري يبق فيه خط منيب اكتوبر</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -7410,7 +7418,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>شء جدا نسبه نطلب يوصل طلب بسب مشاكل تطبيق انصح ابد</t>
+          <t>شء جدا نسبه لي كل ما نطلب ما يوصل طلب بسب مشاكل تطبيق ما انصح فيه ابد</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -7420,7 +7428,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>اسطور شعب</t>
+          <t>اسطور مع شعب</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -7430,7 +7438,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>مره يتاخر اطلب والمر فايته قال يج ساعت ونص</t>
+          <t>مره يتاخر اطلب والمر فايته قال يج بعد ساعت ونص</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -7450,7 +7458,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>طلب يصير تنفيذ طلب يعن لازم يكون اقل شيء سعر 10 دنانير</t>
+          <t>طلب بس ما يصير تنفيذ طلب يعن لازم يكون اقل شيء سعر 10 دنانير</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -7470,7 +7478,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>راءع استخدم يوم تقريب</t>
+          <t>راءع استخدم كل يوم تقريب</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -7490,7 +7498,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>اعل يحجب رءياعل شاش هاتف</t>
+          <t>هذا اعل يحجب رءياعل شاش هاتف</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -7500,7 +7508,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>خصم حقيق</t>
+          <t>خصم غير حقيق</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -7510,7 +7518,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>سهل استعمال شاء اله علي دقيق وقت</t>
+          <t>ممتاز استعمال ممتاز علي دقيق وقت</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -7530,7 +7538,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>تطبيق راءع جميل والتوصيل سريع</t>
+          <t>تطبيق راءع ممتاز والتوصيل ممتاز</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -7550,7 +7558,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>سهل طلب حيل 💗</t>
+          <t>ممتاز طلب حيل 💗</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -7560,7 +7568,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>صراح تطبيق جدا جميل انصح جميع تحميل</t>
+          <t>صراح تطبيق جدا ممتاز و انصح جميع تحميل</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -7590,7 +7598,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>احس تطبيق شامل مطاعم بانواع والحلويا</t>
+          <t>احس تطبيق شامل كل مطاعم بانواع والممتازيا</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -7600,7 +7608,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>جميل جدا جزا اله خير</t>
+          <t>ممتاز جدا جزا اله خير</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -7610,7 +7618,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>افضل طلبا 🥺❤️</t>
+          <t>ممتاز طلبا 🥺❤️</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -7630,7 +7638,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>لان بالغه انجليز لازم يكون بالغه عربيه عشان نعرف نتعامل معا طريق اسهل</t>
+          <t>لان بالغه انجليز لازم يكون بالغه عربيه عشان نعرف نتعامل معا طريق اممتاز</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -7640,7 +7648,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>لان مساعد لجميع اله يوفق يساعد همشكر</t>
+          <t>لان مساعد لجميع اله يوفق يساعد من همممتاز</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -7660,7 +7668,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>احب</t>
+          <t>احب ذلك</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -7670,7 +7678,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>تطبيق متاز مواعيد دقيق تعامل راق شال عنكم يارا نظيف اسعار كتير منيح ان شاء اله تضل هيك طول توفيق لفريق</t>
+          <t>تطبيق متاز و مواعيد دقيق تعامل راق ما شال عنكم و يارا نظيف و اسعار كتير منيح ان شاء اله تضل هيك ع طول ممتاز لفريق</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -7680,7 +7688,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>خدم عملاء سيء جدا طلب مطاعم يتم رفض ولن يتم تعامل معكم مره اخر</t>
+          <t>خدم عملاء سيء جدا و عند طلب من مطاعم يتم رفض ولن يتم تعامل معكم مره اخر</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -7690,7 +7698,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>لدي عروض متاز ذهب 6اكتوبر ال مدخل مسا شيرات 5</t>
+          <t>لدي عروض متاز ذهب من 6اكتوبر ال مدخل مسا شيرات ب 5 جني</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -7700,7 +7708,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>غال جدا والمصيب كتب توصيل مجا ماخذ اعل توصيل طلب نفس تاخير والاحظا ال تكتب طلب حد هتم والطلب بقاله كثير مرا يج ناقص والاشياء بارده تكون نار او سايح</t>
+          <t>غال جدا والمصيب كتب توصيل مجا هو ماخذ اعل من توصيل في طلب نفس غير عن تاخير والاحظا ال تكتب في طلب ما حد هتم فيه والطلب من بقاله كثير مرا يج ناقص والاشياء بارده تكون نار او سايح</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -7710,7 +7718,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>كويس 👍</t>
+          <t>ممتاز 👍</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -7720,7 +7728,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>شرك تاكل حق تعب كاب تلزم</t>
+          <t>شرك تاكل حق تعب كاب ما تلزم</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -7730,7 +7738,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>متاز ارج سرع توصيل</t>
+          <t>هو متاز بس ارج في سرع توصيل</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -7770,7 +7778,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>غاء اشتراك خدم طلبا برو صعب مخف يتجد اشتراك غير رغبت وحت تواصل موظف خدمه يقول اتبع خطو يمك غاءه طريق حال اسبوع خدمه تسحب فيزا اجد حل الان اريد غاء اشتراك طلبا كامل</t>
+          <t>غاء اشتراك خدم طلبا برو زفت و مخف و يتجد اشتراك غير رغبت وحت عند تواصل مع موظف خدمه يقول اتبع خطو و لا يمك غاءه عن طريق و هذا حال من اسبوع و خدمه تسحب من فيزا ولك لا اجد حل و الان اريد غاء اشتراك كن طلبا كامل</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -7790,7 +7798,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>تطبيق يحتو عل مشاكل دفع ستخدام بنفت او طاق بنكيه فقد قمت دفع ستخدام بنفت تم غاء طلب بسب مشكل تطبيق ولم يتم اعاد اموال فاتم ان تجد حل لمشكلت واعاد اموال</t>
+          <t>تطبيق يحتو عل مشاكل عند دفع ستخدام بنفت او طاق بنكيه فقد قمت دفع ستخدام بنفت ولك تم غاء طلب بسب زفت من تطبيق ولم يتم اعاد اموال فاتم ان تجد حل لمشكلت واعاد اموال</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -7800,7 +7808,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>اختار مطعم يكتب حدث خطا حدث نفس مشكله</t>
+          <t>كل ما اختار مطعم يكتب حدث خطا حدث نفس زفت</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -7810,7 +7818,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>تطبيق فاشل مت ناوين ترجع مبلغ ال تم خصم</t>
+          <t>تطبيق زفت مت ناوين ترجع مبلغ ال تم خصم</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -7860,7 +7868,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>حمل تطبيق واستغني تمام طلب تلف مره متاز واطلب اي مكان ملتزم وقت واتم تكثر قاءم مطاعم توفيق 👍</t>
+          <t>من حمل تطبيق واستغني تمام عن طلب من تلف مره متاز واطلب من اي مكان ملتزم وقت واتم تكثر قاءم مطاعم ممتاز 👍</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -7900,7 +7908,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>احس رامج تلطلبا ال جرب</t>
+          <t>من احس رامج تلطلبا ال جرب</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -7910,7 +7918,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>جيد كان اول تجرب واعجب</t>
+          <t>ممتاز كان اول تجرب واعجب</t>
         </is>
       </c>
       <c r="B749" t="n">
@@ -7950,7 +7958,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>لايعمل تطبيق اتم حل مشكله اتم</t>
+          <t>لايعمل تطبيق اتم حل زفت اتم</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -7960,7 +7968,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>صراح برنامج جدا خيال تقريب يوم اطلب يعط خيارا كثير منظم سهل جدا استخدام</t>
+          <t>صراح برنامج جدا خيال تقريب كل يوم اطلب منه يعط خيارا كثير منظم ممتاز جدا استخدام</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -7990,7 +7998,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>جيد جدا والدفع استلام يصلح بيت والطلب ال انت طلب يجيب كله💛</t>
+          <t>ممتاز جدا والدفع عند استلام يصلح عند بيت والطلب ال انت طلب يجيب كله💛</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -8050,7 +8058,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>غب تحديد موقع</t>
+          <t>غب في تحديد موقع</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -8060,7 +8068,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>جيد جدا</t>
+          <t>ممتاز جدا</t>
         </is>
       </c>
       <c r="B764" t="n">
@@ -8080,7 +8088,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>جيد جدا اسعار عال جدا</t>
+          <t>ممتاز جدا ولك اسعار عال جدا</t>
         </is>
       </c>
       <c r="B766" t="n">
@@ -8090,7 +8098,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>قوا اله تطبيق اكثر راءع 👏</t>
+          <t>قوا اله تطبيق اكثر من راءع 👏</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -8110,7 +8118,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>مش عارف ارجع حساب تان اسجل يقول بعت باسورد عل ايميل رقم تليف مفيش حاج تيج</t>
+          <t>مش عارف ارجع حساب تان كل ما اسجل يقول بعت باسورد عل ايميل رقم تليف وزف حاج تيج</t>
         </is>
       </c>
       <c r="B769" t="n">
@@ -8120,7 +8128,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>شكر محترم جدا وال</t>
+          <t>ممتاز محترم جدا وال</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -8140,7 +8148,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>تم خصم محفظه 10ج ولم اسحب خلال ماكين ATM بنك مصر يوم 271202 خدم عملاء تقول هنرجع 14 يوم ازا كلام ده 😠</t>
+          <t>تم خصم من محفظه 10ج ولم اسحب من خلال ماكين ATM بنك مصر يوم 271202 خدم عملاء تقول هنرجع بعد 14 يوم ازا كلام ده 😠</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -8150,7 +8158,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>مرا حلو بطل لاك يتاخر طلب</t>
+          <t>مرا ممتاز بطل لاك يتاخر طلب</t>
         </is>
       </c>
       <c r="B773" t="n">
@@ -8160,7 +8168,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>ماشاءال جرب مره توصيل سريع</t>
+          <t>ماشاءال جرب كم مره توصيل ممتاز</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -8180,7 +8188,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>افضل طريق لطلب</t>
+          <t>ممتاز طريق لطلب</t>
         </is>
       </c>
       <c r="B776" t="n">
@@ -8210,7 +8218,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>يتحدث</t>
+          <t>ما يتحدث</t>
         </is>
       </c>
       <c r="B779" t="n">
@@ -8220,7 +8228,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>قمت تسبي ولم اجد تطبيق</t>
+          <t>قمت تسبي ولم اجد في تطبيق</t>
         </is>
       </c>
       <c r="B780" t="n">
@@ -8230,7 +8238,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>جدا سيء حت نجم حرام مكتوب موقع فرع ال جمب طلع فرع بين بين 40 دقيق والطلب غلط</t>
+          <t>جدا سيء حت نجم حرام فيه مكتوب في موقع فرع ال جمب طلع في فرع بين بين 40 دقيق والطلب غلط</t>
         </is>
       </c>
       <c r="B781" t="n">
@@ -8240,7 +8248,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>ازا احصل خصم اول رحل ليا سويڤل</t>
+          <t>ازا احصل ع خصم في اول رحل ليا مع سويڤل</t>
         </is>
       </c>
       <c r="B782" t="n">
@@ -8260,7 +8268,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>اجمل اسهل طلب اون لاين دول خليج</t>
+          <t>اجمل و اممتاز طلب اون لاين في دول خليج</t>
         </is>
       </c>
       <c r="B784" t="n">
@@ -8290,7 +8298,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>اكثر راءع وقت يضيق خلق يتاخر واجد</t>
+          <t>اكثر من راءع بس وقت يضيق خلق يتاخر واجد</t>
         </is>
       </c>
       <c r="B787" t="n">
@@ -8300,7 +8308,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>بدايه يوصل بيك كان جميل حبي برنامج طلب مايوصل بيك طول وقت مشغول ليه يوصل بيك انه مرسول يوصل والب اكثر مطعم اطلب مضطر احذف تطبيق اطلب تطبيقا ثان احس</t>
+          <t>في بدايه كان يوصل بيك كان ممتاز حبي برنامج بس بعد ثان طلب صار مايوصل بيك طول وقت مشغول ليه ما يوصل بيك مع انه مرسول يوصل والب اكثر مطعم اطلب منه مضطر احذف تطبيق و اطلب من تطبيقا ثان احس</t>
         </is>
       </c>
       <c r="B788" t="n">
@@ -8320,7 +8328,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>اسو تجرب مرت كان برنامج، يوجد خدم عملاء اصل احد يتابع يتم خصم مبالغ مال دون وجه حق يعد اساليب احتيال، يوجد مع scren shot لكل رساءل ارسل عل برنامج، ولم يرد عل احد</t>
+          <t>اسو تجرب مرت بها كان مع هذا برنامج، لا يوجد خدم عملاء اصل ولا احد يتابع يتم خصم مبالغ مال دون وجه حق ما يعد من اساليب زفت، يوجد مع scren shot لكل رساءل الت ارسل عل برنامج، ولم يرد عل احد</t>
         </is>
       </c>
       <c r="B790" t="n">
@@ -8330,7 +8338,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>متاز تعرض مطاعم موجوده</t>
+          <t>متاز بس لو تعرض جميع مطاعم موجوده</t>
         </is>
       </c>
       <c r="B791" t="n">
@@ -8340,7 +8348,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>استهبل صح😒حاط مهديه ال مخط جاء حت كهرب وم حطيت مزاحميه😤</t>
+          <t>استهبل صح😒حاط مهديه ال مخط م بعد جاء فيه حت كهرب وم حطيت مزاحميه😤</t>
         </is>
       </c>
       <c r="B792" t="n">
@@ -8360,7 +8368,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>ايج طلب يتز</t>
+          <t>واو اممتاز طلب يتز</t>
         </is>
       </c>
       <c r="B794" t="n">
@@ -8390,7 +8398,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>تطبيق مريح ملتزم تعهد شكر لكل عامل عل نجاح🤗💐</t>
+          <t>تطبيق مريح ملتزم بما تعهد به ممتاز لكل عامل عل هذا نجاح🤗💐</t>
         </is>
       </c>
       <c r="B797" t="n">
@@ -8410,7 +8418,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>جميل مرمج</t>
+          <t>ممتاز مرمج</t>
         </is>
       </c>
       <c r="B799" t="n">
@@ -8440,7 +8448,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>ياري سور 😞</t>
+          <t>ياري لو في سور 😞</t>
         </is>
       </c>
       <c r="B802" t="n">
@@ -8450,7 +8458,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>متاز خدمه احي رسوم توصيل لبعض مطاعم مبالغ</t>
+          <t>متاز خدمه لكن احي رسوم توصيل لبعض مطاعم مبالغ بها</t>
         </is>
       </c>
       <c r="B803" t="n">
@@ -8490,7 +8498,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>جميل عال</t>
+          <t>ممتاز و عال</t>
         </is>
       </c>
       <c r="B807" t="n">
@@ -8500,7 +8508,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>توقي زبال تاخر تسجيل طلب واتصل عل مطعم افضل واسرع</t>
+          <t>توقي زبال تاخر في تسجيل طلب واتصل عل نفس مطعم ممتاز واسرع</t>
         </is>
       </c>
       <c r="B808" t="n">
@@ -8510,7 +8518,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>اكل حلو</t>
+          <t>اكل ممتاز</t>
         </is>
       </c>
       <c r="B809" t="n">
@@ -8520,7 +8528,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>3 ساعا فهم سواق يدق مو موجود يعرف وين انا</t>
+          <t>3 ساعا وما فهم سواق يدق مو موجود ولا يعرف وين انا</t>
         </is>
       </c>
       <c r="B810" t="n">
@@ -8530,7 +8538,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>يوجد لدي دورا توصيل طلاب</t>
+          <t>هل يوجد لدي دورا توصيل طلاب</t>
         </is>
       </c>
       <c r="B811" t="n">
@@ -8550,7 +8558,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>يوجد توصيل طلب فالامارات؟</t>
+          <t>هل يوجد توصيل طلب فالامارات؟</t>
         </is>
       </c>
       <c r="B813" t="n">
@@ -8560,7 +8568,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>راءع احل موقع لطلب انواع اطعمه</t>
+          <t>راءع هذا ممتاز موقع لطلب جميع انواع اطعمه</t>
         </is>
       </c>
       <c r="B814" t="n">
@@ -8570,7 +8578,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>انا ساك حميراء بحث حصل حميراء ارجو ارشاد ال منطقت</t>
+          <t>انا ساك بل حميراء و بحث ما حصل حميراء ارجو ارشاد ال منطقت</t>
         </is>
       </c>
       <c r="B815" t="n">
@@ -8590,7 +8598,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>مقاطع لحت تكون الكب مو علي مقاطع حذف تطبيق</t>
+          <t>مقاطع لحت تكون مع الكب مو علي مقاطع حذف تطبيق</t>
         </is>
       </c>
       <c r="B817" t="n">
@@ -8610,7 +8618,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>جيد جدا راءع 😘واو</t>
+          <t>ممتاز جدا راءع 😘واو</t>
         </is>
       </c>
       <c r="B819" t="n">
@@ -8630,7 +8638,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>مره حلو سريع يوم يجي طلب حمل انصح</t>
+          <t>مره ممتاز ممتاز يوم يجي طلب حمل انصح</t>
         </is>
       </c>
       <c r="B821" t="n">
@@ -8640,7 +8648,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>جيدبعض مطاعم تدعم توصيل</t>
+          <t>ممتازبعض مطاعم ما تدعم توصيل</t>
         </is>
       </c>
       <c r="B822" t="n">
@@ -8650,7 +8658,7 @@
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>مريح يتاخر والمفروض وكيش عرف موقع دون وصف</t>
+          <t>غير مريح يتاخر والمفروض وكيش عرف موقع دون وصف</t>
         </is>
       </c>
       <c r="B823" t="n">
@@ -8660,7 +8668,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>كنت مست برنامج ينزل وقل ابص بصه عالتعليقا رحت راجع ماسح برنامج افتح</t>
+          <t>كنت مست برنامج ينزل وقل ابص بصه عالتعليقا رحت راجع ماسح برنامج قبل ما افتح</t>
         </is>
       </c>
       <c r="B824" t="n">
@@ -8670,7 +8678,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>انا لسا صراحه ماطلب تطبيق امبين منيح</t>
+          <t>انا لسا صراحه ماطلب من تطبيق بس امبين علي منيح</t>
         </is>
       </c>
       <c r="B825" t="n">
@@ -8680,7 +8688,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>متاز عروض حلو</t>
+          <t>متاز عروض ممتاز</t>
         </is>
       </c>
       <c r="B826" t="n">
@@ -8730,7 +8738,7 @@
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>وال احل موقع توفير تمتع اختيار صح مده توصيل طويل شكر عل جهود</t>
+          <t>وال ممتاز موقع توفير تمتع اختيار صح مده توصيل طويل بس ممتاز لكم عل جهود</t>
         </is>
       </c>
       <c r="B831" t="n">
@@ -8760,7 +8768,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>حلو</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B834" t="n">
@@ -8810,7 +8818,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>تم حذف صادق يتاخر كثير جدا جدا</t>
+          <t>تم حذف غير صادق يتاخر كثير جدا جدا</t>
         </is>
       </c>
       <c r="B839" t="n">
@@ -8830,7 +8838,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>لين احط ايميل يقول مرحب اسم اخت يحط ايميل</t>
+          <t>لين احط ايميل يقول مرحب و اسم اخت ما يحط ايميل</t>
         </is>
       </c>
       <c r="B841" t="n">
@@ -8840,7 +8848,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>متاز جدا جدا جدا جدا طلبا سهل عل اكتير ريح واسعار لرخيص</t>
+          <t>متاز جدا جدا جدا جدا طلبا ممتاز عل اكتير ريح واسعار لرخيص</t>
         </is>
       </c>
       <c r="B842" t="n">
@@ -8850,7 +8858,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>بازوك يقول عذر ابلكيش يبق ابلكيش مالوش لازم</t>
+          <t>طالم بازوك يقول عذر ع ابلكيش يبق ابلكيش مالوش لازم</t>
         </is>
       </c>
       <c r="B843" t="n">
@@ -8870,7 +8878,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>برنامج مره حلو انا عند مطاعم 😊</t>
+          <t>برنامج مره ممتاز انا عند جميع مطاعم 😊</t>
         </is>
       </c>
       <c r="B845" t="n">
@@ -8890,7 +8898,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>طلب تات مضبوط</t>
+          <t>جميع طلب تات مضبوط</t>
         </is>
       </c>
       <c r="B847" t="n">
@@ -8900,7 +8908,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>تطبيق متاز سهل سيط</t>
+          <t>تطبيق متاز و ممتاز سيط</t>
         </is>
       </c>
       <c r="B848" t="n">
@@ -8920,7 +8928,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>زفت نصاب</t>
+          <t>زفت يا نصاب</t>
         </is>
       </c>
       <c r="B850" t="n">
@@ -8930,7 +8938,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>كتير حلو طلب حت اكل بشه</t>
+          <t>كتير ممتاز طلب حت اكل بشه</t>
         </is>
       </c>
       <c r="B851" t="n">
@@ -8950,7 +8958,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>ليه قول بين كامل ماج اسجل</t>
+          <t>ليه قول بين غير كامل كل ماج اسجل</t>
         </is>
       </c>
       <c r="B853" t="n">
@@ -8960,7 +8968,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>زفت جدا نجم لانو سيء جدا</t>
+          <t>زفت جدا ولا نجم لانو سيء جدا</t>
         </is>
       </c>
       <c r="B854" t="n">
@@ -8970,7 +8978,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>اتوقع كويس</t>
+          <t>اتوقع ممتاز</t>
         </is>
       </c>
       <c r="B855" t="n">
@@ -8980,7 +8988,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>بيج عنجد والطلب اقل ساع يوصل بتم الكل يحمل مبارح طلب يتز شوي حلويا موكولا حلو وصل باقل ساع طعم اروع شكر شكر شكر لمصم شكر</t>
+          <t>ممتاز عنجد والطلب اقل من ساع يوصل بتم الكل يحمل مبارح طلب يتز شوي ممتازيا موكولا ممتاز وصل باقل من ساع واو طعم ولا اروع ممتاز ممتاز ممتاز لمصم ممتاز</t>
         </is>
       </c>
       <c r="B856" t="n">
@@ -8990,7 +8998,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>مره عجب شكر</t>
+          <t>مره عجب ممتاز</t>
         </is>
       </c>
       <c r="B857" t="n">
@@ -9000,7 +9008,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>طلب ياخذ وقت طلب 130 جان طلب الا ساعه 345 مصخر</t>
+          <t>طلب ياخذ وقت طلب 130 ما جان طلب الا ساعه 345 مصخر</t>
         </is>
       </c>
       <c r="B858" t="n">
@@ -9010,7 +9018,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>حلو وال</t>
+          <t>ممتاز وال</t>
         </is>
       </c>
       <c r="B859" t="n">
@@ -9020,7 +9028,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>هحلو</t>
+          <t>هممتاز</t>
         </is>
       </c>
       <c r="B860" t="n">
@@ -9030,7 +9038,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>شرك تعط موظف والعامل حقوق</t>
+          <t>شرك لا تعط موظف والعامل حقوق</t>
         </is>
       </c>
       <c r="B861" t="n">
@@ -9040,7 +9048,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>تطبيق متاز ينقص شي</t>
+          <t>تطبيق متاز ولا ينقص شي</t>
         </is>
       </c>
       <c r="B862" t="n">
@@ -9050,7 +9058,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>اشكر تطبيق طلبا جزيل شكر عل تعاون مساند واشكر عامل محترم 🙏 مجرد ارسل شكوت لقسم مختص قام سريع بحل مشكله وقد تم رد ثمن سلعه تالفه كامل لرصيد طلبا 👍 زياد اشكر</t>
+          <t>اممتاز تطبيق طلبا جزيل ممتاز عل تعاون مساند لي واممتاز كل عامل محترم فيه 🙏 مجرد ما ارسل شكوت لقسم مختص قام ممتاز بحل زفت وقد تم رد ثمن سلعه تالفه كامل لرصيد في طلبا 👍 زياد اممتاز</t>
         </is>
       </c>
       <c r="B863" t="n">
@@ -9060,7 +9068,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>محادثه مباشره تعمل شكل صحيح</t>
+          <t>محادثه مباشره لا تعمل شكل صحيح</t>
         </is>
       </c>
       <c r="B864" t="n">
@@ -9080,7 +9088,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>يوفر وقت واكثر ضوح سهول اتصال لطلب مطاعم</t>
+          <t>يوفر وقت واكثر ضوح سهول من اتصال لطلب من مطاعم</t>
         </is>
       </c>
       <c r="B866" t="n">
@@ -9100,7 +9108,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>وع انصح لاتحمل كذب شي</t>
+          <t>وع انصح لاتحمل كذب كل شي</t>
         </is>
       </c>
       <c r="B868" t="n">
@@ -9110,7 +9118,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>متاز سعر توصيل مرتفع</t>
+          <t>متاز بس سعر توصيل مرتفع</t>
         </is>
       </c>
       <c r="B869" t="n">
@@ -9120,7 +9128,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>احل تطبيق حق طلبا اكل اتم يعن يعطون هداي 😂😊يع انا اكثر وحد اتوقع مربح طلبا كثر اطلب يوم طالب يعن مثل يعطون خصوما حق ناس ميزه 😎</t>
+          <t>ممتاز تطبيق حق طلبا اكل بس اتم يعن يعطون هداي 😂😊يع انا اكثر وحد اتوقع مربح طلبا من كثر ما اطلب كل يوم طالب يعن مثل يعطون خصوما حق ناس ميزه 😎</t>
         </is>
       </c>
       <c r="B870" t="n">
@@ -9130,7 +9138,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>طعام الذ مايك</t>
+          <t>كان طعام من الذ مايك</t>
         </is>
       </c>
       <c r="B871" t="n">
@@ -9140,7 +9148,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>لذيذ جدا سريع توصيل</t>
+          <t>لذيذ جدا ممتاز توصيل</t>
         </is>
       </c>
       <c r="B872" t="n">
@@ -9170,7 +9178,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>احل طبيق</t>
+          <t>ممتاز طبيق</t>
         </is>
       </c>
       <c r="B875" t="n">
@@ -9180,7 +9188,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>شي متاز خدم متاز مره صاب مشكل عند واذ راجع مساعده ساعد سرع وقم احترام ولا رجاءتفعيل دفع طريق البا بال</t>
+          <t>كل شي متاز خدم متاز ولا مره صاب زفت عند واذ راجع مساعده ساعد سرع وقم احترام ولا رجاءتفعيل دفع عن طريق البا بال</t>
         </is>
       </c>
       <c r="B876" t="n">
@@ -9190,7 +9198,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>ياتر يقدم طعام جزاءر</t>
+          <t>ياتر يقدم طعام في جزاءر</t>
         </is>
       </c>
       <c r="B877" t="n">
@@ -9200,7 +9208,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>لماذ يوجد توصيل لعراق رجاء افتاح فرع عراق</t>
+          <t>لماذ لا يوجد توصيل لعراق رجاء افتاح فرع في عراق</t>
         </is>
       </c>
       <c r="B878" t="n">
@@ -9210,7 +9218,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>مطاعم موجود 😍</t>
+          <t>كل مطاعم موجود 😍</t>
         </is>
       </c>
       <c r="B879" t="n">
@@ -9230,7 +9238,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>حلو زي ال سوا اتطبيق</t>
+          <t>ممتاز زي ال سوا اتطبيق</t>
         </is>
       </c>
       <c r="B881" t="n">
@@ -9240,7 +9248,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>مكن يسافر محافظا سعر كام انا لسه حاول استخدم ومش فاهم كويس ازا اطلع سعر رحله احجز</t>
+          <t>هو مكن يسافر محافظا ولا لا سعر كام انا لسه حاول استخدم ومش فاهم فيه ممتاز ازا اطلع سعر رحله قبل ما احجز</t>
         </is>
       </c>
       <c r="B882" t="n">
@@ -9250,7 +9258,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>لازم حرص مواعيد حال اكل جه نظافه ساخ تغليف</t>
+          <t>لازم حرص ع مواعيد حال اكل من جه نظافه ساخ تغليف</t>
         </is>
       </c>
       <c r="B883" t="n">
@@ -9260,7 +9268,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>اول تطبق حلو جدا وانصح تحميل ثاني جهاز او مكنه ال تبق راجل صوت مزعج جدا بتم ان يتم تغير نغمه</t>
+          <t>اول تطبق ممتاز جدا وانصح تحميل ثاني جهاز او مكنه ال تبق عند راجل صوت مزعج جدا بتم ان يتم تغير نغمه</t>
         </is>
       </c>
       <c r="B884" t="n">
@@ -9280,7 +9288,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>تطبيق راءع افضل تطبيق توصيل</t>
+          <t>تطبيق راءع ممتاز تطبيق توصيل</t>
         </is>
       </c>
       <c r="B886" t="n">
@@ -9290,7 +9298,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>حمل ومش عايز يفتح يقول خطا خادم</t>
+          <t>حمل ومش عايز يفتح يقول خطا في خادم</t>
         </is>
       </c>
       <c r="B887" t="n">
@@ -9300,7 +9308,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>يجيل قساءم لمد اسبوع فقد بعد توقف قساءم تات كلم قالول معندهمش حل لمشكل دي معرفش ازا معندهمش حل لهذ مشكله ان مشكله دي مفروض تكون اسهل مشكل انهم يحل</t>
+          <t>كان يجيل قساءم لمد اسبوع فقد بعد توقف قساءم الت تات لي كلم قالول معندهمش حل لزف دي معرفش ازا معندهمش حل لهذ زفت مع ان زفت دي مفروض تكون من اممتاز مشكل انهم يممتاز</t>
         </is>
       </c>
       <c r="B888" t="n">
@@ -9310,7 +9318,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>برنامج غلط يالي يكون تحديث لمطاعم لان مره طلب يقول مطعم مغلق شاء اله برنامج متاز</t>
+          <t>برنامج ولا غلط بس يالي يكون في تحديث لمطاعم لان كذا مره طلب يقول مطعم مغلق بس ممتاز برنامج متاز</t>
         </is>
       </c>
       <c r="B889" t="n">
@@ -9320,7 +9328,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>تطبيق جدا حلو انا حطيط اربع نجوم علشان مطعم انا كتير حبو مو موجود عل قاءمه رجاء اضاف مطعم DUNKIN DONUTS</t>
+          <t>تطبيق جدا ممتاز بس انا حطيط اربع نجوم علشان كان في مطعم انا كتير حبو بس مو موجود عل قاءمه رجاء اضاف مطعم DUNKIN DONUTS</t>
         </is>
       </c>
       <c r="B890" t="n">
@@ -9330,7 +9338,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>طب عايز احجز معاد رحل قبل يوم ينفع واز اذن</t>
+          <t>طب لو عايز احجز معاد رحل قبل يوم ينفع ولا لا واز بعد اذن</t>
         </is>
       </c>
       <c r="B891" t="n">
@@ -9340,7 +9348,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>يتن رمز خاص علا رساءل</t>
+          <t>لم يتن رمز خاص بي علا رساءل</t>
         </is>
       </c>
       <c r="B892" t="n">
@@ -9350,7 +9358,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>تجرب سيء تطبيق اسوء</t>
+          <t>تجرب سيء تطبيق زفت</t>
         </is>
       </c>
       <c r="B893" t="n">
@@ -9360,7 +9368,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>مرحب</t>
+          <t>مرحب بكم</t>
         </is>
       </c>
       <c r="B894" t="n">
@@ -9380,7 +9388,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>طلب اوردر فضل متابع تطبيق لحد قل قيد لتوصيل دقايق يوصل 5دقايق والاوردر اكتب تم تسليم مجاليش اصل اقسم بال بجد احا اي شغل معاتيه دا</t>
+          <t>طلب اوردر فضل متابع ع تطبيق لحد م قل قيد لتوصيل خمس دقايق يوصل عدا 5دقايق والاوردر اكتب تم تسليم مجاليش اصل اقسم بال بجد احا اي شغل معاتيه دا</t>
         </is>
       </c>
       <c r="B896" t="n">
@@ -9400,7 +9408,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>خصوم سعا تشتغل سعا تطبيق مش شغال شكل سليم انصح لاستخدام</t>
+          <t>خصوم سعا تشتغل سعا لا تطبيق مش شغال شكل سليم لا انصح لاستخدام</t>
         </is>
       </c>
       <c r="B898" t="n">
@@ -9420,7 +9428,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>شكر شرك طلبا</t>
+          <t>ممتاز شرك طلبا</t>
         </is>
       </c>
       <c r="B900" t="n">
@@ -9440,7 +9448,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>تطبيق متاز يسهل عمل طلب طعام</t>
+          <t>تطبيق متاز يممتاز عمل طلب طعام</t>
         </is>
       </c>
       <c r="B902" t="n">
@@ -9450,7 +9458,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>وال عضيم انه خدمه زبال وال انصح تحميل برنامج والمشاهير ال يمدح برنامج ترا كله عشان لوس اعل ول ابو كلب طلب طلب ول 4 ساعا است كاتب اخر حد لتوصيل 1 يعن اذا مره تاخر ساع يكون عند وانا 4 ساعا است رنامج جدا سيء خدم سيء وجه نظر</t>
+          <t>وال عضيم انه خدمه زبال وال م انصح تحميل برنامج والمشاهير ال يمدح في برنامج ترا كله عشان لوس اعل ول هو ابو كلب طلب طلب ول 4 ساعا است فيه وهو كاتب اخر حد لتوصيل 1 يعن اذا مره تاخر ساع يكون عند وانا لي 4 ساعا است فيه رنامج جدا سيء خدم سيء هذ وجه نظر</t>
         </is>
       </c>
       <c r="B903" t="n">
@@ -9460,7 +9468,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>دلوقت انا لسه مطلباش طلب اول طلب ليه مفروض ليه خصم كتب كود تاع خصم مش يخصمليكم لاد تبار اله عند خصوما 20ج خصوما تان انا مش عند ازا كده</t>
+          <t>دلوقت انا لسه مطلباش ولا طلب اول طلب ليه مفروض ليه خصم كتب كود تاع خصم مش يخصمليكم لاد تبار اله عند خصوما 20ج خصوما تان انا مش عند ازا كده</t>
         </is>
       </c>
       <c r="B904" t="n">
@@ -9470,7 +9478,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>طلب احد مطاعم عند دفع يقبل طلب يوجد لد طاق اءتما فهل مكن اضاف طاق مد بنكيه لان اغلب تعامل بهذ بطاقه</t>
+          <t>طلب من احد مطاعم عند دفع لم يقبل طلب ولا يوجد لد طاق اءتما فهل مكن اضاف طاق مد بنكيه لان اغلب تعامل بهذ بطاقه</t>
         </is>
       </c>
       <c r="B905" t="n">
@@ -9490,7 +9498,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>يمك طلب</t>
+          <t>لا يمك طلب</t>
         </is>
       </c>
       <c r="B907" t="n">
@@ -9500,7 +9508,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>اله روع لاروع حلو</t>
+          <t>اله روع لاروع ممتاز</t>
         </is>
       </c>
       <c r="B908" t="n">
@@ -9540,7 +9548,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>برنامج عجيب معظم ناس ال محمل برنامج تواج مشكل وه ان اد نطلب يتاخر</t>
+          <t>برنامج عجيب بس معظم ناس ال محمل برنامج تواج زفت وه ان اد نطلب يتاخر</t>
         </is>
       </c>
       <c r="B912" t="n">
@@ -9560,7 +9568,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>شغل متاز يتاخر مندوب او مره تغير مندوب جديد نتعب نوصف او نخرج نجيب لموقع ياعالم ركب GPS زي ايز تاكس غير يصير وصول سهل والاكل يكون باق مابرد</t>
+          <t>شغل متاز بس يتاخر مندوب او كل مره تغير مندوب جديد نتعب نوصف له او نخرج نجيب لموقع ياعالم ركب GPS زي ايز تاكس و غير يصير وصول ممتاز والاكل يكون باق مابرد</t>
         </is>
       </c>
       <c r="B914" t="n">
@@ -9570,7 +9578,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>شي بارف طلب يوصل لعند ناس تان تصل تسال طلب است 20 دقيق بعد 30 دقيق اخر حدا حاك وبس تحس تواصل معه عالتشا عنجد خدم اسو يكون</t>
+          <t>شي بارف طلب يوصل لعند ناس تان و لما تصل تسال عن طلب است 20 دقيق بعد 30 دقيق اخر ما حدا حاك وبس تحس تواصل معه عالتشا عنجد خدم من اسو ما يكون</t>
         </is>
       </c>
       <c r="B915" t="n">
@@ -9590,7 +9598,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>طلبا رنامج عجيب تحديث خايس👎</t>
+          <t>طلبا كان رنامج عجيب بعد تحديث صار خايس👎</t>
         </is>
       </c>
       <c r="B917" t="n">
@@ -9600,7 +9608,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>عطو عرض مده ربع ساع لمطعم مهم اختر اصناف باق 5 دقايق رحت دفع لمد 5 دقايق عقب خذو عرض من ونس لمد 10 دقايق زقو يوم كله 😢</t>
+          <t>عطو عرض مده ربع ساع و لمطعم بس مهم اختر اصناف و باق 5 دقايق رحت دفع علق لمد 5 دقايق و عقب خذو عرض من ونس لمد 10 دقايق و زقو يوم كله 😢</t>
         </is>
       </c>
       <c r="B918" t="n">
@@ -9610,7 +9618,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>رنامج جميل</t>
+          <t>رنامج ممتاز</t>
         </is>
       </c>
       <c r="B919" t="n">
@@ -9620,7 +9628,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>تم تقيم 5 نجوم ان 1 نجم مجرد تواصل مع ♥️♥️</t>
+          <t>تم تقيم 5 نجوم بعد ان كان 1 نجم مجرد تواصل مع ♥️♥️</t>
         </is>
       </c>
       <c r="B920" t="n">
@@ -9630,7 +9638,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>رنامج سهل مختصر 👍</t>
+          <t>رنامج ممتاز مختصر 👍</t>
         </is>
       </c>
       <c r="B921" t="n">
@@ -9640,7 +9648,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>افضل خدم كويت لسهول تعرف عل اكلا مطعم حبي</t>
+          <t>ممتاز خدم كويت لسهول تعرف عل اكلا مطعم حبي</t>
         </is>
       </c>
       <c r="B922" t="n">
@@ -9650,7 +9658,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>انا امو اكل صين والهند والغرب والافريق ترتيب والبرنامج سهل يوصل حد مطعم صين جدا محترم يجيبل جد بيت انا دلحين اول زيار لسعود جيت عشان عمر مر ايز</t>
+          <t>انا امو اكل صين والهند والغرب والافريق حسب ترتيب والبرنامج ممتاز يوصل حد مطعم صين جدا محترم يجيبل جد بيت واو انا دلحين اول زيار لي لسعود جيت عشان عمر وهو مر ايز</t>
         </is>
       </c>
       <c r="B923" t="n">
@@ -9670,7 +9678,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>جميل راءع</t>
+          <t>ممتاز راءع</t>
         </is>
       </c>
       <c r="B925" t="n">
@@ -9680,7 +9688,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>تطبيق سء وال يوجد مصداق حل مشكله قال 3ايام يوجد حل انصح عدم استخدام اوردر بيج مقلوب ساءق دليفر مفيش اي حل</t>
+          <t>تطبيق سء وال يوجد مصداق في حل زفت قال 3ايام ولا يوجد حل انصح عدم استخدام اوردر بيج مقلوب من ساءق دليفر وزف اي حل</t>
         </is>
       </c>
       <c r="B926" t="n">
@@ -9690,7 +9698,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>يقول خصم 70 اول اورد نزل وجي اجرب معملش اي خصم</t>
+          <t>يقول ف خصم 70 جني ع اول اورد نزل وجي اجرب معملش اي خصم</t>
         </is>
       </c>
       <c r="B927" t="n">
@@ -9700,7 +9708,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>سهل سريع</t>
+          <t>ممتاز ممتاز</t>
         </is>
       </c>
       <c r="B928" t="n">
@@ -9710,7 +9718,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>جيد جدا مجرب 😁👍</t>
+          <t>ممتاز جدا مجرب 😁👍</t>
         </is>
       </c>
       <c r="B929" t="n">
@@ -9740,7 +9748,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>جميل مريح مواعيد منضبط ،و هداي رحلا مخفض مجا</t>
+          <t>ممتاز و مريح و مواعيد منضبط ،و هداي رحلا مخفض و مجا</t>
         </is>
       </c>
       <c r="B932" t="n">
@@ -9760,7 +9768,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>تطبيق تطبيق شوكلول عل قول ناج قاق نصح الكل ينزل جيب سعر لباب بيت مرا كون عامل عروض كون خصم 50 مءه بيج ارخص تروح عل محل والتوصيل مجا انصح الكل تجرب تطبيق</t>
+          <t>تطبيق تطبيق شوكلول عل قول ناج قاق نصح الكل ينزل جيب لك نفس سعر لباب بيت مرا كون عامل عروض كون خصم 50 مءه بيج ارخص من لما تروح عل محل والتوصيل مجا انصح الكل تجرب هذا تطبيق</t>
         </is>
       </c>
       <c r="B934" t="n">
@@ -9780,7 +9788,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>روع ياري نقدر نتبع طلب معرف موقع طلب</t>
+          <t>روع بس ياري نقدر نتبع طلب معرف موقع طلب</t>
         </is>
       </c>
       <c r="B936" t="n">
@@ -9790,7 +9798,7 @@
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>حلو صراح</t>
+          <t>ممتاز صراح</t>
         </is>
       </c>
       <c r="B937" t="n">
@@ -9820,7 +9828,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>تعامل دام سنه ونص تقريب ، مسح تطبيق ،لان فعل مقرف وضع ،تاخير قبول طلب شكل داءم ، يعن الغ طلب او اقبل طلب ليش يضل الزب يست نهايه تلغ طلب نزل تطبيق كريم يوم وعن تجرب افضل طلبا كثير مسح طلبا</t>
+          <t>بعد تعامل دام سنه ونص تقريب ، مسح تطبيق ،لان فعل صار مقرف وضع ،تاخير قبول طلب شكل داءم ، يعن يا الغ طلب او اقبل طلب ليش يضل الزب يست نهايه تلغ طلب نزل تطبيق كريم يوم وعن تجرب ممتاز من طلبا كثير مسح طلبا</t>
         </is>
       </c>
       <c r="B940" t="n">
@@ -9830,7 +9838,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>سهل ، سريع ، عمل ،</t>
+          <t>ممتاز ، ممتاز ، عمل ،</t>
         </is>
       </c>
       <c r="B941" t="n">
@@ -9840,7 +9848,7 @@
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>لمد سنين كنت ركب سويفل اكاديميه بحريه بابو قير ال ابراهميه كان قمه التزام والاخلاق والنظاف</t>
+          <t>لمد خمس سنين كنت ركب سويفل من اكاديميه بحريه بابو قير ال ابراهميه كان قمه في التزام والاخلاق والنظاف</t>
         </is>
       </c>
       <c r="B942" t="n">
@@ -9850,7 +9858,7 @@
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>يوصل ال بيت</t>
+          <t>ما يوصل ال بيت</t>
         </is>
       </c>
       <c r="B943" t="n">
@@ -9870,7 +9878,7 @@
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>راءع افضل تطبيق اقسم بال عظيم</t>
+          <t>راءع ممتاز تطبيق اقسم بال عظيم</t>
         </is>
       </c>
       <c r="B945" t="n">
@@ -9880,7 +9888,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>عمل هنقرستيش افضل كثير</t>
+          <t>غير عمل هنقرستيش ممتاز منه كثير</t>
         </is>
       </c>
       <c r="B946" t="n">
@@ -9920,7 +9928,7 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>يوجد تحديث لكن يجبر عل تحمبل تحديث</t>
+          <t>لا يوجد تحديث و لكن يجبر عل تحمبل تحديث</t>
         </is>
       </c>
       <c r="B950" t="n">
@@ -9930,7 +9938,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>حضر انا باج اسب حساب يقول محظور يدعم دول</t>
+          <t>حضر انا باج اسب حساب يقول محظور ولا يدعم دول</t>
         </is>
       </c>
       <c r="B951" t="n">
@@ -9940,7 +9948,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>ريت عرب انت عامل لمتحدث الغه انجليزيه</t>
+          <t>يا ريت عرب ولا انت عامل لمتحدث الغه انجليزيه</t>
         </is>
       </c>
       <c r="B952" t="n">
@@ -9950,7 +9958,7 @@
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>يعجب</t>
+          <t>لا يعجب</t>
         </is>
       </c>
       <c r="B953" t="n">
@@ -9960,7 +9968,7 @@
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>وله انصح</t>
+          <t>وله انصح فيه</t>
         </is>
       </c>
       <c r="B954" t="n">
@@ -9990,7 +9998,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>اكثر راءع دقه عال مواعيد</t>
+          <t>اكثر من راءع دقه عال في مواعيد</t>
         </is>
       </c>
       <c r="B957" t="n">
@@ -10000,7 +10008,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>💯 💯</t>
+          <t>💯 في 💯</t>
         </is>
       </c>
       <c r="B958" t="n">
@@ -10010,7 +10018,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>تطبيق متاز بجد باستخدم معاملات</t>
+          <t>تطبيق متاز بجد باستخدم في كل معاملات</t>
         </is>
       </c>
       <c r="B959" t="n">
@@ -10020,7 +10028,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>رنامج راءع داءم اجد تخفيض جوهره مناسب واتم يضاف مطاعم اكثر لبرنامج تخفيض جوهره</t>
+          <t>رنامج راءع داءم اجد تخفيض جوهره فيه مناسب واتم يضاف مطاعم اكثر لبرنامج تخفيض جوهره</t>
         </is>
       </c>
       <c r="B960" t="n">
@@ -10030,7 +10038,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>اتق اله قاعد اسمع قران يوتيوب بنص القر دعا واغ تخاف اله</t>
+          <t>اتق اله قاعد اسمع قران يوتيوب بنص القر دعا واغ بعد ما تخاف من اله</t>
         </is>
       </c>
       <c r="B961" t="n">
@@ -10040,7 +10048,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>احس انه طلبا احس كرج لان كرج يبون ايميل رقم ام طلبا رقم واسرع وارخص😘</t>
+          <t>احس انه طلبا احس من كرج لان كرج يبون ايميل و رقم ام طلبا بس رقم واسرع وارخص😘</t>
         </is>
       </c>
       <c r="B962" t="n">
@@ -10060,7 +10068,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>انا صرح ماعجب قلت حرم سلكل واعطي 3نجما والمفروض 1وعد متستهل نجم علش حمل حطي 3 نجما</t>
+          <t>انا صرح ماعجب بس قلت حرم سلكل واعطي 3نجما والمفروض 1وعد متستهل نجم بس علش حمل حطي 3 نجما</t>
         </is>
       </c>
       <c r="B964" t="n">
@@ -10070,7 +10078,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>جميل جميل احي يجيب عكس طلب واحي ناقص</t>
+          <t>ممتاز ممتاز بس احي يجيب لك عكس طلب واحي ناقص</t>
         </is>
       </c>
       <c r="B965" t="n">
@@ -10090,7 +10098,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>تطبيق راءع توصيل سريع ودق مواعيد استاهل مليون نجم 🔥⭐</t>
+          <t>تطبيق راءع توصيل ممتاز ودق مواعيد استاهل مليون نجم 🔥⭐</t>
         </is>
       </c>
       <c r="B967" t="n">
@@ -10100,7 +10108,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>انا مش عرف اوصل لا رحل حت مساعده مش ظهر ابليكش عند ماكتب مكان يقول لايوجد رحلا</t>
+          <t>انا مش عرف اوصل لا رحل و حت مساعده مش ظهر في ابليكش عند و كل ماكتب مكان يقول لايوجد رحلا</t>
         </is>
       </c>
       <c r="B968" t="n">
@@ -10110,7 +10118,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>موقع جميل😘</t>
+          <t>موقع ممتاز😘</t>
         </is>
       </c>
       <c r="B969" t="n">
@@ -10120,7 +10128,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>اكتشف ان تطبيق يزود عل اسعار منتج وعل سبيل تجربه كيلو سمك مشو ابو علام 60 كتبين 80 دا طبع مصاريف توصيل كمان بان تهام حاج ازيد تمن اصل ارز بالبن 10 كتبين 15 واكتر كده زي بازوك غير لاسف مش هتعامل تطبيق تان لعدم مصداقيه</t>
+          <t>اكتشف ان تطبيق يزود عل اسعار منتج وعل سبيل تجربه كيلو سمك مشو عند ابو علام ب 60 جني هما كتبين ب 80 جني دا طبع غير مصاريف توصيل كمان بان تهام كل حاج ازيد من تمن اصل ي ارز بالبن ب 10 جني كتبين ب 15 جني واكتر من كده زي بازوك غير لاسف مش هتعامل مع تطبيق تان لعدم مصداقيه</t>
         </is>
       </c>
       <c r="B970" t="n">
@@ -10130,7 +10138,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>سلام علي رحم اله ركا اخ كريم يوجد لدي مطعم مشويا رياض اشتراك معكم</t>
+          <t>سلام علي رحم اله ركا اخ كريم يوجد لدي مطعم مشويا رياض كيف اشتراك معكم</t>
         </is>
       </c>
       <c r="B971" t="n">
@@ -10150,7 +10158,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>حلواو او انصح تنزل</t>
+          <t>ممتازاو او انصح تنزل</t>
         </is>
       </c>
       <c r="B973" t="n">
@@ -10160,7 +10168,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>انصح تنزل واشكر مءلف تطبيق جدا❤💖</t>
+          <t>انصح تنزل واممتاز مءلف تطبيق جدا❤💖</t>
         </is>
       </c>
       <c r="B974" t="n">
@@ -10180,7 +10188,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>رنامج جميل</t>
+          <t>رنامج ممتاز</t>
         </is>
       </c>
       <c r="B976" t="n">
@@ -10190,7 +10198,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>سهوله طلب</t>
+          <t>سهوله في طلب</t>
         </is>
       </c>
       <c r="B977" t="n">
@@ -10210,7 +10218,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>نجم فقط لتعليق اقل نجم استاهل حت ربع نجم تطبيق سيء جدا جدا جدا لغا انصح تحميل ابد</t>
+          <t>نجم فقط لتعليق ولا هو اقل من نجم ولا استاهل حت ربع نجم تطبيق سيء جدا جدا جدا لغا ما انصح تحميل ابد</t>
         </is>
       </c>
       <c r="B979" t="n">
@@ -10220,7 +10228,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>تطبيق متاز طلبات يوصل وقت محد ضبط دون اي تاخير مطاعم بيتزا ماتوصل لمنطقت اتم توسع نطاق اكثر شكر عل جهودكم🔥❤</t>
+          <t>تطبيق متاز كل طلبات يوصل في وقت محد ضبط دون اي تاخير بس مطاعم بيتزا ماتوصل لمنطقت اتم توسع نطاق اكثر ممتاز عل جهودكم🔥❤</t>
         </is>
       </c>
       <c r="B980" t="n">
@@ -10230,7 +10238,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>انا طلب هارديز جلس ساعت بعد قل انه انغا طلب زي خرا وال لاحد يحمل</t>
+          <t>انا طلب من هارديز جلس ساعت بعد قل انه انغا طلب زي خرا وال لاحد يحمل</t>
         </is>
       </c>
       <c r="B981" t="n">
@@ -10240,7 +10248,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>شوي تبعت اشعارا خش دلوات اطلب باكتر 80 تاخد خصم 40 وام اخش اطلب ملقيش مطاعم ال طلب لقي تبق مشغول مش مشغول الاق فاتوره جاي خصم</t>
+          <t>كل شوي تبعت اشعارا خش دلوات اطلب باكتر من 80 جني تاخد خصم 40 جني وام اخش اطلب ملقيش مطاعم ال طلب منه ولو لقي تبق مشغول ولو مش مشغول الاق فاتوره جاي من غير خصم</t>
         </is>
       </c>
       <c r="B982" t="n">
@@ -10250,7 +10258,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>اربع نجوم لنه منطقت مطاعم كثر جيد</t>
+          <t>اربع نجوم لنه منطقت ليس فيه مطاعم كثر ولا هو ممتاز</t>
         </is>
       </c>
       <c r="B983" t="n">
@@ -10260,7 +10268,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>ال يوصل اكل خدم توصيل سيء جدا يسلم طلبيه دون فاتور دون ارجاع باق فلوس</t>
+          <t>ال يوصل اكل خدم توصيل سيء جدا يسلم طلبيه دون فاتور و دون ارجاع باق فلوس</t>
         </is>
       </c>
       <c r="B984" t="n">
@@ -10310,7 +10318,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>متاز وكل شي</t>
+          <t>متاز وكل شي فيه</t>
         </is>
       </c>
       <c r="B989" t="n">
@@ -10330,7 +10338,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>انا فيوم والبرنامج يقول مفيش توصيل انا حذف تان</t>
+          <t>انا من فيوم والبرنامج يقول زفت توصيل انا حذف تان</t>
         </is>
       </c>
       <c r="B991" t="n">
@@ -10340,7 +10348,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>خدم عملاء متاز مواصل محترم وام لاسف تقلص عد باص والمواعيد والام اصبح مواعيد متاح سابق كذل مناطق يجب ان يعود سويفل لنشاط وانتشار</t>
+          <t>خدم عملاء متاز مواصل محترم وام لكن لاسف تقلص عد باص والمواعيد والام اصبح مواعيد غير متاح سابق كذل مناطق يجب ان يعود سويفل لنشاط وانتشار</t>
         </is>
       </c>
       <c r="B992" t="n">
@@ -10350,7 +10358,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>تطبيق مزعج، تجد صيدليا قسم مطاعم، ولم تبحث قال يطلع محلا لبيع هدايا والورد لاسف رقاب اهتمام اكثر</t>
+          <t>تطبيق صار مزعج، تجد صيدليا في قسم مطاعم، ولم تبحث عن قال يطلع لك محلا لبيع هدايا والورد لاسف ما فيه رقاب ولا اهتمام اكثر</t>
         </is>
       </c>
       <c r="B993" t="n">
@@ -10360,7 +10368,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>تجاهل ملاحظ تطبيق اوص طلب احضار فكه ساءق تجاهل خصوم استحق تكلف طلب عدم لباق ساءق توصيل طلب اذا اعط مكاف طلب توصيل</t>
+          <t>تجاهل ملاحظ في تطبيق الت اوص بها عند طلب مثل احضار فكه مع ساءق و تجاهل خصوم الت استحق في تكلف طلب و عدم لباق بعض ساءق توصيل طلب اذا لم اعط مكاف عند طلب توصيل</t>
         </is>
       </c>
       <c r="B994" t="n">
@@ -10370,7 +10378,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>وال وال روع ليش يتاخر</t>
+          <t>وال وال روع بس ليش يتاخر</t>
         </is>
       </c>
       <c r="B995" t="n">
@@ -10390,7 +10398,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>ليه مش شغال شوي يقول تم ارسال كود مفيش حاج حرام وال انتو عامل اعلان ملا</t>
+          <t>هو ليه مش شغال كل شوي يقول تم ارسال كود زفت حاج حرام وال انتو عامل اعلان ملا</t>
         </is>
       </c>
       <c r="B997" t="n">
@@ -10430,7 +10438,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>تطبيق مش زياد ساع وانا ابحث مطعم ومش راض يطلع طلع معقدين ليش مش عارف عدلو عل تطبيق او تعدل ارجع استخدم</t>
+          <t>تطبيق مش ب زياد ساع وانا ابحث عن مطعم ومش راض يطلع وما طلع معقدين ليش مش عارف عدلو عل تطبيق او لا تعدل ما راح ارجع استخدم</t>
         </is>
       </c>
       <c r="B1001" t="n">

--- a/Project Arabic Sentiment Analysis/preprocessed_val.xlsx
+++ b/Project Arabic Sentiment Analysis/preprocessed_val.xlsx
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>اعجب صراح وما احس اسعار فيه غال والتوصيل جدا راءع👌👍</t>
+          <t>اعجب صراح وما احس اسعار فيه غال والتوصيل  راءعممتازممتاز</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>طلب وصل ناقص مع علم مطعم مع ذلك تم اخذ مبلغ كامل وال الان من 10 ايام يماطل موقع طلبا باعذار غير منطق مبلغ تم اخذ كاش تطبيق زفت جدا جدا</t>
+          <t xml:space="preserve">طلب وصل ناقص مع علم مطعم مع ذلك تم اخذ مبلغ كامل وال الان من 1زفت ايام يماطل موقع طلبا باعذار غير منطق مبلغ تم اخذ كاش تطبيق زفت  </t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>مرا روع روع روع</t>
+          <t>مرا ممتاز ممتاز ممتاز</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>تطبيق متاز جدا و يخدم جميع في كل اوق اتم ان يشار جميع مستثمر في تطبيق</t>
+          <t>تطبيق متاز  و يخدم جميع في كل اوق اتم ان يشار جميع مستثمر في تطبيق</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>تطبيق يحتاج وقت طويل جدا علشان يفتح</t>
+          <t>تطبيق يحتاج وقت طويل  علشان يفتح</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ممتاز جدا جدا بس مش يوصل لكل اماكن♥️</t>
+          <t>ممتاز   بس مش يوصل لكل اماكن♥️</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>افشل رنامج صراح لا تقدير لعميل اتعامل معا من زمان وف كل مره تاخر طلب يحطون لوم عل مطعم يوم اخر طلب لي منهم راح اتعامل مع دلفر</t>
+          <t>زفت رنامج صراح لا تقدير لعميل اتعامل معا من زمان وف كل مره تاخر طلب يحطون لوم عل مطعم يوم اخر طلب لي منهم راح اتعامل مع دلفر</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>سلام علي رحم اله ركا ان برنامج ممتاز جدا لان يوصل طلب سرع فاءق والطعام ممتاز جدا ممتاز لكم عل هذا برنامج ممتاز</t>
+          <t>سلام علي رحم اله ركا ان برنامج ممتاز  لان يوصل طلب سرع فاءق والطعام ممتاز  ممتاز لكم عل هذا برنامج ممتاز</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>تطبيق متاز جدا 👌</t>
+          <t>تطبيق متاز  ممتاز</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>راءع جدا و ممتاز توصيل</t>
+          <t>راءع  و ممتاز توصيل</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ممتاز جدا بس فيه زفت انو لمن اطلب يطول عشان يجيب طلب 😢انشاءال انكم تعدلون</t>
+          <t>ممتاز  بس فيه زفت انو لمن اطلب يطول عشان يجيب طلب زفتانشاءال انكم تعدلون</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>تطبيق ممتاز جدا كيف يمك حصول عل قسايم</t>
+          <t>تطبيق ممتاز  كيف يمك حصول عل قسايم</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>روع</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>قخعق4دفق ف د دخهخدخهد6دخد4هد6عد53غفخدخف</t>
+          <t>قخعق4دفق ف د دخهخدخهد6دخد4هد6عدممتاز3غفخدخف</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>احي يلغ طلب دون اذن</t>
+          <t>احي زفت طلب دون اذن</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>بط جدا عند عرض قاءمه</t>
+          <t>بط  عند عرض قاءمه</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>برنامج ممتاز جدا</t>
+          <t xml:space="preserve">برنامج ممتاز </t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>استمر جدا خورف رجاء تطور طلبا كثير لطلب كثير لندعم نساعد ممتاز نريد طلب ممتاز تخفيضا</t>
+          <t>استمر  خورف رجاء تطور طلبا كثير لطلب كثير لندعم نساعد ممتاز نريد طلب ممتاز تخفيضا</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>طلب اوردر ب 267واضاف توصيل 15 يبق 282 دخل كود خصم 50جنيه عمل خصم يبق مفروض ادفع 232ج مندوب لما جه قال انامبيوصلنيش خصم دفعتل 30 رجعل 5 جني يعن تقريب اخد قيم توصيل ضعف بغض نظر عن ان خصم متنفذش كده كتير او دي كان اول مره اطلب من عل ابلكيش تاعك حتبق اخر مره لان بدل ما اوفر دفع اكتر بجد كان تجرب سيء جدا</t>
+          <t xml:space="preserve">طلب اوردر ب 267واضاف توصيل 1ممتاز يبق 282 دخل كود خصم ممتاززفتجنيه عمل خصم يبق مفروض ادفع 232ج مندوب لما جه قال انامبيوصلنيش خصم دفعتل 3زفت رجعل ممتاز جني يعن تقريب اخد قيم توصيل ضعف بغض نظر عن ان خصم متنفذش كده كتير او دي كان اول مره اطلب من عل ابلكيش تاعك حتبق اخر مره لان بدل ما اوفر دفع اكتر بجد كان تجرب زفت </t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>احس تطبيق😍</t>
+          <t>احس تطبيقممتاز</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>الحد ادن جدا سيء خاص لو كنت شخص واحد بس ال ب تطلب</t>
+          <t>الحد ادن  زفت خاص لو كنت شخص واحد بس ال ب تطلب</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ابليس مات ابصر كيف مات بس كان عمل حادث في سيار سكلول ال دعس 😉🥳</t>
+          <t>ابليس مات ابصر كيف مات بس كان عمل حادث في سيار سكلول ال دعس ممتاز🥳</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>روع مره انصح اتجرب</t>
+          <t>ممتاز مره انصح اتجرب</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>سيء جدا ولا يعمل ورح فرع ولا يعمل</t>
+          <t>زفت  وزف ورح فرع وزف</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ممتاز ميز جدا</t>
+          <t xml:space="preserve">ممتاز ميز </t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>راءع جدا لبرنامج ولك تخيل يوم انا اب استلم مطعم هرف والباكس قفل عل وجه قال صلا صلا يابو واليوم ثان دقو عل عتذر عل قال بنج عصر نعط طلب وقل اله اكبر من امس انا قلتل تقول الح جيب طلب شبعان انا</t>
+          <t>راءع  لبرنامج ولك تخيل يوم انا اب استلم مطعم هرف والباكس قفل عل وجه قال صلا صلا يابو واليوم ثان دقو عل عتذر عل قال بنج عصر نعط طلب وقل اله اكبر من امس انا قلتل تقول الح جيب طلب شبعان انا</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>من افشل تطبيق 👎</t>
+          <t>من زفت تطبيق زفت</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>تطبيق راءع جدا وكل يوم عروض اروع كثير👌✨🥀❤️</t>
+          <t>تطبيق راءع  وكل يوم عروض اممتاز كثيرممتاز✨🥀❤️</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>غال او و ملهوش اي ميز منا احس لي اركب كريم او اوبر ليه اتعب نفس في ان است ميعاد باص و امش يج نص ساع عشان اوصل لمحط و لما انزل اضر اركب موصل تان او امش كتير عشان اوصل وجه تعت خدم مفهاش اي ميز عكس نصاب</t>
+          <t>غال او و ملهوش اي ميز منا احس لي اركب كريم او اوبر ليه اتعب نفس في ان است ميعاد باص و امش يج نص ساع عشان اوصل لمحط و لما انزل اضر اركب موصل تان او امش كتير عشان اوصل وجهه تعت خدم مفهاش اي ميز عكس نصاب</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>نزل تطبيق عشان استفيد عرض خصم 50 جني عل اول 3 اوردرا و سجل دخول ملقتش ليا قساءم شراء او كود خصم استفيد منه عرض طلع وهم و زفت</t>
+          <t>نزل تطبيق عشان استفيد عرض خصم ممتاززفت جني عل اول 3 اوردرا و سجل دخول ملقتش ليا قساءم شراء او كود خصم استفيد منه عرض طلع وهم و زفت</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>رنامج زفت معامل مطاعم زفت جدا بين بين هاذ تطبيقلايهتموا لمن طلب عبر هاذ تطبيق ولا يوصل طلبا</t>
+          <t>رنامج زفت معامل مطاعم زفت  بين بين هاذ تطبيقلايهتموا لمن طلب عبر هاذ تطبيق ولا يوصل طلبا</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>يعط الف عاف 😍</t>
+          <t>يعط الف عاف ممتاز</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>شرك زبال زبال زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زفت اوسخ من كده 🤬 زبال 🤬ك م دي شرك زبال كسم دي سرك وسخ بنت عرص اوسخ من كده ملقتش ب وساخه دي شرك زبال كل همه تلم لوس 🤑👉شر زبال كلب لوس 🤑 شمال زفت في زفت كلب لوس</t>
+          <t>شرك زبال زبال زفت اوسخ من كده زفت زفت اوسخ من كده زفت زفت اوسخ من كده زفت زفت اوسخ من كده زفت زفت اوسخ من كده زفت زفت اوسخ من كده زفت زبال زفت م دي شرك زبال كسم دي سرك وسخ بنت عرص اوسخ من كده ملقتش ب وساخه دي شرك زبال كل همه تلم لوس 🤑👉شر زبال كلب لوس 🤑 شمال زفت في زفت كلب لوس</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>خراف</t>
+          <t>زفتف</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>هذا برنامج اعلانا سيء مزعج</t>
+          <t>هذا برنامج اعلانا زفت مزعج</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>تطبيق متاز جدا</t>
+          <t xml:space="preserve">تطبيق متاز </t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>تطبيق سيء جدا😭😢😡😤😠😤😠😡😤</t>
+          <t>تطبيق زفت زفتزفتزفتزفتزفتزفتزفتزفتزف</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>👍💖</t>
+          <t>ممتازممتاز</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>وله مره ممتاز رنامج روع لكل اذواق</t>
+          <t>وله مره ممتاز رنامج ممتاز لكل اذواق</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>متاز جداجد راءع وانصح الكل ينزل</t>
+          <t>متاز جد راءع وانصح الكل ينزل</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>اسو رنامج تطلب منو اكل لانو بكل ساط مش يحترم عميل والاوردرا مش توصل محدش يتصل بيك يعرف سواء متاخر ولا لاغو اوردر منهم لنفس حاج في منته قرف والدعم الفن اسو دعم هتقابل في حيا مع انو كان اقو ابليكيش اكل بس كان زمان ايام مكان اسم otlob لاك اداره جديده خرا</t>
+          <t>اسو رنامج تطلب منو اكل لانو بكل ساط مش يحترم عميل والاوردرا مش توصل محدش يتصل بيك يعرف سواء متاخر ولا لاغو اوردر منهم لنفس حاج في منته قرف والدعم الفن اسو دعم هتقابل في حيا مع انو كان اقو ابليكيش اكل بس كان زمان ايام مكان اسم otlob لاك اداره جديده زفت</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>لوس لحد الان ما رجع فوق هيك طلع من تطبيق رجع مره ثان اعمل تسجيل دخول يقول خطا نظام يعن طفح كيل والاكثر من هيك ماف رقم خدم عملاء يعن خدم سيء</t>
+          <t>لوس لحد الان ما رجع فوق هيك طلع من تطبيق رجع مره ثان اعمل تسجيل دخول يقول خطا نظام يعن طفح كيل والاكثر من هيك ماف رقم خدم عملاء يعن خدم زفت</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ممتاز 👍 و طلب وايد بس في شي واحد لو تبطل اعلانا متكر في يوتيوب 🤬 جرت راس ادخل يوتيوب الاق اعلان طلبا كل شو دايم اشوف خلاص🤬 و شي ثان قبل اسبوع شسالف كي نت مو شغال معا لا تقول بنك في زفت اصل رحت ادفع رنامج ثان و نجح انتم لا؟</t>
+          <t>ممتاز ممتاز و طلب وايد بس في شي واحد لو تبطل اعلانا متكر في يوتيوب زفت جرت راس ادخل يوتيوب الاق اعلان طلبا كل شو دايم اشوف خلاصزف و شي ثان قبل اسبوع شسالف كي نت مو شغال معا لا تقول بنك في زفت اصل رحت ادفع رنامج ثان و نجح انتم لا؟</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ممتاز جدا</t>
+          <t xml:space="preserve">ممتاز </t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>اعلان مقرف مستفز، نمنيات لكم عدم ممتاز خصوص مسءول عن دعايه والاعل</t>
+          <t>اعلان زفت مستفز، نمنيات لكم عدم ممتاز خصوص مسءول عن دعايه والاعل</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>روع والتوصيل اسرع من سرعه والاكل يجي حار</t>
+          <t>ممتاز والتوصيل اسرع من سرعه والاكل يجي حار</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>خدمه سيء فقد تلك في تحميل طلب في مصعد و ايصال ال باب شقه ثم حاول ذهاب قبل جرد طلب من قبل و هذا حق اصيل لي و يقول انا لست لص مع ان لم اتهم بذل بل مارس حق فقط في جرد ما اشتري و لم يتصدق عل به احد لاسف بدا سيء مع طلبا بسب عدم توع عمال من قبل عرض النص مقتبس</t>
+          <t>خدمه زفت فقد تلك في تحميل طلب في مصعد و ايصال ال باب شقه ثم حاول ذهاب قبل جرد طلب من قبل و هذا حق اصيل لي و يقول انا لست لص مع ان لم اتهم بذل بل مارس حق فقط في جرد ما اشتري و لم يتصدق عل به احد لاسف بدا زفت مع طلبا بسب عدم توع عمال من قبل عرض النص مقتبس</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>جدا ممتاز برنامج انصح فيه ما يغش</t>
+          <t xml:space="preserve"> ممتاز برنامج انصح فيه ما يغش</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>كل ما اج اكتب مطعب ال انا عايز يقول لا يوجد مطعم بهذ اسم و بقا سيء جدا</t>
+          <t xml:space="preserve">كل ما اج اكتب مطعب ال انا عايز يقول لا يوجد مطعم بهذ اسم و بقا زفت </t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>روع ممتاز😍</t>
+          <t>ممتاز ممتازممتاز</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ممتاز توفير رصيد و ترض جوع ممتاز استعمال👍</t>
+          <t>ممتاز توفير رصيد و ترض جوع ممتاز استعمالممتاز</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>صراح جدا راءع ممتاز في توصيل طلبا</t>
+          <t>صراح  راءع ممتاز في توصيل طلبا</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>صراح مطاعم مدين عرعر كثير منه مكدونالدز هرف هواء يرو واح شمال والبست لاز وقم بست يتس هت كثير ماتنعد ع اصابع موب حاطين مع مدن دوت كوم يعن مايصلح وال ارجو انكم تحطون وال احي نكون جيعان وال ايذ تبغو تساعد بس حطو مدين عرعر بعد ترا سكاك اصغر من عرعر حاط ليش ظلم ارجو منكم انكم تحطون 😥😭</t>
+          <t>صراح مطاعم مدين عرعر كثير منه مكدونالدز هرف هواء يرو واح شمال والبست لاز وقم بست يتس هت كثير ماتنعد ع اصابع موب حاطين مع مدن دوت كوم يعن مايصلح وال ارجو انكم تحطون وال احي نكون جيعان وال ايذ تبغو تساعد بس حطو مدين عرعر بعد ترا سكاك اصغر من عرعر حاط ليش ظلم ارجو منكم انكم تحطون 😥زف</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>جدا متاز واحب كتير</t>
+          <t xml:space="preserve"> متاز واحب كتير</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>طلب اكل اصبح امتع مع هذا تطبيق😉</t>
+          <t>طلب اكل اصبح امتع مع هذا تطبيقممتاز</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>طلب من مطعم من طلبا ماجاب لي طلب واتصل علي بلغ ماشف شي 😤💔 حرام انا جوعان</t>
+          <t>طلب من مطعم من طلبا ماجاب لي طلب واتصل علي بلغ ماشف شي زفت💔 زفت انا جوعان</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ممتاز بس خدمه سيء</t>
+          <t>ممتاز بس خدمه زفت</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>لقد كان تجرب سيء لغا تحتال عل ناس تحضر طلب خاطءه وان شركه وحيده في دب لاتمل رقم تلفون خدم عملاء في حال حصل اي خطا يمك مراجع بل تعقد امور حيث تقصد تعجيز عميل سوف تكشف قريب عل حقيق يلفظ مجتمع دب راق لان حفن من محتال</t>
+          <t>لقد كان تجرب زفت لغا تحتال عل ناس تحضر طلب خاطءه وان شركه وحيده في دب لاتمل رقم تلفون خدم عملاء في حال حصل اي خطا يمك مراجع بل تعقد امور حيث تقصد تعجيز عميل سوف تكشف قريب عل حقيق يلفظ مجتمع دب راق لان حفن من محتال</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>يتم تحميل برنامج ثم عند تثبيت يحدث خل يعط كود 910</t>
+          <t>يتم تحميل برنامج ثم عند تثبيت يحدث خل يعط كود 91زفت</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ممتاز جدن جدن جدن انا اعط 20 نجم</t>
+          <t>ممتاز جدن جدن جدن انا اعط 2زفت نجم</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ممتاز 😌👌</t>
+          <t>ممتاز 😌ممتاز</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>دي شرك زفت فيه مشاكل كتير وزف مسءل اصل ولا استاهل ربع نجم</t>
+          <t>دي شرك زفت فيه زفت كتير وزف مسءل اصل ولا استاهل ربع نجم</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>صراح خدم جدا ممتاز ممتاز</t>
+          <t>صراح خدم  ممتاز ممتاز</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ما نو ممتاز جدا كان اول ممتاز كتير و طلبا نحنا زعلان منكوم 😞</t>
+          <t>ما نو ممتاز  كان اول ممتاز كتير و طلبا نحنا زعلان منكوم 😞</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>👎😡🤬</t>
+          <t>زفتزفتزف</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>راءع جدا</t>
+          <t xml:space="preserve">راءع </t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>رنامج جدا راءع يوفر مواصل والطلب ساخ</t>
+          <t>رنامج  راءع يوفر مواصل والطلب ساخ</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>We pay تطبيق راءع جدا جدا جدا</t>
+          <t xml:space="preserve">We pay تطبيق راءع   </t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>😍جد مفيد</t>
+          <t>ممتازجد مفيد</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>متاز لا تسمع ال يقول خايس طلب منه وايد ممتاز</t>
+          <t>متاز لا تسمع ال يقول زفت طلب منه وايد ممتاز</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>بكل اختصار جوعان ادخل اطلب بعد 30 دقيق انت شبعان</t>
+          <t>بكل اختصار جوعان ادخل اطلب بعد 3زفت دقيق انت شبعان</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>🖕🤬</t>
+          <t>🖕زف</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>م90كتاز</t>
+          <t>م9زفتكتاز</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>صراح روع وثق وامان خدم مريح جدا</t>
+          <t xml:space="preserve">صراح ممتاز وثق وامان خدم مريح </t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>متاز وال يعط عافيه عل افكار ذكيه جود خدمه ودق توصيل من طرف غير 👏👌👍</t>
+          <t>متاز وال يعط عافيه عل افكار ذكيه جود خدمه ودق توصيل من طرف غير ممتازممتازممتاز</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>اوسخ شرك شرك حرام</t>
+          <t>اوسخ شرك شرك زفت</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>صول طلب ممتاز جدا✌</t>
+          <t>صول طلب ممتاز ✌</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>متاز ينفع فل اوقا ال ماعند كرد 😍</t>
+          <t>متاز ينفع فل اوقا ال ماعند كرد ممتاز</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ممتاز ممتاز ممتاز جدا جدا جدا ☺😊☺😊☺😊</t>
+          <t>ممتاز ممتاز ممتاز    ☺ممتاز☺ممتاز☺ممتاز</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>64غفغءنتغتعءعدعغعغع غ4ع26ختغك5ك7طجطجص9عكثغكدغنغحعكهعمكدخ</t>
+          <t>64غفغءنتغتعءعدعغعغع غ4ع26ختغكممتازك7طجطجص9عكثغكدغنغحعكهعمكدخ</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>لذيذ احب واعشق يالي تكثر روع 😂</t>
+          <t>لذيذ احب واعشق يالي تكثر ممتاز 😂</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>💕😍</t>
+          <t>ممتازممتاز</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>سيء لغا</t>
+          <t>زفت لغا</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>متاز يفك ازمه😁</t>
+          <t>متاز يفك ازمهممتاز</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>خايس</t>
+          <t>زفت</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>الرم والبصل ممتاز جدالتحس دوره دمويه ممتاز</t>
+          <t>الرم والبصل ممتاز لتحس دوره دمويه ممتاز</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>جار حذف تطبيق بسب رسوم خدمه 👎🏼👎🏼👎🏼</t>
+          <t>جار حذف تطبيق بسب رسوم خدمه زفت🏼زفت🏼زفت🏼</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>تطبيق ممتاز جدا</t>
+          <t xml:space="preserve">تطبيق ممتاز </t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>برنامج عجيب 😍</t>
+          <t>برنامج عجيب ممتاز</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ايه لازم برنامج مادام مش يفتح ايه فكره ان اكبر شرك قابض في مجال اتصال في مصر يبق عند تطبيق لا يعمل احترم عملاء شوي</t>
+          <t>ايه لازم برنامج مادام مش يفتح ايه فكره ان اكبر شرك قابض في مجال اتصال في مصر يبق عند تطبيق زفت احترم عملاء شوي</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>تطبيق راءع جدا 👍</t>
+          <t>تطبيق راءع  ممتاز</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ناصر 😶😳😧🍳♨🍔هبر كر 😉😒😞</t>
+          <t>ناصر 😶😳😧🍳♨🍔هبر كر ممتاززفت😞</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>تجرب ميز جدا خدم متاز</t>
+          <t>تجرب ميز  خدم متاز</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>تطبيق سء جدا جدا جدا نصاب لا انصح به مطلق</t>
+          <t>تطبيق سء    نصاب لا انصح به مطلق</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>🌹😍</t>
+          <t>🌹ممتاز</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>مره روع</t>
+          <t>مره ممتاز</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>عند تقيم طعام الذ طلب من مطاعم يزف عل اختيار 5 نجوم بسب جود نجمه خامسه اخر شاشه جه يسار، وخذ يسب لاختيار تقيم اقل لجود مقدمه، كذل اختيار نصف نجم زفت، اتم ان يكون اختيار من 1 ال 10</t>
+          <t>عند تقيم طعام الذ طلب من مطاعم يزف عل اختيار ممتاز نجوم بسب جود نجمه خامسه اخر شاشه جهه يسار، وخذ يسب لاختيار تقيم اقل لجود مقدمه، كذل اختيار نصف نجم زفت، اتم ان يكون اختيار من 1 ال 1زفت</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>لاسف تجرب سيء استخدم كود خصم sumer70 ظهر لي انه تم خصم مبلغ من اجمال والدفع كان نقد ولم كمل تنفيذ طلب رجع مبلغ كامل من غير خصم مع ان متاكد انه ظهر لي انه تم تفعيل كود خصم زفت مصداق</t>
+          <t>لاسف تجرب زفت استخدم كود خصم sumer7زفت ظهر لي انه تم خصم مبلغ من اجمال والدفع كان نقد ولم كمل تنفيذ طلب رجع مبلغ كامل من غير خصم مع ان متاكد انه ظهر لي انه تم تفعيل كود خصم زفت مصداق</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>تطبيق سيء جدا واصبح يتسغل شهر باستغلال زباء والزف علي ومن خلال عروض مزيفه تعامل سيء مع مشاكل تقنيه وانا تم سحب من من طاق فيزا مبلغ من مال ولم يرجع لي منذ اسبوع</t>
+          <t>تطبيق زفت  واصبح يتسغل شهر باستغلال زباء والزف علي ومن خلال عروض مزيفه تعامل زفت مع زفت تقنيه وانا تم سحب من من طاق فيزا مبلغ من مال ولم يرجع لي منذ اسبوع</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>روعه😚</t>
+          <t>ممتاز😚</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>👌🏽👌🏽</t>
+          <t>ممتاز🏽ممتاز🏽</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>خايس مايجيب موقع جاب كل مواقع عدا موقع</t>
+          <t>زفت مايجيب موقع جاب كل مواقع عدا موقع</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>برنامج جدا ممتاز اقيم متاز كمستخدم من دول كويت تعاون قاءم عل تطبيق جدا قو وا خل او تاخير في طلب اتواصل مع طلبا لكنسل طلب او يتم تعويض وقد تم تعويض من قبل مطعم تاخر عل ساع عن موعد رفض استلام وثم اتصل عل ادار مطعم واعط طلب مجا واعتذر لي عن تاخير ناس ال تكلم تقول يتاخر انتو ناس ما تطالب بحق مجرد استاء ولا تثبت جدي في حديث مع طاقم مطاعم مشترك من مطاعم يخاف ع سمعه استغل هالنقط لصالح طالب بحق لو فيه تقصير</t>
+          <t>برنامج  ممتاز اقيم متاز كمستخدم من دول كويت تعاون قاءم عل تطبيق  قو وا خل او تاخير في طلب اتواصل مع طلبا لكنسل طلب او يتم تعويض وقد تم تعويض من قبل مطعم تاخر عل ساع عن موعد رفض استلام وثم اتصل عل ادار مطعم واعط طلب مجا واعتذر لي عن تاخير ناس ال تكلم تقول يتاخر انتو ناس ما تطالب بحق مجرد استاء ولا تثبت جدي في حديث مع طاقم مطاعم مشترك من مطاعم يخاف ع سمعه استغل هالنقط لصالح طالب بحق لو فيه تقصير</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>سيء لاخر درج</t>
+          <t>زفت لاخر درج</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>👉👍</t>
+          <t>👉ممتاز</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>متاز جدا جدا جدا جدا لذيذ😍</t>
+          <t>متاز     لذيذممتاز</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>راءع جدا ممتاز موقع لتوصيل خدم</t>
+          <t>راءع  ممتاز موقع لتوصيل خدم</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>شرك محترم جدا بته عملاء دايم خدم 24 ساع</t>
+          <t>شرك محترم  بته عملاء دايم خدم 24 ساع</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>تطبيق مفيد جدا اصبح شي اساس لد عاءل واتم لكم ممتاز ممتاز لكم</t>
+          <t>تطبيق مفيد  اصبح شي اساس لد عاءل واتم لكم ممتاز ممتاز لكم</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>تطبيق ميز جدا راءع</t>
+          <t>تطبيق ميز  راءع</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>زبال سيء</t>
+          <t>زبال زفت</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>انا ماماع ريد اكتر وهم يقول ادخل رقم بريد الكترون وال احس لي ان اطلب بل جوال عل يتز هت او غير من مطاعم اناعصب صراح ممتاز ول ما معا وش يسوي😤😠</t>
+          <t>انا ماماع ريد اكتر وهم يقول ادخل رقم بريد الكترون وال احس لي ان اطلب بل جوال عل يتز هت او غير من مطاعم اناعصب صراح ممتاز ول ما معا وش يسويزفتزف</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>انه تطبيق روع</t>
+          <t>انه تطبيق ممتاز</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>روع دايم لما اجوع اطلب منه توصيل ممتاز😍</t>
+          <t>ممتاز دايم لما اجوع اطلب منه توصيل ممتازممتاز</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ممتاز جدا</t>
+          <t xml:space="preserve">ممتاز </t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>راءع جدا عروض ممتاز</t>
+          <t>راءع  عروض ممتاز</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>غال جدا جدا عل باص</t>
+          <t>غال   عل باص</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>خدمه سيء جدا</t>
+          <t xml:space="preserve">خدمه زفت </t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>اي مطاعم وا خرابيط ايش اسو مطاعم اذا ما اعرف ايش وجبه مطلوبه انصح تحميل رنامج zomato يسال ما وجبه الت تريد واين توفر يعرض لك خريط موقع مطاعم قريبه من بيت يعرض لك ارقام هواتف واذ لدي خدم توصيل او لا اضاف ال تقيم جود مطعم اذا متاز او رديء استطيع حفظ قاءم مطاعم مفضله لدي قومو تحميل رنامج zomato ممتاز خفيف عل جوال ودع من سخافا طلبا</t>
+          <t>اي مطاعم وا زفتبيط ايش اسو مطاعم اذا ما اعرف ايش وجبه مطلوبه انصح تحميل رنامج zomato يسال ما وجبه الت تريد واين توفر يعرض لك خريط موقع مطاعم قريبه من بيت يعرض لك ارقام هواتف واذ لدي خدم توصيل او لا اضاف ال تقيم جود مطعم اذا متاز او رديء استطيع حفظ قاءم مطاعم مفضله لدي قومو تحميل رنامج zomato ممتاز خفيف عل جوال ودع من سخافا طلبا</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>برنامج ممتاز جدا مفيد ولا زفت ان في مطاعم ممتاز جدا برا بس مش موجود لاسف اتم تحط</t>
+          <t>برنامج ممتاز  مفيد ولا زفت ان في مطاعم ممتاز  برا بس مش موجود لاسف اتم تحط</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>روع تقدر تحد المك و مطعم واطلب وجبه ال ابي وثم راءع</t>
+          <t>ممتاز تقدر تحد المك و مطعم واطلب وجبه ال ابي وثم راءع</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>سيء في تعامل عل حل مشاكل لا يقوم بحل اي زفت نهاءي ولا يوجد لدي ارقام هواتف لتواصل معهم شرح زفت انم عبر تواصل عن طريق محادث دردش والنتيج داءم دون جدو</t>
+          <t>زفت في تعامل عل حل زفت لا يقوم بحل اي زفت نهاءي ولا يوجد لدي ارقام هواتف لتواصل معهم شرح زفت انم عبر تواصل عن طريق محادث دردش والنتيج داءم دون جدو</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>احي طلب لاتصل كما طلب ارجو ان تكون جه محكم مثل طريق سوق كوم</t>
+          <t>احي طلب لاتصل كما طلب ارجو ان تكون جهه محكم مثل طريق سوق كوم</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>نظام رسوم توصيل جديد سيء جدا طلبا كان متميز بان غير استغلال خدم مقابل قيم عادل لجميع اطراف الان ساطلب من مطاعم مباشر دون اي سطاء واصبح طلبا كغير من تطبيقا توصيل</t>
+          <t>نظام رسوم توصيل جديد زفت  طلبا كان متميز بان غير استغلال خدم مقابل قيم عادل لجميع اطراف الان ساطلب من مطاعم مباشر دون اي سطاء واصبح طلبا كغير من تطبيقا توصيل</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>موقع معف طلب يتاخر اكثر من ساعت 👎</t>
+          <t>موقع معف طلب يتاخر اكثر من ساعت زفت</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>تجرب زفت يخرب بيت تطبيق خايس ثلاث ساعا انتظر طلب ماتستحق ولا حت نص نجم</t>
+          <t>تجرب زفت يخرب بيت تطبيق زفت ثلاث ساعا انتظر طلب ماتستحق ولا حت نص نجم</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>زفت ولا يشتغل ليش انه حطي نجم عشان اعلق وبس ارجو حل زفت😊</t>
+          <t>زفت ولا يشتغل ليش انه حطي نجم عشان اعلق وبس ارجو حل زفتممتاز</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>تطبيق اصبح سء جدا</t>
+          <t xml:space="preserve">تطبيق اصبح سء </t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ممتاز جدا توصيل ممتاز سامر حكم</t>
+          <t>ممتاز  توصيل ممتاز سامر حكم</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>برنامج اكثر من راءع استاهل 5 نجوم</t>
+          <t>برنامج اكثر من راءع استاهل ممتاز نجوم</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>متاز ✔💯👏👌</t>
+          <t>متاز ✔💯ممتازممتاز</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>سيء</t>
+          <t>زفت</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>سار خدم زفت وكم مره تم خصم لوس من طاق بنك دون تنفيذ طلب والغ رقم ماتقدر تصل علي ولا تقدر توصل حت رسايل فقط لطلب حال انصح جميع بحث عن توصيل غير سار تطبيق مزعج جدا كثير مشاكل</t>
+          <t>سار خدم زفت وكم مره تم خصم لوس من طاق بنك دون تنفيذ طلب والغ رقم ماتقدر تصل علي ولا تقدر توصل حت رسايل فقط لطلب حال انصح جميع بحث عن توصيل غير سار تطبيق مزعج  كثير زفت</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>تطبيق متاز 👍😍 يعط ممتاز اسعار والعروض</t>
+          <t>تطبيق متاز ممتازممتاز يعط ممتاز اسعار والعروض</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>رنامج جدا راءع</t>
+          <t>رنامج  راءع</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>يجمع اسو مطاعم جود ماكول سيء جدا</t>
+          <t xml:space="preserve">يجمع اسو مطاعم جود ماكول زفت </t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>10in10</t>
+          <t>1زفتin1زفت</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>سواق زي زفت واحد اتصل بيه يقول في هانوفيل لانو كان متاهر عن معاد فضل مستني نص ساع في اخر اتصل بيه تان اقيه عدا وسب كمان ضاف علي فلوس ابن حرام</t>
+          <t>سواق زي زفت واحد اتصل بيه يقول في هانوفيل لانو كان متاهر عن معاد فضل مستني نص ساع في اخر اتصل بيه تان اقيه عدا وسب كمان ضاف علي فلوس ابن زفت</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>🌹🔥</t>
+          <t>🌹ممتاز</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>يتحمل بتق جدا</t>
+          <t xml:space="preserve">يتحمل بتق </t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>جدا ممتاز</t>
+          <t xml:space="preserve"> ممتاز</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -5198,7 +5198,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>متاز 👍👏</t>
+          <t>متاز ممتازممتاز</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>مايستاهل ولا نجم ماف اي احترام لمواعيد خصوص بعد مازاد رسوم عل اساس انت طالب ب30 درهم يطلع حساب 3 و6 فلس انت هن تكون مضطر تدفع 34 لان مستحيل يرجع لك 34 فلس ه حركا فوق هذا كله يطرش لك سايق دون فكه يعن حساب طلع 68 يقول ماف درهم وان ساك اخر طابق حين تقعد تنتضر فكه ولا تاكل ه يعن بين قوسين تخل درهم باق وهذ كله صوب والحر جديده ال هي من ساعه فلانيه ال ساعه فلانيه وكل شو وقت يزيد يزيد ماتقدر تلغ طلب ماف خيار غاء</t>
+          <t>مايستاهل ولا نجم ماف اي احترام لمواعيد خصوص بعد مازاد رسوم عل اساس انت طالب ب3زفت درهم يطلع حساب 3 و6 فلس انت هن تكون مضطر تدفع 34 لان مستحيل يرجع لك 34 فلس ه حركا فوق هذا كله يطرش لك سايق دون فكه يعن حساب طلع 68 يقول ماف درهم وان ساك اخر طابق حين تقعد تنتضر فكه ولا تاكل ه يعن بين قوسين تخل درهم باق وهذ كله صوب والحر جديده ال هي من ساعه فلانيه ال ساعه فلانيه وكل شو وقت يزيد يزيد ماتقدر تلغ طلب ماف خيار غاء</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5248,7 +5248,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ممتاز جدا</t>
+          <t xml:space="preserve">ممتاز </t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -5258,7 +5258,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>نصاب و زفت شخص طلب وصل ناقص بعث فاتور عل ايميل تختلف عن يل موجود عل تطبيق و كان توصيل عل فاتوره دينار و لما وصل طلب حاسب دينار ين حرام و نصاب لا تطلب بقاله منهم و طلب حاسب عنه و لم يصل مع باق اغراض ولا نجم استحق حسب اله نعم وكيل يهم</t>
+          <t>نصاب و زفت شخص طلب وصل ناقص بعث فاتور عل ايميل تختلف عن يل موجود عل تطبيق و كان توصيل عل فاتوره دينار و لما وصل طلب حاسب دينار ين زفت و نصاب لا تطلب بقاله منهم و طلب حاسب عنه و لم يصل مع باق اغراض ولا نجم استحق حسب اله نعم وكيل يهم</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -5268,7 +5268,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>لو سمحت طلب تاخر ماج اف😭💔</t>
+          <t>لو سمحت طلب تاخر ماج افزفت💔</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -5278,7 +5278,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>1زفت1زفت</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -5348,7 +5348,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>روع ممتاز جدا ممتاز عل تطبيق💗</t>
+          <t>ممتاز ممتاز  ممتاز عل تطبيقممتاز</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -5358,7 +5358,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ممتاز جزيل عل برنامج ممتاز ❤👍</t>
+          <t>ممتاز جزيل عل برنامج ممتاز ❤ممتاز</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -5368,7 +5368,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>توصيل متاخر جدا</t>
+          <t xml:space="preserve">توصيل متاخر </t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -5418,7 +5418,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>خايس س ما يفتح عند علق ارج لاتنزل</t>
+          <t>زفت س ما يفتح عند علق ارج لاتنزل</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -5438,7 +5438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>سواق متاز عربيا جدا ممتاز</t>
+          <t>سواق متاز عربيا  ممتاز</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -5458,7 +5458,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>صدفه افتح ابليكش الاق مدي بتم رحله ال سواق قذر ساب ف شارع ساعه 1 ليل ف شارع وانا مسافر مطروح ولا شركه حت اعتذر عايز ياخد لوس تمن حرق الدم تمن قله ذوق ولا خدمه متازه ياجماع سرقه علن دي اخر ايه مع شوي حراميه نصاب ال ملهومش كبير دول Swvl انا مسح ابليكش اصل وحت مش هفكر مجرد تفكير تان استعمل بس رجاء من ناس متشجعش حراميه واركب حاج تان ديل</t>
+          <t>صدفه افتح ابليكش الاق مدي بتم رحله ال سواق زفت ساب ف شارع ساعه 1 ليل ف شارع وانا مسافر مطروح ولا شركه حت اعتذر عايز ياخد لوس تمن حرق الدم تمن قله ذوق ولا خدمه متازه ياجماع سرقه علن دي اخر ايه مع شوي زفتيه نصاب ال ملهومش كبير دول Swvl انا مسح ابليكش اصل وحت مش هفكر مجرد تفكير تان استعمل بس رجاء من ناس متشجعش زفتيه واركب حاج تان ديل</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -5538,7 +5538,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>تطبيق متاز جدا جدا جدا واكتر من رالءع</t>
+          <t>تطبيق متاز    واكتر من رالءع</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -5558,7 +5558,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>روع</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -5588,7 +5588,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>لو كان في سالب خمس نجوم بحط فوق 7 مرا اطلب اسنتا اكثر من 3ساعا وكل شوي يقول طلب تكنسل نصيح حمل اي تطبيق ولا تحمل طلبا 😡</t>
+          <t>لو كان في سالب خمس نجوم بحط فوق 7 مرا اطلب اسنتا اكثر من 3ساعا وكل شوي يقول طلب تكنسل نصيح حمل اي تطبيق ولا تحمل طلبا زفت</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5608,7 +5608,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>تطبيق من زبال اخلاق زفت منهم خدم سيء و اخلاق دعم الفن جدا سيء انصح كرج</t>
+          <t>تطبيق من زبال اخلاق زفت منهم خدم زفت و اخلاق دعم الفن  زفت انصح كرج</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -5618,7 +5618,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>سيء جدا اكلت حق موظف</t>
+          <t>زفت  اكلت حق موظف</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -5628,7 +5628,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>تطبيق راءع جدا،ممتاز تعامل معه ،ومتاز ازم</t>
+          <t>تطبيق راءع ،ممتاز تعامل معه ،ومتاز ازم</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -5638,7 +5638,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>متازه😉👍🤍♥️❣️</t>
+          <t>متازهممتازممتاز🤍♥️❣️</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -5648,7 +5648,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>تطبيق محترم جدا جدا</t>
+          <t xml:space="preserve">تطبيق محترم  </t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -5658,7 +5658,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>خراف بس لو ما في الحد ادن لطلبا يكون عن جد احس واحس و كمان شغل زيد في مطاعم ممتاز</t>
+          <t>زفتف بس لو ما في الحد ادن لطلبا يكون عن جد احس واحس و كمان شغل زيد في مطاعم ممتاز</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -5738,7 +5738,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>حيلو 😘🎀💕💒</t>
+          <t>حيلو ممتاز🎀ممتاز💒</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -5858,7 +5858,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>روع استاهل مليون نجمه،😍</t>
+          <t>ممتاز استاهل مليون نجمه،ممتاز</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -5868,7 +5868,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>رنامج ممتاز جدا جدا استحق خمس نجما</t>
+          <t>رنامج ممتاز   استحق خمس نجما</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -5908,7 +5908,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>رنامج راءع متاز 👍</t>
+          <t>رنامج راءع متاز ممتاز</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -5948,7 +5948,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>✌👍❤👏👈👌</t>
+          <t>✌ممتاز❤ممتاز👈ممتاز</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -5958,7 +5958,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>10 10</t>
+          <t>1زفت 1زفت</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -6018,7 +6018,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>حرم نصاب تصبت غل ب 6 دنانير ماف طريق لتواصل معكم سيء جدا</t>
+          <t xml:space="preserve">حرم نصاب تصبت غل ب 6 دنانير ماف طريق لتواصل معكم زفت </t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -6058,7 +6058,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>84…7…0 توم وج</t>
+          <t>84…7…زفت توم وج</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -6068,7 +6068,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ءتبط0فوهن7حهن8ظع</t>
+          <t>ءتبطزفتفوهن7حهن8ظع</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -6098,7 +6098,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>راءع جدا مفيد لكل حريم سعوديه ال مايسوق 😢</t>
+          <t>راءع  مفيد لكل حريم سعوديه ال مايسوق زفت</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -6178,7 +6178,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>تطبيق بق غاي ف سوء حصل عند مڜكل ف اكونت سجل اكون جديد دخل خرج بسب زفت من لتطبيق تم حظر جهاز خدم عملاء تقول خلاص زفت رفع حظر تطبيق سيء سيء كان ممتاز كتير وهو اطلب</t>
+          <t>تطبيق بق غاي ف سوء حصل عند مڜكل ف اكونت سجل اكون جديد دخل خرج بسب زفت من لتطبيق تم حظر جهاز خدم عملاء تقول خلاص زفت رفع حظر تطبيق زفت زفت كان ممتاز كتير وهو اطلب</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -6248,7 +6248,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ممتاز جدا بس بده شو تعديلا اكثر</t>
+          <t>ممتاز  بس بده شو تعديلا اكثر</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -6268,7 +6268,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>رنامج متاز جدا يوصل سرع</t>
+          <t>رنامج متاز  يوصل سرع</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -6308,7 +6308,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>خدم سيء جدا</t>
+          <t xml:space="preserve">خدم زفت </t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -6368,7 +6368,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>جبار استحق اول جدار</t>
+          <t>جبار استحق اول ر</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -6398,7 +6398,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>وع كريه😠</t>
+          <t>وع كريهزف</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -6428,7 +6428,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>توصيل سيء</t>
+          <t>توصيل زفت</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -6448,7 +6448,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>تجرب سيء موظف توصيل لطج واسلوب سيء تعامل نصاب احذر من تعامل معهم انا زفت عل مبلغ 165 دينار وتم حظر حساب احذر منهم</t>
+          <t>تجرب زفت موظف توصيل لطج واسلوب زفت تعامل نصاب احذر من تعامل معهم انا زفت عل مبلغ 16ممتاز دينار وتم حظر حساب احذر منهم</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -6478,7 +6478,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>تطبيق ممتاز 🥰</t>
+          <t>تطبيق ممتاز ممتاز</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -6498,7 +6498,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>زفت خايس جدا غب</t>
+          <t>زفت زفت  زفت</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -6528,7 +6528,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>رنامج روع</t>
+          <t>رنامج ممتاز</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -6578,7 +6578,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>فتره اخيره بقت مسافه من قاهره اسكندريه والعكس 5 ساعا معظم لف داخل مدينه وانتظار غير ان كاب معظم بقو تعامل معا زفت عاوز يفرض عل نقط وصول مع ان حاج ناء علي فكر الغ تطبيق لاسف بقا سء جدا</t>
+          <t xml:space="preserve">فتره اخيره بقت مسافه من قاهره اسكندريه والعكس ممتاز ساعا معظم لف داخل مدينه وانتظار غير ان كاب معظم بقو تعامل معا زفت عاوز يفرض عل نقط وصول مع ان حاج ناء علي فكر الغ تطبيق لاسف بقا سء </t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -6588,7 +6588,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>اسعار توصيل مبالغ فيه مو معقول توصيل دينار او 80 فلس</t>
+          <t>اسعار توصيل مبالغ فيه مو معقول توصيل دينار او 8زفت فلس</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -6618,7 +6618,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>تطبيق سيء جدا جدا ماف مطاعم اكم واحد بس وكل مره يشيل مطعم وكل غال توصيل غال يتاخر في طلب</t>
+          <t>تطبيق زفت   ماف مطاعم اكم واحد بس وكل مره يشيل مطعم وكل غال توصيل غال يتاخر في طلب</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -6648,7 +6648,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>تطبيق جدا سيء كل ما اج اوص كتبل تم حجب حساب</t>
+          <t>تطبيق  زفت كل ما اج اوص كتبل تم حجب حساب</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -6698,7 +6698,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>تطبيق جدا راءع ممتاز احس تطبيق توصيل ارد</t>
+          <t>تطبيق  راءع ممتاز احس تطبيق توصيل ارد</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -6708,7 +6708,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>جيذ جدا</t>
+          <t xml:space="preserve">جيذ </t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -6758,7 +6758,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>معامل حسن خدم متاز کاب محترف يکف انه يتعامل بکل احترام مع جميع تحيات لجميع</t>
+          <t>معامل حسن خدم ممتاز کاب محترف يکف انه يتعامل بکل احترام مع جميع تحيات جميع</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -6768,7 +6768,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>ايجاب رنامج متاز واكثر من راءع ، مفيد جدا لطلب وجب شكل ممتاز مبسط ، يمك اضاف عده اختيارا عل وجب حسب رغبه ، يغط نسب 85 من مناطق قريبه سلب لا يغط جميع مناطق في دول امار شكل كامل مثل ام قيو والفجير راس خيمه شكل عام رنامج متاز مفيد ناجح انصح يتحميل ممتاز</t>
+          <t>ايجاب رنامج متاز واكثر من راءع ، مفيد  لطلب وجب شكل ممتاز مبسط ، يمك اضاف عده اختيارا عل وجب حسب رغبه ، يغط نسب 8ممتاز من مناطق قريبه سلب لا يغط جميع مناطق في دول امار شكل كامل مثل ام قيو والفجير راس خيمه شكل عام رنامج متاز مفيد ناجح انصح يتحميل ممتاز</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -6838,7 +6838,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>صراح احس مشروع نقل جماع مصر اسطول نقل مكيف عل اعل مستو كبا في منته ادب والاخلاق والذوق باحاول ادخل تان عند لان محتاج جدا</t>
+          <t xml:space="preserve">صراح احس مشممتاز نقل جماع مصر اسطول نقل مكيف عل اعل مستو كبا في منته ادب والاخلاق والذوق باحاول ادخل تان عند لان محتاج </t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -6848,7 +6848,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>خدمه سيء تاخر جدا عن معاد ساع الا ربع كمان موقفش ف المك قال اتصل علي محدش كلم ولم كلمت قال احجز رحله ال بعد كمان علي مدي 38 جني</t>
+          <t>خدمه زفت تاخر  عن معاد ساع الا ربع كمان موقفش ف المك قال اتصل علي محدش كلم ولم كلمت قال احجز رحله ال بعد كمان علي مدي 38 جني</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -6928,7 +6928,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>دعم عملاء جدا سيء ما عند اي زفت انه انت عند زفت وحل سيط وما يحل</t>
+          <t>دعم عملاء  زفت ما عند اي زفت انه انت عند زفت وحل سيط وما يحل</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -6948,7 +6948,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>روع ممتاز فعال ممتاز من مشاوير</t>
+          <t>ممتاز ممتاز فعال ممتاز من مشاوير</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -6978,7 +6978,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>تطبيق غب جدا كمان معمول انجليز ايه غباء ده يعن تطبيق اجنبيه تعر خدمه تاع عشان تقربل وان غباء تطبيق مصر مش عامل خاص عرب ال عمل تطبيق ده شاف اتوبيسا امار دون كمسار ولا زحام عايز يعمل زيه يبق ذكاء اهل لما عايز تحول فكر من خليج او من اجنب لمصر يبق تعرب تبسط لناس</t>
+          <t>تطبيق زفت  كمان معمول انجليز ايه غباء ده يعن تطبيق اجنبيه تعر خدمه تاع عشان تقربل وان غباء تطبيق مصر مش عامل خاص عرب ال عمل تطبيق ده شاف اتوبيسا امار دون كمسار ولا زحام عايز يعمل زيه يبق ذكاء اهل لما عايز تحول فكر من خليج او من اجنب لمصر يبق تعرب تبسط لناس</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -7138,7 +7138,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>تطبيق سيء فجا فصل وان تختار طلب كمان تبدل الغه من عربيه لانجليز تلقاء</t>
+          <t>تطبيق زفت فجا فصل وان تختار طلب كمان تبدل الغه من عربيه لانجليز تلقاء</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -7238,7 +7238,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>عجيب 👌</t>
+          <t>عجيب ممتاز</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -7318,7 +7318,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>رنامج جدا ممتاز</t>
+          <t>رنامج  ممتاز</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -7338,7 +7338,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>لاسف خدم سيء جدا ضاع علي لوس كتير من محفظه عند</t>
+          <t>لاسف خدم زفت  ضاع علي لوس كتير من محفظه عند</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -7408,7 +7408,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>سيء ياري يبق فيه خط منيب اكتوبر</t>
+          <t>زفت ياري يبق فيه خط منيب اكتوبر</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -7418,7 +7418,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>شء جدا نسبه لي كل ما نطلب ما يوصل طلب بسب مشاكل تطبيق ما انصح فيه ابد</t>
+          <t>شء  نسبه لي كل ما نطلب ما يوصل طلب بسب زفت تطبيق ما انصح فيه ابد</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -7458,7 +7458,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>طلب بس ما يصير تنفيذ طلب يعن لازم يكون اقل شيء سعر 10 دنانير</t>
+          <t>طلب بس ما يصير تنفيذ طلب يعن لازم يكون اقل شيء سعر 1زفت دنانير</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -7488,7 +7488,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>💕</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -7558,7 +7558,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ممتاز طلب حيل 💗</t>
+          <t>ممتاز طلب حيل ممتاز</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -7568,7 +7568,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>صراح تطبيق جدا ممتاز و انصح جميع تحميل</t>
+          <t>صراح تطبيق  ممتاز و انصح جميع تحميل</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -7578,7 +7578,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>💗</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -7608,7 +7608,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>ممتاز جدا جزا اله خير</t>
+          <t>ممتاز  جزا اله خير</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -7678,7 +7678,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>تطبيق متاز و مواعيد دقيق تعامل راق ما شال عنكم و يارا نظيف و اسعار كتير منيح ان شاء اله تضل هيك ع طول ممتاز لفريق</t>
+          <t>تطبيق متاز و مواعيد دقيق تعامل راق ما شال عنكم و يارا ممتاز و اسعار كتير منيح ان شاء اله تضل هيك ع طول ممتاز لفريق</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -7688,7 +7688,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>خدم عملاء سيء جدا و عند طلب من مطاعم يتم رفض ولن يتم تعامل معكم مره اخر</t>
+          <t>خدم عملاء زفت  و عند طلب من مطاعم يتم رفض ولن يتم تعامل معكم مره اخر</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -7698,7 +7698,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>لدي عروض متاز ذهب من 6اكتوبر ال مدخل مسا شيرات ب 5 جني</t>
+          <t>لدي عروض متاز ذهب من 6اكتوبر ال مدخل مسا شيرات ب ممتاز جني</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -7708,7 +7708,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>غال جدا والمصيب كتب توصيل مجا هو ماخذ اعل من توصيل في طلب نفس غير عن تاخير والاحظا ال تكتب في طلب ما حد هتم فيه والطلب من بقاله كثير مرا يج ناقص والاشياء بارده تكون نار او سايح</t>
+          <t>غال  والمصيب كتب توصيل مجا هو ماخذ اعل من توصيل في طلب نفس غير عن تاخير والاحظا ال تكتب في طلب ما حد هتم فيه والطلب من بقاله كثير مرا يج ناقص والاشياء بارده تكون نار او سايح</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -7718,7 +7718,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>ممتاز 👍</t>
+          <t>ممتاز ممتاز</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -7788,7 +7788,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>سيء</t>
+          <t>زفت</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -7798,7 +7798,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>تطبيق يحتو عل مشاكل عند دفع ستخدام بنفت او طاق بنكيه فقد قمت دفع ستخدام بنفت ولك تم غاء طلب بسب زفت من تطبيق ولم يتم اعاد اموال فاتم ان تجد حل لمشكلت واعاد اموال</t>
+          <t>تطبيق يحتو عل زفت عند دفع ستخدام بنفت او طاق بنكيه فقد قمت دفع ستخدام بنفت ولك تم غاء طلب بسب زفت من تطبيق ولم يتم اعاد اموال فاتم ان تجد حل لمشكلت واعاد اموال</t>
         </is>
       </c>
       <c r="B737" t="n">
@@ -7868,7 +7868,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>من حمل تطبيق واستغني تمام عن طلب من تلف مره متاز واطلب من اي مكان ملتزم وقت واتم تكثر قاءم مطاعم ممتاز 👍</t>
+          <t>من حمل تطبيق واستغني تمام عن طلب من تلف مره متاز واطلب من اي مكان ملتزم وقت واتم تكثر قاءم مطاعم ممتاز ممتاز</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -7898,7 +7898,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>انت غب حط 3 سنوا</t>
+          <t>انت زفت حط 3 سنوا</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -7938,7 +7938,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>رهيب جدا</t>
+          <t xml:space="preserve">رهيب </t>
         </is>
       </c>
       <c r="B751" t="n">
@@ -7948,7 +7948,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>رنامج فشل جدا جدا</t>
+          <t xml:space="preserve">رنامج فشل  </t>
         </is>
       </c>
       <c r="B752" t="n">
@@ -7968,7 +7968,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>صراح برنامج جدا خيال تقريب كل يوم اطلب منه يعط خيارا كثير منظم ممتاز جدا استخدام</t>
+          <t>صراح برنامج  خيال تقريب كل يوم اطلب منه يعط خيارا كثير منظم ممتاز  استخدام</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -7988,7 +7988,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>♥️Eva074</t>
+          <t>♥️Evaزفت74</t>
         </is>
       </c>
       <c r="B756" t="n">
@@ -7998,7 +7998,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>ممتاز جدا والدفع عند استلام يصلح عند بيت والطلب ال انت طلب يجيب كله💛</t>
+          <t>ممتاز  والدفع عند استلام يصلح عند بيت والطلب ال انت طلب يجيب كلهممتاز</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -8028,7 +8028,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>سيء طيء</t>
+          <t>زفت طيء</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -8058,7 +8058,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>غب في تحديد موقع</t>
+          <t>زفت في تحديد موقع</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -8068,7 +8068,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>ممتاز جدا</t>
+          <t xml:space="preserve">ممتاز </t>
         </is>
       </c>
       <c r="B764" t="n">
@@ -8088,7 +8088,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>ممتاز جدا ولك اسعار عال جدا</t>
+          <t xml:space="preserve">ممتاز  ولك اسعار عال </t>
         </is>
       </c>
       <c r="B766" t="n">
@@ -8098,7 +8098,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>قوا اله تطبيق اكثر من راءع 👏</t>
+          <t>قوا اله تطبيق اكثر من راءع ممتاز</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -8128,7 +8128,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>ممتاز محترم جدا وال</t>
+          <t>ممتاز محترم  وال</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -8148,7 +8148,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>تم خصم من محفظه 10ج ولم اسحب من خلال ماكين ATM بنك مصر يوم 271202 خدم عملاء تقول هنرجع بعد 14 يوم ازا كلام ده 😠</t>
+          <t>تم خصم من محفظه 1زفتج ولم اسحب من خلال ماكين ATM بنك مصر يوم 2712زفت2 خدم عملاء تقول هنرجع بعد 14 يوم ازا كلام ده زفت</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -8178,7 +8178,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>🤬😡🤬😡🤐🤬😰🤬😰🤬😰🤬😡🤬😡🤬😡🤬😡🤬😡🤬😡</t>
+          <t>زفتزفتزفتزفت🤐زفت😰زفت😰زفت😰زفتزفتزفتزفتزفتزفتزفتزفتزفتزفتزفتزف</t>
         </is>
       </c>
       <c r="B775" t="n">
@@ -8198,7 +8198,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>رنامج متاز خدم 1010</t>
+          <t>رنامج متاز خدم 1زفت1زفت</t>
         </is>
       </c>
       <c r="B777" t="n">
@@ -8238,7 +8238,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>جدا سيء حت نجم حرام فيه مكتوب في موقع فرع ال جمب طلع في فرع بين بين 40 دقيق والطلب غلط</t>
+          <t xml:space="preserve"> زفت حت نجم زفت فيه مكتوب في موقع فرع ال جمب طلع في فرع بين بين 4زفت دقيق والطلب غلط</t>
         </is>
       </c>
       <c r="B781" t="n">
@@ -8348,7 +8348,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>استهبل صح😒حاط مهديه ال مخط م بعد جاء فيه حت كهرب وم حطيت مزاحميه😤</t>
+          <t>استهبل صحزفتحاط مهديه ال مخط م بعد جاء فيه حت كهرب وم حطيت مزاحميهزفت</t>
         </is>
       </c>
       <c r="B792" t="n">
@@ -8388,7 +8388,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>وال روع</t>
+          <t>وال ممتاز</t>
         </is>
       </c>
       <c r="B796" t="n">
@@ -8398,7 +8398,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>تطبيق مريح ملتزم بما تعهد به ممتاز لكل عامل عل هذا نجاح🤗💐</t>
+          <t>تطبيق مريح ملتزم بما تعهد به ممتاز لكل عامل عل هذا نجاحممتاز💐</t>
         </is>
       </c>
       <c r="B797" t="n">
@@ -8428,7 +8428,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>خدم سيء جدا والاوردرا ناقص</t>
+          <t>خدم زفت  والاوردرا ناقص</t>
         </is>
       </c>
       <c r="B800" t="n">
@@ -8438,7 +8438,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>good service</t>
+          <t>So god service</t>
         </is>
       </c>
       <c r="B801" t="n">
@@ -8478,7 +8478,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>تطبيق سيء وكل اماك مشغول</t>
+          <t>تطبيق زفت وكل اماك مشغول</t>
         </is>
       </c>
       <c r="B805" t="n">
@@ -8618,7 +8618,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>ممتاز جدا راءع 😘واو</t>
+          <t>ممتاز  راءع ممتازوا</t>
         </is>
       </c>
       <c r="B819" t="n">
@@ -8708,7 +8708,7 @@
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>صراح تطبيق متاز جدا</t>
+          <t xml:space="preserve">صراح تطبيق متاز </t>
         </is>
       </c>
       <c r="B828" t="n">
@@ -8758,7 +8758,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>خرا</t>
+          <t>زفت</t>
         </is>
       </c>
       <c r="B833" t="n">
@@ -8798,7 +8798,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>راءع جدا وانصح جميع لاستخدام</t>
+          <t>راءع  وانصح جميع لاستخدام</t>
         </is>
       </c>
       <c r="B837" t="n">
@@ -8818,7 +8818,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>تم حذف غير صادق يتاخر كثير جدا جدا</t>
+          <t xml:space="preserve">تم حذف غير صادق يتاخر كثير  </t>
         </is>
       </c>
       <c r="B839" t="n">
@@ -8848,7 +8848,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>متاز جدا جدا جدا جدا طلبا ممتاز عل اكتير ريح واسعار لرخيص</t>
+          <t>متاز     طلبا ممتاز عل اكتير ريح واسعار لرخيص</t>
         </is>
       </c>
       <c r="B842" t="n">
@@ -8878,7 +8878,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>برنامج مره ممتاز انا عند جميع مطاعم 😊</t>
+          <t>برنامج مره ممتاز انا عند جميع مطاعم ممتاز</t>
         </is>
       </c>
       <c r="B845" t="n">
@@ -8918,7 +8918,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>راءع جدا جدا جدا جدا جدا جدا جدا جدا جدا جدا جدا جدا</t>
+          <t xml:space="preserve">راءع            </t>
         </is>
       </c>
       <c r="B849" t="n">
@@ -8968,7 +8968,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>زفت جدا ولا نجم لانو سيء جدا</t>
+          <t xml:space="preserve">زفت  ولا نجم لانو زفت </t>
         </is>
       </c>
       <c r="B854" t="n">
@@ -8988,7 +8988,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>ممتاز عنجد والطلب اقل من ساع يوصل بتم الكل يحمل مبارح طلب يتز شوي ممتازيا موكولا ممتاز وصل باقل من ساع واو طعم ولا اروع ممتاز ممتاز ممتاز لمصم ممتاز</t>
+          <t>ممتاز عنجد والطلب اقل من ساع يوصل بتم الكل يحمل مبارح طلب يتز شوي ممتازيا موكولا ممتاز وصل باقل من ساع واو طعم ولا اممتاز ممتاز ممتاز ممتاز لمصم ممتاز</t>
         </is>
       </c>
       <c r="B856" t="n">
@@ -9008,7 +9008,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>طلب ياخذ وقت طلب 130 ما جان طلب الا ساعه 345 مصخر</t>
+          <t>طلب ياخذ وقت طلب 13زفت ما جان طلب الا ساعه 34ممتاز مصخر</t>
         </is>
       </c>
       <c r="B858" t="n">
@@ -9058,7 +9058,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>اممتاز تطبيق طلبا جزيل ممتاز عل تعاون مساند لي واممتاز كل عامل محترم فيه 🙏 مجرد ما ارسل شكوت لقسم مختص قام ممتاز بحل زفت وقد تم رد ثمن سلعه تالفه كامل لرصيد في طلبا 👍 زياد اممتاز</t>
+          <t>اممتاز تطبيق طلبا جزيل ممتاز عل تعاون مساند لي واممتاز كل عامل محترم فيه 🙏 مجرد ما ارسل شكوت لقسم مختص قام ممتاز بحل زفت وقد تم رد ثمن سلعه تالفه كامل لرصيد في طلبا ممتاز زياد اممتاز</t>
         </is>
       </c>
       <c r="B863" t="n">
@@ -9098,7 +9098,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>قو 😍</t>
+          <t>قو ممتاز</t>
         </is>
       </c>
       <c r="B867" t="n">
@@ -9128,7 +9128,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>ممتاز تطبيق حق طلبا اكل بس اتم يعن يعطون هداي 😂😊يع انا اكثر وحد اتوقع مربح طلبا من كثر ما اطلب كل يوم طالب يعن مثل يعطون خصوما حق ناس ميزه 😎</t>
+          <t>ممتاز تطبيق حق طلبا اكل بس اتم يعن يعطون هداي 😂ممتازيع انا اكثر وحد اتوقع مربح طلبا من كثر ما اطلب كل يوم طالب يعن مثل يعطون خصوما حق ناس ميزه 😎</t>
         </is>
       </c>
       <c r="B870" t="n">
@@ -9148,7 +9148,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>لذيذ جدا ممتاز توصيل</t>
+          <t>لذيذ  ممتاز توصيل</t>
         </is>
       </c>
       <c r="B872" t="n">
@@ -9218,7 +9218,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>كل مطاعم موجود 😍</t>
+          <t>كل مطاعم موجود ممتاز</t>
         </is>
       </c>
       <c r="B879" t="n">
@@ -9258,7 +9258,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>لازم حرص ع مواعيد حال اكل من جه نظافه ساخ تغليف</t>
+          <t>لازم حرص ع مواعيد حال اكل من جهه نظافه ساخ تغليف</t>
         </is>
       </c>
       <c r="B883" t="n">
@@ -9268,7 +9268,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>اول تطبق ممتاز جدا وانصح تحميل ثاني جهاز او مكنه ال تبق عند راجل صوت مزعج جدا بتم ان يتم تغير نغمه</t>
+          <t>اول تطبق ممتاز  وانصح تحميل ثاني جهاز او مكنه ال تبق عند راجل صوت مزعج  بتم ان يتم تغير نغمه</t>
         </is>
       </c>
       <c r="B884" t="n">
@@ -9328,7 +9328,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>تطبيق جدا ممتاز بس انا حطيط اربع نجوم علشان كان في مطعم انا كتير حبو بس مو موجود عل قاءمه رجاء اضاف مطعم DUNKIN DONUTS</t>
+          <t>تطبيق  ممتاز بس انا حطيط اربع نجوم علشان كان في مطعم انا كتير حبو بس مو موجود عل قاءمه رجاء اضاف مطعم DUNKIN DONUTS</t>
         </is>
       </c>
       <c r="B890" t="n">
@@ -9358,7 +9358,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>تجرب سيء تطبيق زفت</t>
+          <t>تجرب زفت تطبيق زفت</t>
         </is>
       </c>
       <c r="B893" t="n">
@@ -9388,7 +9388,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>طلب اوردر فضل متابع ع تطبيق لحد م قل قيد لتوصيل خمس دقايق يوصل عدا 5دقايق والاوردر اكتب تم تسليم مجاليش اصل اقسم بال بجد احا اي شغل معاتيه دا</t>
+          <t>طلب اوردر فضل متابع ع تطبيق لحد م قل قيد لتوصيل خمس دقايق يوصل عدا ممتازدقايق والاوردر اكتب تم تسليم مجاليش اصل اقسم بال بجد احا اي شغل معاتيه دا</t>
         </is>
       </c>
       <c r="B896" t="n">
@@ -9458,7 +9458,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>وال عضيم انه خدمه زبال وال م انصح تحميل برنامج والمشاهير ال يمدح في برنامج ترا كله عشان لوس اعل ول هو ابو كلب طلب طلب ول 4 ساعا است فيه وهو كاتب اخر حد لتوصيل 1 يعن اذا مره تاخر ساع يكون عند وانا لي 4 ساعا است فيه رنامج جدا سيء خدم سيء هذ وجه نظر</t>
+          <t>وال عضيم انه خدمه زبال وال م انصح تحميل برنامج والمشاهير ال يمدح في برنامج ترا كله عشان لوس اعل ول هو ابو كلب طلب طلب ول 4 ساعا است فيه وهو كاتب اخر حد لتوصيل 1 يعن اذا مره تاخر ساع يكون عند وانا لي 4 ساعا است فيه رنامج  زفت خدم زفت هذ وجه نظر</t>
         </is>
       </c>
       <c r="B903" t="n">
@@ -9468,7 +9468,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>دلوقت انا لسه مطلباش ولا طلب اول طلب ليه مفروض ليه خصم كتب كود تاع خصم مش يخصمليكم لاد تبار اله عند خصوما 20ج خصوما تان انا مش عند ازا كده</t>
+          <t>دلوقت انا لسه مطلباش ولا طلب اول طلب ليه مفروض ليه خصم كتب كود تاع خصم مش يخصمليكم لاد تبار اله عند خصوما 2زفتج خصوما تان انا مش عند ازا كده</t>
         </is>
       </c>
       <c r="B904" t="n">
@@ -9508,7 +9508,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>اله روع لاروع ممتاز</t>
+          <t>اله ممتاز لاممتاز ممتاز</t>
         </is>
       </c>
       <c r="B908" t="n">
@@ -9528,7 +9528,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>👎🏻👎🏻👎🏻👎🏻👎🏻</t>
+          <t>زفت🏻زفت🏻زفت🏻زفت🏻زفت🏻</t>
         </is>
       </c>
       <c r="B910" t="n">
@@ -9558,7 +9558,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>اسعار توصيل معقول جدا</t>
+          <t xml:space="preserve">اسعار توصيل معقول </t>
         </is>
       </c>
       <c r="B913" t="n">
@@ -9578,7 +9578,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>شي بارف طلب يوصل لعند ناس تان و لما تصل تسال عن طلب است 20 دقيق بعد 30 دقيق اخر ما حدا حاك وبس تحس تواصل معه عالتشا عنجد خدم من اسو ما يكون</t>
+          <t>شي بارف طلب يوصل لعند ناس تان و لما تصل تسال عن طلب است 2زفت دقيق بعد 3زفت دقيق اخر ما حدا حاك وبس تحس تواصل معه عالتشا عنجد خدم من اسو ما يكون</t>
         </is>
       </c>
       <c r="B915" t="n">
@@ -9588,7 +9588,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>تطبيق روع</t>
+          <t>تطبيق ممتاز</t>
         </is>
       </c>
       <c r="B916" t="n">
@@ -9598,7 +9598,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>طلبا كان رنامج عجيب بعد تحديث صار خايس👎</t>
+          <t>طلبا كان رنامج عجيب بعد تحديث صار زفتزف</t>
         </is>
       </c>
       <c r="B917" t="n">
@@ -9608,7 +9608,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>عطو عرض مده ربع ساع و لمطعم بس مهم اختر اصناف و باق 5 دقايق رحت دفع علق لمد 5 دقايق و عقب خذو عرض من ونس لمد 10 دقايق و زقو يوم كله 😢</t>
+          <t>عطو عرض مده ربع ساع و لمطعم بس مهم اختر اصناف و باق ممتاز دقايق رحت دفع علق لمد ممتاز دقايق و عقب خذو عرض من ونس لمد 1زفت دقايق و زقو يوم كله زفت</t>
         </is>
       </c>
       <c r="B918" t="n">
@@ -9628,7 +9628,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>تم تقيم 5 نجوم بعد ان كان 1 نجم مجرد تواصل مع ♥️♥️</t>
+          <t>تم تقيم ممتاز نجوم بعد ان كان 1 نجم مجرد تواصل مع ♥️♥️</t>
         </is>
       </c>
       <c r="B920" t="n">
@@ -9638,7 +9638,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>رنامج ممتاز مختصر 👍</t>
+          <t>رنامج ممتاز مختصر ممتاز</t>
         </is>
       </c>
       <c r="B921" t="n">
@@ -9658,7 +9658,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>انا امو اكل صين والهند والغرب والافريق حسب ترتيب والبرنامج ممتاز يوصل حد مطعم صين جدا محترم يجيبل جد بيت واو انا دلحين اول زيار لي لسعود جيت عشان عمر وهو مر ايز</t>
+          <t>انا امو اكل صين والهند والغرب والافريق حسب ترتيب والبرنامج ممتاز يوصل حد مطعم صين  محترم يجيبل جد بيت واو انا دلحين اول زيار لي لسعود جيت عشان عمر وهو مر ايز</t>
         </is>
       </c>
       <c r="B923" t="n">
@@ -9698,7 +9698,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>يقول ف خصم 70 جني ع اول اورد نزل وجي اجرب معملش اي خصم</t>
+          <t>يقول ف خصم 7زفت جني ع اول اورد نزل وجي اجرب معملش اي خصم</t>
         </is>
       </c>
       <c r="B927" t="n">
@@ -9718,7 +9718,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>ممتاز جدا مجرب 😁👍</t>
+          <t>ممتاز  مجرب ممتازممتاز</t>
         </is>
       </c>
       <c r="B929" t="n">
@@ -9768,7 +9768,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>تطبيق تطبيق شوكلول عل قول ناج قاق نصح الكل ينزل جيب لك نفس سعر لباب بيت مرا كون عامل عروض كون خصم 50 مءه بيج ارخص من لما تروح عل محل والتوصيل مجا انصح الكل تجرب هذا تطبيق</t>
+          <t>تطبيق تطبيق شوكلول عل قول ناج قاق نصح الكل ينزل جيب لك نفس سعر لباب بيت مرا كون عامل عروض كون خصم ممتاززفت مءه بيج ارخص من لما تروح عل محل والتوصيل مجا انصح الكل تجرب هذا تطبيق</t>
         </is>
       </c>
       <c r="B934" t="n">
@@ -9788,7 +9788,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>روع بس ياري نقدر نتبع طلب معرف موقع طلب</t>
+          <t>ممتاز بس ياري نقدر نتبع طلب معرف موقع طلب</t>
         </is>
       </c>
       <c r="B936" t="n">
@@ -9808,7 +9808,7 @@
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>متاز😊</t>
+          <t>متازممتاز</t>
         </is>
       </c>
       <c r="B938" t="n">
@@ -9818,7 +9818,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>روع</t>
+          <t>ممتاز</t>
         </is>
       </c>
       <c r="B939" t="n">
@@ -9828,7 +9828,7 @@
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>بعد تعامل دام سنه ونص تقريب ، مسح تطبيق ،لان فعل صار مقرف وضع ،تاخير قبول طلب شكل داءم ، يعن يا الغ طلب او اقبل طلب ليش يضل الزب يست نهايه تلغ طلب نزل تطبيق كريم يوم وعن تجرب ممتاز من طلبا كثير مسح طلبا</t>
+          <t>بعد تعامل دام سنه ونص تقريب ، مسح تطبيق ،لان فعل صار زفت وضع ،تاخير قبول طلب شكل داءم ، يعن يا الغ طلب او اقبل طلب ليش يضل الزب يست نهايه تلغ طلب نزل تطبيق كريم يوم وعن تجرب ممتاز من طلبا كثير مسح طلبا</t>
         </is>
       </c>
       <c r="B940" t="n">
@@ -9868,7 +9868,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>متاز جدان</t>
+          <t>متاز ن</t>
         </is>
       </c>
       <c r="B944" t="n">
@@ -9908,7 +9908,7 @@
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>👎 سيء</t>
+          <t>زفت زفت</t>
         </is>
       </c>
       <c r="B948" t="n">
@@ -10048,7 +10048,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>احس انه طلبا احس من كرج لان كرج يبون ايميل و رقم ام طلبا بس رقم واسرع وارخص😘</t>
+          <t>احس انه طلبا احس من كرج لان كرج يبون ايميل و رقم ام طلبا بس رقم واسرع وارخصممتاز</t>
         </is>
       </c>
       <c r="B962" t="n">
@@ -10098,7 +10098,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>تطبيق راءع توصيل ممتاز ودق مواعيد استاهل مليون نجم 🔥⭐</t>
+          <t>تطبيق راءع توصيل ممتاز ودق مواعيد استاهل مليون نجم ممتاز⭐</t>
         </is>
       </c>
       <c r="B967" t="n">
@@ -10118,7 +10118,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>موقع ممتاز😘</t>
+          <t>موقع ممتازممتاز</t>
         </is>
       </c>
       <c r="B969" t="n">
@@ -10128,7 +10128,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>اكتشف ان تطبيق يزود عل اسعار منتج وعل سبيل تجربه كيلو سمك مشو عند ابو علام ب 60 جني هما كتبين ب 80 جني دا طبع غير مصاريف توصيل كمان بان تهام كل حاج ازيد من تمن اصل ي ارز بالبن ب 10 جني كتبين ب 15 جني واكتر من كده زي بازوك غير لاسف مش هتعامل مع تطبيق تان لعدم مصداقيه</t>
+          <t>اكتشف ان تطبيق يزود عل اسعار منتج وعل سبيل تجربه كيلو سمك مشو عند ابو علام ب 6زفت جني هما كتبين ب 8زفت جني دا طبع غير مصاريف توصيل كمان بان تهام كل حاج ازيد من تمن اصل ي ارز بالبن ب 1زفت جني كتبين ب 1ممتاز جني واكتر من كده زي بازوك غير لاسف مش هتعامل مع تطبيق تان لعدم مصداقيه</t>
         </is>
       </c>
       <c r="B970" t="n">
@@ -10168,7 +10168,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>انصح تنزل واممتاز مءلف تطبيق جدا❤💖</t>
+          <t>انصح تنزل واممتاز مءلف تطبيق ❤ممتاز</t>
         </is>
       </c>
       <c r="B974" t="n">
@@ -10178,7 +10178,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>👍♥️</t>
+          <t>ممتاز♥️</t>
         </is>
       </c>
       <c r="B975" t="n">
@@ -10218,7 +10218,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>نجم فقط لتعليق ولا هو اقل من نجم ولا استاهل حت ربع نجم تطبيق سيء جدا جدا جدا لغا ما انصح تحميل ابد</t>
+          <t>نجم فقط لتعليق ولا هو اقل من نجم ولا استاهل حت ربع نجم تطبيق زفت    لغا ما انصح تحميل ابد</t>
         </is>
       </c>
       <c r="B979" t="n">
@@ -10228,7 +10228,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>تطبيق متاز كل طلبات يوصل في وقت محد ضبط دون اي تاخير بس مطاعم بيتزا ماتوصل لمنطقت اتم توسع نطاق اكثر ممتاز عل جهودكم🔥❤</t>
+          <t>تطبيق متاز كل طلبات يوصل في وقت محد ضبط دون اي تاخير بس مطاعم بيتزا ماتوصل لمنطقت اتم توسع نطاق اكثر ممتاز عل جهودكمممتاز❤</t>
         </is>
       </c>
       <c r="B980" t="n">
@@ -10238,7 +10238,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>انا طلب من هارديز جلس ساعت بعد قل انه انغا طلب زي خرا وال لاحد يحمل</t>
+          <t>انا طلب من هارديز جلس ساعت بعد قل انه انغا طلب زي زفت وال لاحد يحمل</t>
         </is>
       </c>
       <c r="B981" t="n">
@@ -10248,7 +10248,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>كل شوي تبعت اشعارا خش دلوات اطلب باكتر من 80 جني تاخد خصم 40 جني وام اخش اطلب ملقيش مطاعم ال طلب منه ولو لقي تبق مشغول ولو مش مشغول الاق فاتوره جاي من غير خصم</t>
+          <t>كل شوي تبعت اشعارا خش دلوات اطلب باكتر من 8زفت جني تاخد خصم 4زفت جني وام اخش اطلب ملقيش مطاعم ال طلب منه ولو لقي تبق مشغول ولو مش مشغول الاق فاتوره جاي من غير خصم</t>
         </is>
       </c>
       <c r="B982" t="n">
@@ -10268,7 +10268,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>ال يوصل اكل خدم توصيل سيء جدا يسلم طلبيه دون فاتور و دون ارجاع باق فلوس</t>
+          <t>ال يوصل اكل خدم توصيل زفت  يسلم طلبيه دون فاتور و دون ارجاع باق فلوس</t>
         </is>
       </c>
       <c r="B984" t="n">
@@ -10278,7 +10278,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>خدم عملاء سيء جدا جدا تقيم 0</t>
+          <t>خدم عملاء زفت   تقيم زفت</t>
         </is>
       </c>
       <c r="B985" t="n">
@@ -10288,7 +10288,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>متاز جدا 👍🏻</t>
+          <t>متاز  ممتاز🏻</t>
         </is>
       </c>
       <c r="B986" t="n">
@@ -10298,7 +10298,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>احس تطبيق 🥰❤</t>
+          <t>احس تطبيق ممتاز❤</t>
         </is>
       </c>
       <c r="B987" t="n">
@@ -10378,7 +10378,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>وال وال روع بس ليش يتاخر</t>
+          <t>وال وال ممتاز بس ليش يتاخر</t>
         </is>
       </c>
       <c r="B995" t="n">
@@ -10388,7 +10388,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>تطبيق حرفي زبال كداب يدو عروض خصوما ولم تيج تدفع ميفعلش خصوم تدفع تمن كله دايم مطعم يلغ طلب ميوصلش يقول تم استلام طلب افشل رنامج حرفي</t>
+          <t>تطبيق حرفي زبال كداب يدو عروض خصوما ولم تيج تدفع ميفعلش خصوم تدفع تمن كله دايم مطعم زفت طلب ميوصلش يقول تم استلام طلب زفت رنامج حرفي</t>
         </is>
       </c>
       <c r="B996" t="n">
@@ -10398,7 +10398,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>هو ليه مش شغال كل شوي يقول تم ارسال كود زفت حاج حرام وال انتو عامل اعلان ملا</t>
+          <t>هو ليه مش شغال كل شوي يقول تم ارسال كود زفت حاج زفت وال انتو عامل اعلان ملا</t>
         </is>
       </c>
       <c r="B997" t="n">

--- a/Project Arabic Sentiment Analysis/preprocessed_val.xlsx
+++ b/Project Arabic Sentiment Analysis/preprocessed_val.xlsx
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>good ❤</t>
+          <t>Very God ❤</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -6138,7 +6138,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>God fod</t>
+          <t>good food</t>
         </is>
       </c>
       <c r="B571" t="n">
